--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD27A57-A887-4391-B09D-459177829F38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8035442E-A98A-4629-9CB9-7C801CAC4B18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -199,14 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行类型_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,7 +227,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行目标_1</t>
+    <t>执行类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -1434,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>34</v>
@@ -1455,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1602,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FC2A-2991-4CA0-84DC-E10381A779FA}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1665,13 +1665,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1683,13 +1683,13 @@
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1701,13 +1701,13 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1719,13 +1719,13 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1737,13 +1737,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1755,13 +1755,13 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1773,13 +1773,13 @@
         <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1791,13 +1791,13 @@
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1809,13 +1809,13 @@
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -1827,13 +1827,13 @@
         <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8035442E-A98A-4629-9CB9-7C801CAC4B18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28841FA1-33B4-41A8-88B0-71C5E31324FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
-    <sheet name="技能" sheetId="2" r:id="rId2"/>
-    <sheet name="技能效果" sheetId="3" r:id="rId3"/>
+    <sheet name="属性相克" sheetId="5" r:id="rId2"/>
+    <sheet name="技能" sheetId="2" r:id="rId3"/>
+    <sheet name="技能效果" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -207,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +233,86 @@
   </si>
   <si>
     <t>执行参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草,毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,飞行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +356,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -389,6 +472,11 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -669,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -680,22 +768,23 @@
     <col min="1" max="1" width="8.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="4" customWidth="1"/>
-    <col min="8" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="10.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11" style="4" customWidth="1"/>
-    <col min="16" max="17" width="11.125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="4" customWidth="1"/>
-    <col min="19" max="20" width="10.625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="14.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="10" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="4" customWidth="1"/>
+    <col min="9" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="10.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11" style="4" customWidth="1"/>
+    <col min="17" max="18" width="11.125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="4" customWidth="1"/>
+    <col min="20" max="21" width="10.625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="255.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,100 +794,102 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4">
         <v>450</v>
-      </c>
-      <c r="E2" s="4">
-        <v>49</v>
       </c>
       <c r="F2" s="4">
         <v>49</v>
       </c>
       <c r="G2" s="4">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4">
         <v>45</v>
       </c>
-      <c r="H2" s="4">
-        <f>D2/100</f>
+      <c r="I2" s="4">
+        <f>E2/100</f>
         <v>4.5</v>
       </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:K2" si="0">E2/100</f>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:L2" si="0">F2/100</f>
         <v>0.49</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="L2" s="4">
-        <f>D2+49*H2</f>
-        <v>670.5</v>
-      </c>
       <c r="M2" s="4">
         <f>E2+49*I2</f>
-        <v>73.009999999999991</v>
+        <v>670.5</v>
       </c>
       <c r="N2" s="4">
         <f>F2+49*J2</f>
@@ -806,593 +897,621 @@
       </c>
       <c r="O2" s="4">
         <f>G2+49*K2</f>
+        <v>73.009999999999991</v>
+      </c>
+      <c r="P2" s="4">
+        <f>H2+49*L2</f>
         <v>67.05</v>
       </c>
-      <c r="P2" s="4">
-        <f>D2+99*H2</f>
+      <c r="Q2" s="4">
+        <f>E2+99*I2</f>
         <v>895.5</v>
       </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:S2" si="1">E2+99*I2</f>
+      <c r="R2" s="4">
+        <f t="shared" ref="R2:T2" si="1">F2+99*J2</f>
         <v>97.509999999999991</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <f t="shared" si="1"/>
         <v>97.509999999999991</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <f t="shared" si="1"/>
         <v>89.550000000000011</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4">
         <v>600</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>62</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>63</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>60</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H10" si="2">D3/100</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I10" si="2">E3/100</f>
         <v>6</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I10" si="3">E3/100</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J10" si="3">F3/100</f>
         <v>0.62</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J10" si="4">F3/100</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K10" si="4">G3/100</f>
         <v>0.63</v>
       </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K10" si="5">G3/100</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L10" si="5">H3/100</f>
         <v>0.6</v>
       </c>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L10" si="6">D3+49*H3</f>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M10" si="6">E3+49*I3</f>
         <v>894</v>
       </c>
-      <c r="M3" s="4">
-        <f t="shared" ref="M3:M10" si="7">E3+49*I3</f>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N10" si="7">F3+49*J3</f>
         <v>92.38</v>
       </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N10" si="8">F3+49*J3</f>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O10" si="8">G3+49*K3</f>
         <v>93.87</v>
       </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O10" si="9">G3+49*K3</f>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P10" si="9">H3+49*L3</f>
         <v>89.4</v>
       </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P10" si="10">D3+99*H3</f>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q10" si="10">E3+99*I3</f>
         <v>1194</v>
       </c>
-      <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q10" si="11">E3+99*I3</f>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R10" si="11">F3+99*J3</f>
         <v>123.38</v>
       </c>
-      <c r="R3" s="4">
-        <f t="shared" ref="R3:R10" si="12">F3+99*J3</f>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S10" si="12">G3+99*K3</f>
         <v>125.37</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S10" si="13">G3+99*K3</f>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T10" si="13">H3+99*L3</f>
         <v>119.4</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4">
         <v>800</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>82</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>83</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>80</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <f t="shared" si="3"/>
         <v>0.82</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="4"/>
         <v>0.83</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <f t="shared" si="6"/>
         <v>1192</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <f t="shared" si="7"/>
         <v>122.18</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <f t="shared" si="8"/>
         <v>123.66999999999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <f t="shared" si="9"/>
         <v>119.2</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <f t="shared" si="10"/>
         <v>1592</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="11"/>
         <v>163.18</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="12"/>
         <v>165.17000000000002</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="13"/>
         <v>159.19999999999999</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4">
         <v>390</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>52</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>65</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <f t="shared" si="2"/>
         <v>3.9</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="4"/>
         <v>0.43</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <f t="shared" si="6"/>
         <v>581.1</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <f t="shared" si="7"/>
         <v>77.48</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="8"/>
         <v>64.069999999999993</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <f t="shared" si="9"/>
         <v>96.85</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <f t="shared" si="10"/>
         <v>776.09999999999991</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="11"/>
         <v>103.48</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="12"/>
         <v>85.57</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="13"/>
         <v>129.35000000000002</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4">
         <v>580</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>64</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>58</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>80</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="4"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <f t="shared" si="6"/>
         <v>864.2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <f t="shared" si="7"/>
         <v>95.36</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="8"/>
         <v>86.42</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <f t="shared" si="9"/>
         <v>119.2</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <f t="shared" si="10"/>
         <v>1154.1999999999998</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="11"/>
         <v>127.36</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="12"/>
         <v>115.41999999999999</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="13"/>
         <v>159.19999999999999</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4">
         <v>780</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>84</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>78</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>100</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="4"/>
         <v>0.78</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <f t="shared" si="6"/>
         <v>1162.2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <f t="shared" si="7"/>
         <v>125.16</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="8"/>
         <v>116.22</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <f t="shared" si="9"/>
         <v>149</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <f t="shared" si="10"/>
         <v>1552.1999999999998</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="11"/>
         <v>167.16</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="12"/>
         <v>155.22</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="13"/>
         <v>199</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4">
         <v>440</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>48</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>65</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>43</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f t="shared" si="5"/>
         <v>0.43</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="6"/>
         <v>655.6</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <f t="shared" si="7"/>
         <v>71.52</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="8"/>
         <v>96.85</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="9"/>
         <v>64.069999999999993</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <f t="shared" si="10"/>
         <v>875.6</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="11"/>
         <v>95.52</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="12"/>
         <v>129.35000000000002</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="13"/>
         <v>85.57</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4">
         <v>590</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>63</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>80</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>58</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="5"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <f t="shared" si="6"/>
         <v>879.1</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <f t="shared" si="7"/>
         <v>93.87</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="8"/>
         <v>119.2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="9"/>
         <v>86.42</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <f t="shared" si="10"/>
         <v>1174.0999999999999</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="11"/>
         <v>125.37</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="12"/>
         <v>159.19999999999999</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="13"/>
         <v>115.41999999999999</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>801</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4">
         <v>790</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>83</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>78</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <f t="shared" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <f t="shared" si="6"/>
         <v>1177.0999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <f t="shared" si="7"/>
         <v>123.66999999999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="8"/>
         <v>149</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <f t="shared" si="9"/>
         <v>116.22</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <f t="shared" si="10"/>
         <v>1572.1</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="11"/>
         <v>165.17000000000002</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="12"/>
         <v>199</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="13"/>
         <v>155.22</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <v>901</v>
       </c>
     </row>
@@ -1404,11 +1523,847 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA11CA0-7A9E-41CA-BB3A-F91228AD477D}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="57" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>A2</f>
+        <v>一般</v>
+      </c>
+      <c r="C1" s="10" t="str">
+        <f>A3</f>
+        <v>格斗</v>
+      </c>
+      <c r="D1" s="10" t="str">
+        <f>A4</f>
+        <v>飞行</v>
+      </c>
+      <c r="E1" s="10" t="str">
+        <f>A5</f>
+        <v>毒</v>
+      </c>
+      <c r="F1" s="10" t="str">
+        <f>A6</f>
+        <v>地面</v>
+      </c>
+      <c r="G1" s="10" t="str">
+        <f>A7</f>
+        <v>岩石</v>
+      </c>
+      <c r="H1" s="10" t="str">
+        <f>A8</f>
+        <v>虫</v>
+      </c>
+      <c r="I1" s="10" t="str">
+        <f>A9</f>
+        <v>幽灵</v>
+      </c>
+      <c r="J1" s="10" t="str">
+        <f>A10</f>
+        <v>火</v>
+      </c>
+      <c r="K1" s="10" t="str">
+        <f>A11</f>
+        <v>水</v>
+      </c>
+      <c r="L1" s="10" t="str">
+        <f>A12</f>
+        <v>草</v>
+      </c>
+      <c r="M1" s="10" t="str">
+        <f>A13</f>
+        <v>电</v>
+      </c>
+      <c r="N1" s="10" t="str">
+        <f>A14</f>
+        <v>超能</v>
+      </c>
+      <c r="O1" s="10" t="str">
+        <f>A15</f>
+        <v>冰</v>
+      </c>
+      <c r="P1" s="10" t="str">
+        <f>A16</f>
+        <v>龙</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="P15" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E79A0-2A6E-4BEE-9716-273DBB4CF2DE}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>45</v>
@@ -1455,7 +2410,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1476,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1497,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1518,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1539,7 +2494,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1560,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1581,7 +2536,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1602,7 +2557,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1623,7 +2578,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1639,205 +2594,236 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FC2A-2991-4CA0-84DC-E10381A779FA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="2" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>10101</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>20101</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>30101</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>40101</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>50101</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>60101</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>70101</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>80101</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>90101</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401AAF71-DCE0-4191-B2BD-0D369ADEE6B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FA971B-B270-408F-8D91-9CA1CEB344CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
-    <sheet name="属性相克" sheetId="5" r:id="rId2"/>
-    <sheet name="技能" sheetId="2" r:id="rId3"/>
-    <sheet name="技能效果" sheetId="3" r:id="rId4"/>
-    <sheet name="忽略_初始数值" sheetId="6" r:id="rId5"/>
+    <sheet name="技能" sheetId="2" r:id="rId2"/>
+    <sheet name="技能效果" sheetId="3" r:id="rId3"/>
+    <sheet name="状态" sheetId="7" r:id="rId4"/>
+    <sheet name="属性相克" sheetId="5" r:id="rId5"/>
+    <sheet name="忽略_初始数值" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,8 +24,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1F3D88BB-3ADA-4BDA-8C29-49ADB1F47770}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>10：增益效果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">（能被识别为buff的效果，都有这个）
+11：可被驱散的增益效果（用来标记驱散buff的效果，驱散只能11）
+12：随机增益效果（可以被随机上一个buff的能力上上去的基础效果）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>20：减益效果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（能被识别为debuff的效果，都有这个）
+21：可被驱散的减益效果（用来标记驱散debuff的效果，驱散只能21）
+22：随机减益效果（可以被随机上一个debuff的能力上上去的基础效果）
+25：持续伤害效果（用于直接结算dot）
+30：控制效果
+40：护盾</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="303">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -41,18 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>妙蛙花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙蛙草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小火龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,22 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系数:1,射程:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一般</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +825,325 @@
   </si>
   <si>
     <t>撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>状态标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>10 11 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>减受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无差别攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法收到治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持状态刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 11 12</t>
+  </si>
+  <si>
+    <t>减攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:202,数值:30,系数:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:201,数值:30,系数:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,数值:30,系数:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +1151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,8 +1186,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,6 +1275,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -932,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -972,6 +1361,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1254,28 +1655,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U152"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.25" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="10.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11" style="4" customWidth="1"/>
-    <col min="17" max="18" width="11.125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="4" customWidth="1"/>
-    <col min="20" max="21" width="10.625" style="4" customWidth="1"/>
+    <col min="13" max="20" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1290,58 +1684,58 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -1353,7 +1747,7 @@
         <v>妙蛙种子</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E2" s="4">
         <f>忽略_初始数值!B2*10</f>
@@ -1432,7 +1826,7 @@
         <v>妙蛙草</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E3" s="4">
         <f>忽略_初始数值!B3*10</f>
@@ -1499,7 +1893,7 @@
         <v>119.4</v>
       </c>
       <c r="U3" s="4">
-        <v>1001</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -1511,7 +1905,7 @@
         <v>妙蛙花</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4">
         <f>忽略_初始数值!B4*10</f>
@@ -1577,8 +1971,8 @@
         <f t="shared" si="13"/>
         <v>159.19999999999999</v>
       </c>
-      <c r="U4" s="4">
-        <v>1001</v>
+      <c r="U4" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -1590,7 +1984,7 @@
         <v>小火龙</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4">
         <f>忽略_初始数值!B5*10</f>
@@ -1669,7 +2063,7 @@
         <v>火恐龙</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4">
         <f>忽略_初始数值!B6*10</f>
@@ -1736,7 +2130,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="U6" s="4">
-        <v>1001</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -1748,7 +2142,7 @@
         <v>喷火龙</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E7" s="4">
         <f>忽略_初始数值!B7*10</f>
@@ -1814,8 +2208,8 @@
         <f t="shared" si="13"/>
         <v>199</v>
       </c>
-      <c r="U7" s="4">
-        <v>1001</v>
+      <c r="U7" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -1827,7 +2221,7 @@
         <v>杰尼龟</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4">
         <f>忽略_初始数值!B8*10</f>
@@ -1906,7 +2300,7 @@
         <v>卡咪龟</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <f>忽略_初始数值!B9*10</f>
@@ -1973,7 +2367,7 @@
         <v>115.41999999999999</v>
       </c>
       <c r="U9" s="4">
-        <v>1001</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -1985,7 +2379,7 @@
         <v>水箭龟</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4">
         <f>忽略_初始数值!B10*10</f>
@@ -2051,8 +2445,8 @@
         <f t="shared" si="13"/>
         <v>155.22</v>
       </c>
-      <c r="U10" s="4">
-        <v>1001</v>
+      <c r="U10" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -2064,7 +2458,7 @@
         <v>绿毛虫</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4">
         <f>忽略_初始数值!B11*10</f>
@@ -2135,6 +2529,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
       <c r="B12" s="15">
         <v>11</v>
       </c>
@@ -2143,7 +2540,7 @@
         <v>铁甲蛹</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <f>忽略_初始数值!B12*10</f>
@@ -2214,6 +2611,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
       <c r="B13" s="15">
         <v>12</v>
       </c>
@@ -2222,7 +2622,7 @@
         <v>巴大蝶</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E13" s="4">
         <f>忽略_初始数值!B13*10</f>
@@ -2293,6 +2693,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
       <c r="B14" s="15">
         <v>13</v>
       </c>
@@ -2301,7 +2704,7 @@
         <v>独角虫</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E14" s="4">
         <f>忽略_初始数值!B14*10</f>
@@ -2372,6 +2775,9 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
       <c r="B15" s="15">
         <v>14</v>
       </c>
@@ -2380,7 +2786,7 @@
         <v>铁壳蛹</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E15" s="4">
         <f>忽略_初始数值!B15*10</f>
@@ -2451,6 +2857,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
       <c r="B16" s="15">
         <v>15</v>
       </c>
@@ -2459,7 +2868,7 @@
         <v>大针蜂</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E16" s="4">
         <f>忽略_初始数值!B16*10</f>
@@ -2529,7 +2938,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
       <c r="B17" s="15">
         <v>16</v>
       </c>
@@ -2538,7 +2950,7 @@
         <v>波波</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E17" s="4">
         <f>忽略_初始数值!B17*10</f>
@@ -2608,7 +3020,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
       <c r="B18" s="15">
         <v>17</v>
       </c>
@@ -2617,7 +3032,7 @@
         <v>比比鸟</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E18" s="4">
         <f>忽略_初始数值!B18*10</f>
@@ -2687,7 +3102,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
       <c r="B19" s="15">
         <v>18</v>
       </c>
@@ -2696,7 +3114,7 @@
         <v>大比鸟</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E19" s="4">
         <f>忽略_初始数值!B19*10</f>
@@ -2766,7 +3184,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
       <c r="B20" s="15">
         <v>19</v>
       </c>
@@ -2775,7 +3196,7 @@
         <v>小拉达</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4">
         <f>忽略_初始数值!B20*10</f>
@@ -2845,7 +3266,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
       <c r="B21" s="15">
         <v>20</v>
       </c>
@@ -2854,7 +3278,7 @@
         <v>拉达</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4">
         <f>忽略_初始数值!B21*10</f>
@@ -2924,7 +3348,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
       <c r="B22" s="15">
         <v>21</v>
       </c>
@@ -2933,7 +3360,7 @@
         <v>烈雀</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E22" s="4">
         <f>忽略_初始数值!B22*10</f>
@@ -3003,7 +3430,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
       <c r="B23" s="15">
         <v>22</v>
       </c>
@@ -3012,7 +3442,7 @@
         <v>大嘴雀</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E23" s="4">
         <f>忽略_初始数值!B23*10</f>
@@ -3082,7 +3512,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
       <c r="B24" s="15">
         <v>23</v>
       </c>
@@ -3091,7 +3524,7 @@
         <v>阿柏蛇</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E24" s="4">
         <f>忽略_初始数值!B24*10</f>
@@ -3161,7 +3594,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
       <c r="B25" s="15">
         <v>24</v>
       </c>
@@ -3170,7 +3606,7 @@
         <v>阿柏怪</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E25" s="4">
         <f>忽略_初始数值!B25*10</f>
@@ -3240,7 +3676,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
       <c r="B26" s="15">
         <v>25</v>
       </c>
@@ -3249,7 +3688,7 @@
         <v>皮卡丘</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E26" s="4">
         <f>忽略_初始数值!B26*10</f>
@@ -3319,7 +3758,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
       <c r="B27" s="15">
         <v>26</v>
       </c>
@@ -3328,7 +3770,7 @@
         <v>雷丘</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E27" s="4">
         <f>忽略_初始数值!B27*10</f>
@@ -3398,7 +3840,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
       <c r="B28" s="15">
         <v>27</v>
       </c>
@@ -3407,7 +3852,7 @@
         <v>穿山鼠</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4">
         <f>忽略_初始数值!B28*10</f>
@@ -3477,7 +3922,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
       <c r="B29" s="15">
         <v>28</v>
       </c>
@@ -3486,7 +3934,7 @@
         <v>穿山王</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4">
         <f>忽略_初始数值!B29*10</f>
@@ -3556,7 +4004,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
       <c r="B30" s="15">
         <v>29</v>
       </c>
@@ -3565,7 +4016,7 @@
         <v>尼多兰</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E30" s="4">
         <f>忽略_初始数值!B30*10</f>
@@ -3635,7 +4086,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
       <c r="B31" s="15">
         <v>30</v>
       </c>
@@ -3644,7 +4098,7 @@
         <v>尼多娜</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E31" s="4">
         <f>忽略_初始数值!B31*10</f>
@@ -3714,7 +4168,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
       <c r="B32" s="15">
         <v>31</v>
       </c>
@@ -3723,7 +4180,7 @@
         <v>尼多后</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E32" s="4">
         <f>忽略_初始数值!B32*10</f>
@@ -3793,7 +4250,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
       <c r="B33" s="15">
         <v>32</v>
       </c>
@@ -3802,7 +4262,7 @@
         <v>尼多朗</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E33" s="4">
         <f>忽略_初始数值!B33*10</f>
@@ -3872,7 +4332,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
       <c r="B34" s="15">
         <v>33</v>
       </c>
@@ -3881,7 +4344,7 @@
         <v>尼多力诺</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34" s="4">
         <f>忽略_初始数值!B34*10</f>
@@ -3951,7 +4414,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
       <c r="B35" s="15">
         <v>34</v>
       </c>
@@ -3960,7 +4426,7 @@
         <v>尼多王</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E35" s="4">
         <f>忽略_初始数值!B35*10</f>
@@ -4030,7 +4496,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
       <c r="B36" s="15">
         <v>35</v>
       </c>
@@ -4039,7 +4508,7 @@
         <v>皮皮</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E36" s="4">
         <f>忽略_初始数值!B36*10</f>
@@ -4109,7 +4578,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
       <c r="B37" s="15">
         <v>36</v>
       </c>
@@ -4118,7 +4590,7 @@
         <v>皮可西</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E37" s="4">
         <f>忽略_初始数值!B37*10</f>
@@ -4188,7 +4660,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
       <c r="B38" s="15">
         <v>37</v>
       </c>
@@ -4197,7 +4672,7 @@
         <v>六尾</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E38" s="4">
         <f>忽略_初始数值!B38*10</f>
@@ -4267,7 +4742,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
       <c r="B39" s="15">
         <v>38</v>
       </c>
@@ -4276,7 +4754,7 @@
         <v>九尾</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E39" s="4">
         <f>忽略_初始数值!B39*10</f>
@@ -4346,7 +4824,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
       <c r="B40" s="15">
         <v>39</v>
       </c>
@@ -4355,7 +4836,7 @@
         <v>胖丁</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4">
         <f>忽略_初始数值!B40*10</f>
@@ -4425,7 +4906,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
       <c r="B41" s="15">
         <v>40</v>
       </c>
@@ -4434,7 +4918,7 @@
         <v>胖可丁</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E41" s="4">
         <f>忽略_初始数值!B41*10</f>
@@ -4504,7 +4988,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
       <c r="B42" s="15">
         <v>41</v>
       </c>
@@ -4513,7 +5000,7 @@
         <v>超音蝠</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E42" s="4">
         <f>忽略_初始数值!B42*10</f>
@@ -4583,7 +5070,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
       <c r="B43" s="15">
         <v>42</v>
       </c>
@@ -4592,7 +5082,7 @@
         <v>大嘴蝠</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E43" s="4">
         <f>忽略_初始数值!B43*10</f>
@@ -4662,7 +5152,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>1</v>
+      </c>
       <c r="B44" s="15">
         <v>43</v>
       </c>
@@ -4671,7 +5164,7 @@
         <v>走路草</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E44" s="4">
         <f>忽略_初始数值!B44*10</f>
@@ -4741,7 +5234,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
       <c r="B45" s="15">
         <v>44</v>
       </c>
@@ -4750,7 +5246,7 @@
         <v>臭臭花</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E45" s="4">
         <f>忽略_初始数值!B45*10</f>
@@ -4820,7 +5316,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>1</v>
+      </c>
       <c r="B46" s="15">
         <v>45</v>
       </c>
@@ -4829,7 +5328,7 @@
         <v>霸王花</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E46" s="4">
         <f>忽略_初始数值!B46*10</f>
@@ -4899,7 +5398,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
       <c r="B47" s="15">
         <v>46</v>
       </c>
@@ -4908,7 +5410,7 @@
         <v>派拉斯</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" s="4">
         <f>忽略_初始数值!B47*10</f>
@@ -4978,7 +5480,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
       <c r="B48" s="15">
         <v>47</v>
       </c>
@@ -4987,7 +5492,7 @@
         <v>派拉斯特</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E48" s="4">
         <f>忽略_初始数值!B48*10</f>
@@ -5057,7 +5562,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
       <c r="B49" s="15">
         <v>48</v>
       </c>
@@ -5066,7 +5574,7 @@
         <v>毛球</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E49" s="4">
         <f>忽略_初始数值!B49*10</f>
@@ -5136,7 +5644,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>1</v>
+      </c>
       <c r="B50" s="15">
         <v>49</v>
       </c>
@@ -5145,7 +5656,7 @@
         <v>摩鲁蛾</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E50" s="4">
         <f>忽略_初始数值!B50*10</f>
@@ -5215,7 +5726,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>1</v>
+      </c>
       <c r="B51" s="15">
         <v>50</v>
       </c>
@@ -5224,7 +5738,7 @@
         <v>地鼠</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E51" s="4">
         <f>忽略_初始数值!B51*10</f>
@@ -5294,7 +5808,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
       <c r="B52" s="15">
         <v>51</v>
       </c>
@@ -5303,7 +5820,7 @@
         <v>三地鼠</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E52" s="4">
         <f>忽略_初始数值!B52*10</f>
@@ -5373,7 +5890,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
       <c r="B53" s="15">
         <v>52</v>
       </c>
@@ -5382,7 +5902,7 @@
         <v>喵喵</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E53" s="4">
         <f>忽略_初始数值!B53*10</f>
@@ -5452,7 +5972,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
       <c r="B54" s="15">
         <v>53</v>
       </c>
@@ -5461,7 +5984,7 @@
         <v>猫老大</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E54" s="4">
         <f>忽略_初始数值!B54*10</f>
@@ -5531,7 +6054,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
       <c r="B55" s="15">
         <v>54</v>
       </c>
@@ -5540,7 +6066,7 @@
         <v>可达鸭</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E55" s="4">
         <f>忽略_初始数值!B55*10</f>
@@ -5610,7 +6136,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>1</v>
+      </c>
       <c r="B56" s="15">
         <v>55</v>
       </c>
@@ -5619,7 +6148,7 @@
         <v>哥达鸭</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E56" s="4">
         <f>忽略_初始数值!B56*10</f>
@@ -5689,7 +6218,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>1</v>
+      </c>
       <c r="B57" s="15">
         <v>56</v>
       </c>
@@ -5698,7 +6230,7 @@
         <v>猴怪</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E57" s="4">
         <f>忽略_初始数值!B57*10</f>
@@ -5768,7 +6300,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
       <c r="B58" s="15">
         <v>57</v>
       </c>
@@ -5777,7 +6312,7 @@
         <v>火暴猴</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E58" s="4">
         <f>忽略_初始数值!B58*10</f>
@@ -5847,7 +6382,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
       <c r="B59" s="15">
         <v>58</v>
       </c>
@@ -5856,7 +6394,7 @@
         <v>卡蒂狗</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E59" s="4">
         <f>忽略_初始数值!B59*10</f>
@@ -5926,7 +6464,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>1</v>
+      </c>
       <c r="B60" s="15">
         <v>59</v>
       </c>
@@ -5935,7 +6476,7 @@
         <v>风速狗</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E60" s="4">
         <f>忽略_初始数值!B60*10</f>
@@ -6005,7 +6546,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
       <c r="B61" s="15">
         <v>60</v>
       </c>
@@ -6014,7 +6558,7 @@
         <v>蚊香蝌蚪</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E61" s="4">
         <f>忽略_初始数值!B61*10</f>
@@ -6084,7 +6628,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>1</v>
+      </c>
       <c r="B62" s="15">
         <v>61</v>
       </c>
@@ -6093,7 +6640,7 @@
         <v>蚊香君</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E62" s="4">
         <f>忽略_初始数值!B62*10</f>
@@ -6163,7 +6710,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>1</v>
+      </c>
       <c r="B63" s="15">
         <v>62</v>
       </c>
@@ -6172,7 +6722,7 @@
         <v>蚊香泳士</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E63" s="4">
         <f>忽略_初始数值!B63*10</f>
@@ -6242,7 +6792,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>1</v>
+      </c>
       <c r="B64" s="15">
         <v>63</v>
       </c>
@@ -6251,7 +6804,7 @@
         <v>凯西</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E64" s="4">
         <f>忽略_初始数值!B64*10</f>
@@ -6321,7 +6874,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
       <c r="B65" s="15">
         <v>64</v>
       </c>
@@ -6330,7 +6886,7 @@
         <v>勇基拉</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E65" s="4">
         <f>忽略_初始数值!B65*10</f>
@@ -6400,7 +6956,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>1</v>
+      </c>
       <c r="B66" s="15">
         <v>65</v>
       </c>
@@ -6409,7 +6968,7 @@
         <v>胡地</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E66" s="4">
         <f>忽略_初始数值!B66*10</f>
@@ -6479,7 +7038,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>1</v>
+      </c>
       <c r="B67" s="15">
         <v>66</v>
       </c>
@@ -6488,7 +7050,7 @@
         <v>腕力</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E67" s="4">
         <f>忽略_初始数值!B67*10</f>
@@ -6558,7 +7120,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>1</v>
+      </c>
       <c r="B68" s="15">
         <v>67</v>
       </c>
@@ -6567,7 +7132,7 @@
         <v>豪力</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E68" s="4">
         <f>忽略_初始数值!B68*10</f>
@@ -6637,7 +7202,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>1</v>
+      </c>
       <c r="B69" s="15">
         <v>68</v>
       </c>
@@ -6646,7 +7214,7 @@
         <v>怪力</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E69" s="4">
         <f>忽略_初始数值!B69*10</f>
@@ -6716,7 +7284,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>1</v>
+      </c>
       <c r="B70" s="15">
         <v>69</v>
       </c>
@@ -6725,7 +7296,7 @@
         <v>喇叭芽</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E70" s="4">
         <f>忽略_初始数值!B70*10</f>
@@ -6795,7 +7366,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
       <c r="B71" s="15">
         <v>70</v>
       </c>
@@ -6804,7 +7378,7 @@
         <v>口呆花</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E71" s="4">
         <f>忽略_初始数值!B71*10</f>
@@ -6874,7 +7448,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>1</v>
+      </c>
       <c r="B72" s="15">
         <v>71</v>
       </c>
@@ -6883,7 +7460,7 @@
         <v>大食花</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E72" s="4">
         <f>忽略_初始数值!B72*10</f>
@@ -6953,7 +7530,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>1</v>
+      </c>
       <c r="B73" s="15">
         <v>72</v>
       </c>
@@ -6962,7 +7542,7 @@
         <v>玛瑙水母</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E73" s="4">
         <f>忽略_初始数值!B73*10</f>
@@ -7032,7 +7612,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
       <c r="B74" s="15">
         <v>73</v>
       </c>
@@ -7041,7 +7624,7 @@
         <v>毒刺水母</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E74" s="4">
         <f>忽略_初始数值!B74*10</f>
@@ -7111,7 +7694,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
       <c r="B75" s="15">
         <v>74</v>
       </c>
@@ -7120,7 +7706,7 @@
         <v>小拳石</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E75" s="4">
         <f>忽略_初始数值!B75*10</f>
@@ -7190,7 +7776,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>1</v>
+      </c>
       <c r="B76" s="15">
         <v>75</v>
       </c>
@@ -7199,7 +7788,7 @@
         <v>隆隆石</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E76" s="4">
         <f>忽略_初始数值!B76*10</f>
@@ -7269,7 +7858,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
       <c r="B77" s="15">
         <v>76</v>
       </c>
@@ -7278,7 +7870,7 @@
         <v>隆隆岩</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E77" s="4">
         <f>忽略_初始数值!B77*10</f>
@@ -7348,7 +7940,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
       <c r="B78" s="15">
         <v>77</v>
       </c>
@@ -7357,7 +7952,7 @@
         <v>小火马</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E78" s="4">
         <f>忽略_初始数值!B78*10</f>
@@ -7427,7 +8022,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
       <c r="B79" s="15">
         <v>78</v>
       </c>
@@ -7436,7 +8034,7 @@
         <v>烈焰马</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E79" s="4">
         <f>忽略_初始数值!B79*10</f>
@@ -7506,7 +8104,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>1</v>
+      </c>
       <c r="B80" s="15">
         <v>79</v>
       </c>
@@ -7515,7 +8116,7 @@
         <v>呆呆兽</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E80" s="4">
         <f>忽略_初始数值!B80*10</f>
@@ -7585,7 +8186,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>1</v>
+      </c>
       <c r="B81" s="15">
         <v>80</v>
       </c>
@@ -7594,7 +8198,7 @@
         <v>呆壳兽</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E81" s="4">
         <f>忽略_初始数值!B81*10</f>
@@ -7664,7 +8268,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>1</v>
+      </c>
       <c r="B82" s="15">
         <v>81</v>
       </c>
@@ -7673,7 +8280,7 @@
         <v>小磁怪</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E82" s="4">
         <f>忽略_初始数值!B82*10</f>
@@ -7743,7 +8350,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>1</v>
+      </c>
       <c r="B83" s="15">
         <v>82</v>
       </c>
@@ -7752,7 +8362,7 @@
         <v>三合一磁怪</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E83" s="4">
         <f>忽略_初始数值!B83*10</f>
@@ -7822,7 +8432,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>1</v>
+      </c>
       <c r="B84" s="15">
         <v>83</v>
       </c>
@@ -7831,7 +8444,7 @@
         <v>大葱鸭</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E84" s="4">
         <f>忽略_初始数值!B84*10</f>
@@ -7901,7 +8514,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
       <c r="B85" s="15">
         <v>84</v>
       </c>
@@ -7910,7 +8526,7 @@
         <v>嘟嘟</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E85" s="4">
         <f>忽略_初始数值!B85*10</f>
@@ -7980,7 +8596,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
       <c r="B86" s="15">
         <v>85</v>
       </c>
@@ -7989,7 +8608,7 @@
         <v>嘟嘟利</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E86" s="4">
         <f>忽略_初始数值!B86*10</f>
@@ -8059,7 +8678,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
       <c r="B87" s="15">
         <v>86</v>
       </c>
@@ -8068,7 +8690,7 @@
         <v>小海狮</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E87" s="4">
         <f>忽略_初始数值!B87*10</f>
@@ -8138,7 +8760,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>1</v>
+      </c>
       <c r="B88" s="15">
         <v>87</v>
       </c>
@@ -8147,7 +8772,7 @@
         <v>白海狮</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E88" s="4">
         <f>忽略_初始数值!B88*10</f>
@@ -8217,7 +8842,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
       <c r="B89" s="15">
         <v>88</v>
       </c>
@@ -8226,7 +8854,7 @@
         <v>臭泥</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E89" s="4">
         <f>忽略_初始数值!B89*10</f>
@@ -8296,7 +8924,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>1</v>
+      </c>
       <c r="B90" s="15">
         <v>89</v>
       </c>
@@ -8305,7 +8936,7 @@
         <v>臭臭泥</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E90" s="4">
         <f>忽略_初始数值!B90*10</f>
@@ -8375,7 +9006,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>1</v>
+      </c>
       <c r="B91" s="15">
         <v>90</v>
       </c>
@@ -8384,7 +9018,7 @@
         <v>大舌贝</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E91" s="4">
         <f>忽略_初始数值!B91*10</f>
@@ -8454,7 +9088,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>1</v>
+      </c>
       <c r="B92" s="15">
         <v>91</v>
       </c>
@@ -8463,7 +9100,7 @@
         <v>刺甲贝</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E92" s="4">
         <f>忽略_初始数值!B92*10</f>
@@ -8533,7 +9170,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>1</v>
+      </c>
       <c r="B93" s="15">
         <v>92</v>
       </c>
@@ -8542,7 +9182,7 @@
         <v>鬼斯</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E93" s="4">
         <f>忽略_初始数值!B93*10</f>
@@ -8612,7 +9252,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>1</v>
+      </c>
       <c r="B94" s="15">
         <v>93</v>
       </c>
@@ -8621,7 +9264,7 @@
         <v>鬼斯通</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E94" s="4">
         <f>忽略_初始数值!B94*10</f>
@@ -8691,7 +9334,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>1</v>
+      </c>
       <c r="B95" s="15">
         <v>94</v>
       </c>
@@ -8700,7 +9346,7 @@
         <v>耿鬼</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E95" s="4">
         <f>忽略_初始数值!B95*10</f>
@@ -8770,7 +9416,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
+        <v>1</v>
+      </c>
       <c r="B96" s="15">
         <v>95</v>
       </c>
@@ -8779,7 +9428,7 @@
         <v>大岩蛇</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E96" s="4">
         <f>忽略_初始数值!B96*10</f>
@@ -8849,7 +9498,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <v>1</v>
+      </c>
       <c r="B97" s="15">
         <v>96</v>
       </c>
@@ -8858,7 +9510,7 @@
         <v>催眠貘</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E97" s="4">
         <f>忽略_初始数值!B97*10</f>
@@ -8928,7 +9580,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
       <c r="B98" s="15">
         <v>97</v>
       </c>
@@ -8937,7 +9592,7 @@
         <v>引梦貘人</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E98" s="4">
         <f>忽略_初始数值!B98*10</f>
@@ -9007,7 +9662,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>1</v>
+      </c>
       <c r="B99" s="15">
         <v>98</v>
       </c>
@@ -9016,7 +9674,7 @@
         <v>大钳蟹</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E99" s="4">
         <f>忽略_初始数值!B99*10</f>
@@ -9086,7 +9744,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" s="4">
+        <v>1</v>
+      </c>
       <c r="B100" s="15">
         <v>99</v>
       </c>
@@ -9095,7 +9756,7 @@
         <v>巨钳蟹</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E100" s="4">
         <f>忽略_初始数值!B100*10</f>
@@ -9165,7 +9826,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
+        <v>1</v>
+      </c>
       <c r="B101" s="15">
         <v>100</v>
       </c>
@@ -9174,7 +9838,7 @@
         <v>霹雳电球</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E101" s="4">
         <f>忽略_初始数值!B101*10</f>
@@ -9244,7 +9908,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="4">
+        <v>1</v>
+      </c>
       <c r="B102" s="15">
         <v>101</v>
       </c>
@@ -9253,7 +9920,7 @@
         <v>顽皮雷弹</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E102" s="4">
         <f>忽略_初始数值!B102*10</f>
@@ -9323,7 +9990,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A103" s="4">
+        <v>1</v>
+      </c>
       <c r="B103" s="15">
         <v>102</v>
       </c>
@@ -9332,7 +10002,7 @@
         <v>蛋蛋</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E103" s="4">
         <f>忽略_初始数值!B103*10</f>
@@ -9402,7 +10072,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" s="4">
+        <v>1</v>
+      </c>
       <c r="B104" s="15">
         <v>103</v>
       </c>
@@ -9411,7 +10084,7 @@
         <v>椰蛋树</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E104" s="4">
         <f>忽略_初始数值!B104*10</f>
@@ -9481,7 +10154,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="105" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>1</v>
+      </c>
       <c r="B105" s="15">
         <v>104</v>
       </c>
@@ -9490,7 +10166,7 @@
         <v>卡拉卡拉</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E105" s="4">
         <f>忽略_初始数值!B105*10</f>
@@ -9560,7 +10236,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
+        <v>1</v>
+      </c>
       <c r="B106" s="15">
         <v>105</v>
       </c>
@@ -9569,7 +10248,7 @@
         <v>嘎啦嘎啦</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E106" s="4">
         <f>忽略_初始数值!B106*10</f>
@@ -9639,7 +10318,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="107" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
+        <v>1</v>
+      </c>
       <c r="B107" s="15">
         <v>106</v>
       </c>
@@ -9648,7 +10330,7 @@
         <v>飞腿郎</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E107" s="4">
         <f>忽略_初始数值!B107*10</f>
@@ -9718,7 +10400,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="108" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
+        <v>1</v>
+      </c>
       <c r="B108" s="15">
         <v>107</v>
       </c>
@@ -9727,7 +10412,7 @@
         <v>快拳郎</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E108" s="4">
         <f>忽略_初始数值!B108*10</f>
@@ -9797,7 +10482,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="109" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
+        <v>1</v>
+      </c>
       <c r="B109" s="15">
         <v>108</v>
       </c>
@@ -9806,7 +10494,7 @@
         <v>大舌头</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E109" s="4">
         <f>忽略_初始数值!B109*10</f>
@@ -9876,7 +10564,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="110" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A110" s="4">
+        <v>1</v>
+      </c>
       <c r="B110" s="15">
         <v>109</v>
       </c>
@@ -9885,7 +10576,7 @@
         <v>瓦斯弹</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E110" s="4">
         <f>忽略_初始数值!B110*10</f>
@@ -9955,7 +10646,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="111" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
+        <v>1</v>
+      </c>
       <c r="B111" s="15">
         <v>110</v>
       </c>
@@ -9964,7 +10658,7 @@
         <v>双弹瓦斯</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E111" s="4">
         <f>忽略_初始数值!B111*10</f>
@@ -10034,7 +10728,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="112" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A112" s="4">
+        <v>1</v>
+      </c>
       <c r="B112" s="15">
         <v>111</v>
       </c>
@@ -10043,7 +10740,7 @@
         <v>独角犀牛</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E112" s="4">
         <f>忽略_初始数值!B112*10</f>
@@ -10113,7 +10810,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
+        <v>1</v>
+      </c>
       <c r="B113" s="15">
         <v>112</v>
       </c>
@@ -10122,7 +10822,7 @@
         <v>钻角犀兽</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E113" s="4">
         <f>忽略_初始数值!B113*10</f>
@@ -10192,7 +10892,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A114" s="4">
+        <v>1</v>
+      </c>
       <c r="B114" s="15">
         <v>113</v>
       </c>
@@ -10201,7 +10904,7 @@
         <v>吉利蛋</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E114" s="4">
         <f>忽略_初始数值!B114*10</f>
@@ -10271,7 +10974,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A115" s="4">
+        <v>1</v>
+      </c>
       <c r="B115" s="15">
         <v>114</v>
       </c>
@@ -10280,7 +10986,7 @@
         <v>蔓藤怪</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E115" s="4">
         <f>忽略_初始数值!B115*10</f>
@@ -10350,7 +11056,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A116" s="4">
+        <v>1</v>
+      </c>
       <c r="B116" s="15">
         <v>115</v>
       </c>
@@ -10359,7 +11068,7 @@
         <v>袋兽</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E116" s="4">
         <f>忽略_初始数值!B116*10</f>
@@ -10429,7 +11138,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A117" s="4">
+        <v>1</v>
+      </c>
       <c r="B117" s="15">
         <v>116</v>
       </c>
@@ -10438,7 +11150,7 @@
         <v>墨海马</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E117" s="4">
         <f>忽略_初始数值!B117*10</f>
@@ -10508,7 +11220,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A118" s="4">
+        <v>1</v>
+      </c>
       <c r="B118" s="15">
         <v>117</v>
       </c>
@@ -10517,7 +11232,7 @@
         <v>海刺龙</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E118" s="4">
         <f>忽略_初始数值!B118*10</f>
@@ -10587,7 +11302,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A119" s="4">
+        <v>1</v>
+      </c>
       <c r="B119" s="15">
         <v>118</v>
       </c>
@@ -10596,7 +11314,7 @@
         <v>角金鱼</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E119" s="4">
         <f>忽略_初始数值!B119*10</f>
@@ -10666,7 +11384,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A120" s="4">
+        <v>1</v>
+      </c>
       <c r="B120" s="15">
         <v>119</v>
       </c>
@@ -10675,7 +11396,7 @@
         <v>金鱼王</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E120" s="4">
         <f>忽略_初始数值!B120*10</f>
@@ -10745,7 +11466,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A121" s="4">
+        <v>1</v>
+      </c>
       <c r="B121" s="15">
         <v>120</v>
       </c>
@@ -10754,7 +11478,7 @@
         <v>海星星</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E121" s="4">
         <f>忽略_初始数值!B121*10</f>
@@ -10824,7 +11548,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
       <c r="B122" s="15">
         <v>121</v>
       </c>
@@ -10833,7 +11560,7 @@
         <v>宝石海星</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E122" s="4">
         <f>忽略_初始数值!B122*10</f>
@@ -10903,7 +11630,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A123" s="4">
+        <v>1</v>
+      </c>
       <c r="B123" s="15">
         <v>122</v>
       </c>
@@ -10912,7 +11642,7 @@
         <v>魔墙人偶</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E123" s="4">
         <f>忽略_初始数值!B123*10</f>
@@ -10982,7 +11712,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A124" s="4">
+        <v>1</v>
+      </c>
       <c r="B124" s="15">
         <v>123</v>
       </c>
@@ -10991,7 +11724,7 @@
         <v>飞天螳螂</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E124" s="4">
         <f>忽略_初始数值!B124*10</f>
@@ -11061,7 +11794,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A125" s="4">
+        <v>1</v>
+      </c>
       <c r="B125" s="15">
         <v>124</v>
       </c>
@@ -11070,7 +11806,7 @@
         <v>迷唇姐</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E125" s="4">
         <f>忽略_初始数值!B125*10</f>
@@ -11140,7 +11876,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A126" s="4">
+        <v>1</v>
+      </c>
       <c r="B126" s="15">
         <v>125</v>
       </c>
@@ -11149,7 +11888,7 @@
         <v>电击兽</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E126" s="4">
         <f>忽略_初始数值!B126*10</f>
@@ -11219,7 +11958,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A127" s="4">
+        <v>1</v>
+      </c>
       <c r="B127" s="15">
         <v>126</v>
       </c>
@@ -11228,7 +11970,7 @@
         <v>鸭嘴火兽</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E127" s="4">
         <f>忽略_初始数值!B127*10</f>
@@ -11298,7 +12040,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A128" s="4">
+        <v>1</v>
+      </c>
       <c r="B128" s="15">
         <v>127</v>
       </c>
@@ -11307,7 +12052,7 @@
         <v>凯罗斯</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E128" s="4">
         <f>忽略_初始数值!B128*10</f>
@@ -11377,7 +12122,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="129" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A129" s="4">
+        <v>1</v>
+      </c>
       <c r="B129" s="15">
         <v>128</v>
       </c>
@@ -11386,7 +12134,7 @@
         <v>肯泰罗</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E129" s="4">
         <f>忽略_初始数值!B129*10</f>
@@ -11456,7 +12204,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A130" s="4">
+        <v>1</v>
+      </c>
       <c r="B130" s="15">
         <v>129</v>
       </c>
@@ -11465,7 +12216,7 @@
         <v>鲤鱼王</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E130" s="4">
         <f>忽略_初始数值!B130*10</f>
@@ -11535,7 +12286,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A131" s="4">
+        <v>1</v>
+      </c>
       <c r="B131" s="15">
         <v>130</v>
       </c>
@@ -11544,7 +12298,7 @@
         <v>暴鲤龙</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E131" s="4">
         <f>忽略_初始数值!B131*10</f>
@@ -11614,7 +12368,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A132" s="4">
+        <v>1</v>
+      </c>
       <c r="B132" s="15">
         <v>131</v>
       </c>
@@ -11623,7 +12380,7 @@
         <v>拉普拉斯</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E132" s="4">
         <f>忽略_初始数值!B132*10</f>
@@ -11693,7 +12450,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A133" s="4">
+        <v>1</v>
+      </c>
       <c r="B133" s="15">
         <v>132</v>
       </c>
@@ -11702,7 +12462,7 @@
         <v>百变怪</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E133" s="4">
         <f>忽略_初始数值!B133*10</f>
@@ -11772,7 +12532,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A134" s="4">
+        <v>1</v>
+      </c>
       <c r="B134" s="15">
         <v>133</v>
       </c>
@@ -11781,7 +12544,7 @@
         <v>伊布</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E134" s="4">
         <f>忽略_初始数值!B134*10</f>
@@ -11851,7 +12614,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A135" s="4">
+        <v>1</v>
+      </c>
       <c r="B135" s="15">
         <v>134</v>
       </c>
@@ -11860,7 +12626,7 @@
         <v>水伊布</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E135" s="4">
         <f>忽略_初始数值!B135*10</f>
@@ -11930,7 +12696,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A136" s="4">
+        <v>1</v>
+      </c>
       <c r="B136" s="15">
         <v>135</v>
       </c>
@@ -11939,7 +12708,7 @@
         <v>雷伊布</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E136" s="4">
         <f>忽略_初始数值!B136*10</f>
@@ -12009,7 +12778,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A137" s="4">
+        <v>1</v>
+      </c>
       <c r="B137" s="15">
         <v>136</v>
       </c>
@@ -12018,7 +12790,7 @@
         <v>火伊布</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E137" s="4">
         <f>忽略_初始数值!B137*10</f>
@@ -12088,7 +12860,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A138" s="4">
+        <v>1</v>
+      </c>
       <c r="B138" s="15">
         <v>137</v>
       </c>
@@ -12097,7 +12872,7 @@
         <v>多边兽</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E138" s="4">
         <f>忽略_初始数值!B138*10</f>
@@ -12167,7 +12942,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A139" s="4">
+        <v>1</v>
+      </c>
       <c r="B139" s="15">
         <v>138</v>
       </c>
@@ -12176,7 +12954,7 @@
         <v>菊石兽</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E139" s="4">
         <f>忽略_初始数值!B139*10</f>
@@ -12246,7 +13024,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A140" s="4">
+        <v>1</v>
+      </c>
       <c r="B140" s="15">
         <v>139</v>
       </c>
@@ -12255,7 +13036,7 @@
         <v>多刺菊石兽</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E140" s="4">
         <f>忽略_初始数值!B140*10</f>
@@ -12325,7 +13106,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>1</v>
+      </c>
       <c r="B141" s="15">
         <v>140</v>
       </c>
@@ -12334,7 +13118,7 @@
         <v>化石盔</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E141" s="4">
         <f>忽略_初始数值!B141*10</f>
@@ -12404,7 +13188,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A142" s="4">
+        <v>1</v>
+      </c>
       <c r="B142" s="15">
         <v>141</v>
       </c>
@@ -12413,7 +13200,7 @@
         <v>镰刀盔</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E142" s="4">
         <f>忽略_初始数值!B142*10</f>
@@ -12483,7 +13270,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A143" s="4">
+        <v>1</v>
+      </c>
       <c r="B143" s="15">
         <v>142</v>
       </c>
@@ -12492,7 +13282,7 @@
         <v>化石翼龙</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E143" s="4">
         <f>忽略_初始数值!B143*10</f>
@@ -12562,7 +13352,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A144" s="4">
+        <v>1</v>
+      </c>
       <c r="B144" s="15">
         <v>143</v>
       </c>
@@ -12571,7 +13364,7 @@
         <v>卡比兽</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E144" s="4">
         <f>忽略_初始数值!B144*10</f>
@@ -12641,7 +13434,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="145" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>1</v>
+      </c>
       <c r="B145" s="15">
         <v>144</v>
       </c>
@@ -12650,7 +13446,7 @@
         <v>急冻鸟</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E145" s="4">
         <f>忽略_初始数值!B145*10</f>
@@ -12720,7 +13516,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="146" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A146" s="4">
+        <v>1</v>
+      </c>
       <c r="B146" s="15">
         <v>145</v>
       </c>
@@ -12729,7 +13528,7 @@
         <v>闪电鸟</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E146" s="4">
         <f>忽略_初始数值!B146*10</f>
@@ -12799,7 +13598,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="147" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>1</v>
+      </c>
       <c r="B147" s="15">
         <v>146</v>
       </c>
@@ -12808,7 +13610,7 @@
         <v>火焰鸟</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E147" s="4">
         <f>忽略_初始数值!B147*10</f>
@@ -12878,7 +13680,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="148" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
       <c r="B148" s="15">
         <v>147</v>
       </c>
@@ -12887,7 +13692,7 @@
         <v>迷你龙</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E148" s="4">
         <f>忽略_初始数值!B148*10</f>
@@ -12957,7 +13762,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="149" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>1</v>
+      </c>
       <c r="B149" s="15">
         <v>148</v>
       </c>
@@ -12966,7 +13774,7 @@
         <v>哈克龙</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E149" s="4">
         <f>忽略_初始数值!B149*10</f>
@@ -13036,7 +13844,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="150" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A150" s="4">
+        <v>1</v>
+      </c>
       <c r="B150" s="15">
         <v>149</v>
       </c>
@@ -13045,7 +13856,7 @@
         <v>快龙</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E150" s="4">
         <f>忽略_初始数值!B150*10</f>
@@ -13115,7 +13926,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="151" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>1</v>
+      </c>
       <c r="B151" s="15">
         <v>150</v>
       </c>
@@ -13124,7 +13938,7 @@
         <v>超梦</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E151" s="4">
         <f>忽略_初始数值!B151*10</f>
@@ -13194,7 +14008,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="152" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>1</v>
+      </c>
       <c r="B152" s="15">
         <v>151</v>
       </c>
@@ -13203,7 +14020,7 @@
         <v>梦幻</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E152" s="4">
         <f>忽略_初始数值!B152*10</f>
@@ -13281,6 +14098,944 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E79A0-2A6E-4BEE-9716-273DBB4CF2DE}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FC2A-2991-4CA0-84DC-E10381A779FA}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1ABD3-5321-412F-8C1B-F47C24B1BB72}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="188.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20">
+        <v>101</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20">
+        <v>102</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="20">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20">
+        <v>104</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20">
+        <v>105</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>106</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20">
+        <v>107</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="21">
+        <v>201</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21">
+        <v>202</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21">
+        <v>203</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21">
+        <v>204</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21">
+        <v>205</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="21">
+        <v>206</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="21">
+        <v>207</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22">
+        <v>301</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="22">
+        <v>302</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="22">
+        <v>303</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA11CA0-7A9E-41CA-BB3A-F91228AD477D}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -13297,7 +15052,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" s="10" t="str">
         <f>A2</f>
@@ -13362,7 +15117,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -13412,7 +15167,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12">
         <v>1.25</v>
@@ -13462,7 +15217,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -13512,7 +15267,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -13562,7 +15317,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -13612,7 +15367,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -13662,7 +15417,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -13712,7 +15467,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
@@ -13762,7 +15517,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -13812,7 +15567,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -13862,7 +15617,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -13912,7 +15667,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -13962,7 +15717,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -14012,7 +15767,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -14062,7 +15817,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
@@ -14116,357 +15871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E79A0-2A6E-4BEE-9716-273DBB4CF2DE}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
-        <v>3001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>4001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FC2A-2991-4CA0-84DC-E10381A779FA}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="30.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
-        <v>3001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>4004</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA43DA-CB96-4CED-B88E-8F61364FE76B}">
   <dimension ref="A1:E152"/>
   <sheetViews>
@@ -14485,16 +15890,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -14516,7 +15921,7 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3" s="14">
         <v>60</v>
@@ -14533,7 +15938,7 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4" s="14">
         <v>80</v>
@@ -14550,7 +15955,7 @@
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14">
         <v>39</v>
@@ -14567,7 +15972,7 @@
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B6" s="14">
         <v>58</v>
@@ -14584,7 +15989,7 @@
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" s="14">
         <v>78</v>
@@ -14601,7 +16006,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="14">
         <v>44</v>
@@ -14618,7 +16023,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14">
         <v>59</v>
@@ -14635,7 +16040,7 @@
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="14">
         <v>79</v>
@@ -14652,7 +16057,7 @@
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="14">
         <v>45</v>
@@ -14669,7 +16074,7 @@
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="14">
         <v>50</v>
@@ -14686,7 +16091,7 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B13" s="14">
         <v>60</v>
@@ -14703,7 +16108,7 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14" s="14">
         <v>40</v>
@@ -14720,7 +16125,7 @@
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B15" s="14">
         <v>45</v>
@@ -14737,7 +16142,7 @@
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B16" s="14">
         <v>65</v>
@@ -14754,7 +16159,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="14">
         <v>40</v>
@@ -14771,7 +16176,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B18" s="14">
         <v>63</v>
@@ -14788,7 +16193,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" s="14">
         <v>83</v>
@@ -14805,7 +16210,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B20" s="14">
         <v>30</v>
@@ -14822,7 +16227,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" s="14">
         <v>55</v>
@@ -14839,7 +16244,7 @@
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B22" s="14">
         <v>40</v>
@@ -14856,7 +16261,7 @@
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="14">
         <v>65</v>
@@ -14873,7 +16278,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B24" s="14">
         <v>35</v>
@@ -14890,7 +16295,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B25" s="14">
         <v>60</v>
@@ -14907,7 +16312,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B26" s="14">
         <v>35</v>
@@ -14924,7 +16329,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B27" s="14">
         <v>60</v>
@@ -14941,7 +16346,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B28" s="14">
         <v>50</v>
@@ -14958,7 +16363,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B29" s="14">
         <v>75</v>
@@ -14975,7 +16380,7 @@
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B30" s="14">
         <v>55</v>
@@ -14992,7 +16397,7 @@
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B31" s="14">
         <v>70</v>
@@ -15009,7 +16414,7 @@
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B32" s="14">
         <v>90</v>
@@ -15026,7 +16431,7 @@
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B33" s="14">
         <v>46</v>
@@ -15043,7 +16448,7 @@
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B34" s="14">
         <v>61</v>
@@ -15060,7 +16465,7 @@
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B35" s="14">
         <v>81</v>
@@ -15077,7 +16482,7 @@
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="14">
         <v>70</v>
@@ -15094,7 +16499,7 @@
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B37" s="14">
         <v>95</v>
@@ -15111,7 +16516,7 @@
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B38" s="14">
         <v>38</v>
@@ -15128,7 +16533,7 @@
     </row>
     <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B39" s="14">
         <v>73</v>
@@ -15145,7 +16550,7 @@
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B40" s="14">
         <v>115</v>
@@ -15162,7 +16567,7 @@
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B41" s="14">
         <v>140</v>
@@ -15179,7 +16584,7 @@
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B42" s="14">
         <v>40</v>
@@ -15196,7 +16601,7 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B43" s="14">
         <v>75</v>
@@ -15213,7 +16618,7 @@
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B44" s="14">
         <v>45</v>
@@ -15230,7 +16635,7 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B45" s="14">
         <v>60</v>
@@ -15247,7 +16652,7 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" s="14">
         <v>75</v>
@@ -15264,7 +16669,7 @@
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B47" s="14">
         <v>35</v>
@@ -15281,7 +16686,7 @@
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B48" s="14">
         <v>60</v>
@@ -15298,7 +16703,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B49" s="14">
         <v>60</v>
@@ -15315,7 +16720,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B50" s="14">
         <v>70</v>
@@ -15332,7 +16737,7 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B51" s="14">
         <v>10</v>
@@ -15349,7 +16754,7 @@
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B52" s="14">
         <v>35</v>
@@ -15366,7 +16771,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B53" s="14">
         <v>40</v>
@@ -15383,7 +16788,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B54" s="14">
         <v>65</v>
@@ -15400,7 +16805,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B55" s="14">
         <v>50</v>
@@ -15417,7 +16822,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B56" s="14">
         <v>80</v>
@@ -15434,7 +16839,7 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B57" s="14">
         <v>40</v>
@@ -15451,7 +16856,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B58" s="14">
         <v>65</v>
@@ -15468,7 +16873,7 @@
     </row>
     <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B59" s="14">
         <v>55</v>
@@ -15485,7 +16890,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B60" s="14">
         <v>90</v>
@@ -15502,7 +16907,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B61" s="14">
         <v>40</v>
@@ -15519,7 +16924,7 @@
     </row>
     <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B62" s="14">
         <v>65</v>
@@ -15536,7 +16941,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B63" s="14">
         <v>90</v>
@@ -15553,7 +16958,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B64" s="14">
         <v>25</v>
@@ -15570,7 +16975,7 @@
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B65" s="14">
         <v>40</v>
@@ -15587,7 +16992,7 @@
     </row>
     <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B66" s="14">
         <v>55</v>
@@ -15604,7 +17009,7 @@
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B67" s="14">
         <v>70</v>
@@ -15621,7 +17026,7 @@
     </row>
     <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B68" s="14">
         <v>80</v>
@@ -15638,7 +17043,7 @@
     </row>
     <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B69" s="14">
         <v>90</v>
@@ -15655,7 +17060,7 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B70" s="14">
         <v>50</v>
@@ -15672,7 +17077,7 @@
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B71" s="14">
         <v>65</v>
@@ -15689,7 +17094,7 @@
     </row>
     <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B72" s="14">
         <v>80</v>
@@ -15706,7 +17111,7 @@
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B73" s="14">
         <v>40</v>
@@ -15723,7 +17128,7 @@
     </row>
     <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B74" s="14">
         <v>80</v>
@@ -15740,7 +17145,7 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B75" s="14">
         <v>40</v>
@@ -15757,7 +17162,7 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B76" s="14">
         <v>55</v>
@@ -15774,7 +17179,7 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B77" s="14">
         <v>80</v>
@@ -15791,7 +17196,7 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B78" s="14">
         <v>50</v>
@@ -15808,7 +17213,7 @@
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B79" s="14">
         <v>65</v>
@@ -15825,7 +17230,7 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B80" s="14">
         <v>90</v>
@@ -15842,7 +17247,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B81" s="14">
         <v>95</v>
@@ -15859,7 +17264,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B82" s="14">
         <v>25</v>
@@ -15876,7 +17281,7 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B83" s="14">
         <v>50</v>
@@ -15893,7 +17298,7 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B84" s="14">
         <v>52</v>
@@ -15910,7 +17315,7 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B85" s="14">
         <v>35</v>
@@ -15927,7 +17332,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B86" s="14">
         <v>60</v>
@@ -15944,7 +17349,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B87" s="14">
         <v>65</v>
@@ -15961,7 +17366,7 @@
     </row>
     <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B88" s="14">
         <v>90</v>
@@ -15978,7 +17383,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B89" s="14">
         <v>80</v>
@@ -15995,7 +17400,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B90" s="14">
         <v>105</v>
@@ -16012,7 +17417,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B91" s="14">
         <v>30</v>
@@ -16029,7 +17434,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B92" s="14">
         <v>50</v>
@@ -16046,7 +17451,7 @@
     </row>
     <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B93" s="14">
         <v>30</v>
@@ -16063,7 +17468,7 @@
     </row>
     <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B94" s="14">
         <v>45</v>
@@ -16080,7 +17485,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B95" s="14">
         <v>60</v>
@@ -16097,7 +17502,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B96" s="14">
         <v>35</v>
@@ -16114,7 +17519,7 @@
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B97" s="14">
         <v>60</v>
@@ -16131,7 +17536,7 @@
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B98" s="14">
         <v>85</v>
@@ -16148,7 +17553,7 @@
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B99" s="14">
         <v>30</v>
@@ -16165,7 +17570,7 @@
     </row>
     <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B100" s="14">
         <v>55</v>
@@ -16182,7 +17587,7 @@
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B101" s="14">
         <v>40</v>
@@ -16199,7 +17604,7 @@
     </row>
     <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B102" s="14">
         <v>60</v>
@@ -16216,7 +17621,7 @@
     </row>
     <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B103" s="14">
         <v>60</v>
@@ -16233,7 +17638,7 @@
     </row>
     <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B104" s="14">
         <v>95</v>
@@ -16250,7 +17655,7 @@
     </row>
     <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B105" s="14">
         <v>50</v>
@@ -16267,7 +17672,7 @@
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B106" s="14">
         <v>60</v>
@@ -16284,7 +17689,7 @@
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B107" s="14">
         <v>50</v>
@@ -16301,7 +17706,7 @@
     </row>
     <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B108" s="14">
         <v>50</v>
@@ -16318,7 +17723,7 @@
     </row>
     <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B109" s="14">
         <v>90</v>
@@ -16335,7 +17740,7 @@
     </row>
     <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B110" s="14">
         <v>40</v>
@@ -16352,7 +17757,7 @@
     </row>
     <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B111" s="14">
         <v>65</v>
@@ -16369,7 +17774,7 @@
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B112" s="14">
         <v>80</v>
@@ -16386,7 +17791,7 @@
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B113" s="14">
         <v>105</v>
@@ -16403,7 +17808,7 @@
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B114" s="14">
         <v>250</v>
@@ -16420,7 +17825,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B115" s="14">
         <v>65</v>
@@ -16437,7 +17842,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B116" s="14">
         <v>105</v>
@@ -16454,7 +17859,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B117" s="14">
         <v>30</v>
@@ -16471,7 +17876,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B118" s="14">
         <v>55</v>
@@ -16488,7 +17893,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B119" s="14">
         <v>45</v>
@@ -16505,7 +17910,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B120" s="14">
         <v>80</v>
@@ -16522,7 +17927,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B121" s="14">
         <v>30</v>
@@ -16539,7 +17944,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B122" s="14">
         <v>60</v>
@@ -16556,7 +17961,7 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B123" s="14">
         <v>40</v>
@@ -16573,7 +17978,7 @@
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B124" s="14">
         <v>70</v>
@@ -16590,7 +17995,7 @@
     </row>
     <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B125" s="14">
         <v>65</v>
@@ -16607,7 +18012,7 @@
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B126" s="14">
         <v>65</v>
@@ -16624,7 +18029,7 @@
     </row>
     <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B127" s="14">
         <v>65</v>
@@ -16641,7 +18046,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B128" s="14">
         <v>65</v>
@@ -16658,7 +18063,7 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B129" s="14">
         <v>75</v>
@@ -16675,7 +18080,7 @@
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B130" s="14">
         <v>20</v>
@@ -16692,7 +18097,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B131" s="14">
         <v>95</v>
@@ -16709,7 +18114,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B132" s="14">
         <v>130</v>
@@ -16726,7 +18131,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B133" s="14">
         <v>48</v>
@@ -16743,7 +18148,7 @@
     </row>
     <row r="134" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B134" s="14">
         <v>55</v>
@@ -16760,7 +18165,7 @@
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B135" s="14">
         <v>130</v>
@@ -16777,7 +18182,7 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B136" s="14">
         <v>65</v>
@@ -16794,7 +18199,7 @@
     </row>
     <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B137" s="14">
         <v>65</v>
@@ -16811,7 +18216,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B138" s="14">
         <v>65</v>
@@ -16828,7 +18233,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B139" s="14">
         <v>35</v>
@@ -16845,7 +18250,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B140" s="14">
         <v>70</v>
@@ -16862,7 +18267,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B141" s="14">
         <v>30</v>
@@ -16879,7 +18284,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B142" s="14">
         <v>60</v>
@@ -16896,7 +18301,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B143" s="14">
         <v>80</v>
@@ -16913,7 +18318,7 @@
     </row>
     <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B144" s="14">
         <v>160</v>
@@ -16930,7 +18335,7 @@
     </row>
     <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B145" s="14">
         <v>90</v>
@@ -16947,7 +18352,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B146" s="14">
         <v>90</v>
@@ -16964,7 +18369,7 @@
     </row>
     <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B147" s="14">
         <v>90</v>
@@ -16981,7 +18386,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B148" s="14">
         <v>41</v>
@@ -16998,7 +18403,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B149" s="14">
         <v>61</v>
@@ -17015,7 +18420,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B150" s="14">
         <v>91</v>
@@ -17032,7 +18437,7 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B151" s="14">
         <v>106</v>
@@ -17049,7 +18454,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B152" s="14">
         <v>100</v>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20173-2B64-4873-8DF6-E6234B891A77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="属性相克" sheetId="5" r:id="rId5"/>
     <sheet name="忽略_初始数值" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1F3D88BB-3ADA-4BDA-8C29-49ADB1F47770}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="379">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -142,51 +141,1078 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>忽略_50级生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙蛙草</t>
+  </si>
+  <si>
+    <t>妙蛙花</t>
+  </si>
+  <si>
+    <t>小火龙</t>
+  </si>
+  <si>
+    <t>火恐龙</t>
+  </si>
+  <si>
+    <t>喷火龙</t>
+  </si>
+  <si>
+    <t>杰尼龟</t>
+  </si>
+  <si>
+    <t>卡咪龟</t>
+  </si>
+  <si>
+    <t>水箭龟</t>
+  </si>
+  <si>
+    <t>绿毛虫</t>
+  </si>
+  <si>
+    <t>铁甲蛹</t>
+  </si>
+  <si>
+    <t>巴大蝶</t>
+  </si>
+  <si>
+    <t>独角虫</t>
+  </si>
+  <si>
+    <t>铁壳蛹</t>
+  </si>
+  <si>
+    <t>大针蜂</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>比比鸟</t>
+  </si>
+  <si>
+    <t>大比鸟</t>
+  </si>
+  <si>
+    <t>小拉达</t>
+  </si>
+  <si>
+    <t>拉达</t>
+  </si>
+  <si>
+    <t>烈雀</t>
+  </si>
+  <si>
+    <t>大嘴雀</t>
+  </si>
+  <si>
+    <t>阿柏蛇</t>
+  </si>
+  <si>
+    <t>阿柏怪</t>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+  </si>
+  <si>
+    <t>雷丘</t>
+  </si>
+  <si>
+    <t>穿山鼠</t>
+  </si>
+  <si>
+    <t>穿山王</t>
+  </si>
+  <si>
+    <t>尼多兰</t>
+  </si>
+  <si>
+    <t>尼多娜</t>
+  </si>
+  <si>
+    <t>尼多后</t>
+  </si>
+  <si>
+    <t>尼多朗</t>
+  </si>
+  <si>
+    <t>尼多力诺</t>
+  </si>
+  <si>
+    <t>尼多王</t>
+  </si>
+  <si>
+    <t>皮皮</t>
+  </si>
+  <si>
+    <t>皮可西</t>
+  </si>
+  <si>
+    <t>六尾</t>
+  </si>
+  <si>
+    <t>九尾</t>
+  </si>
+  <si>
+    <t>胖丁</t>
+  </si>
+  <si>
+    <t>胖可丁</t>
+  </si>
+  <si>
+    <t>超音蝠</t>
+  </si>
+  <si>
+    <t>大嘴蝠</t>
+  </si>
+  <si>
+    <t>走路草</t>
+  </si>
+  <si>
+    <t>臭臭花</t>
+  </si>
+  <si>
+    <t>霸王花</t>
+  </si>
+  <si>
+    <t>派拉斯</t>
+  </si>
+  <si>
+    <t>派拉斯特</t>
+  </si>
+  <si>
+    <t>毛球</t>
+  </si>
+  <si>
+    <t>摩鲁蛾</t>
+  </si>
+  <si>
+    <t>地鼠</t>
+  </si>
+  <si>
+    <t>三地鼠</t>
+  </si>
+  <si>
+    <t>喵喵</t>
+  </si>
+  <si>
+    <t>猫老大</t>
+  </si>
+  <si>
+    <t>可达鸭</t>
+  </si>
+  <si>
+    <t>哥达鸭</t>
+  </si>
+  <si>
+    <t>猴怪</t>
+  </si>
+  <si>
+    <t>火暴猴</t>
+  </si>
+  <si>
+    <t>卡蒂狗</t>
+  </si>
+  <si>
+    <t>风速狗</t>
+  </si>
+  <si>
+    <t>蚊香蝌蚪</t>
+  </si>
+  <si>
+    <t>蚊香君</t>
+  </si>
+  <si>
+    <t>蚊香泳士</t>
+  </si>
+  <si>
+    <t>凯西</t>
+  </si>
+  <si>
+    <t>勇基拉</t>
+  </si>
+  <si>
+    <t>胡地</t>
+  </si>
+  <si>
+    <t>腕力</t>
+  </si>
+  <si>
+    <t>豪力</t>
+  </si>
+  <si>
+    <t>怪力</t>
+  </si>
+  <si>
+    <t>喇叭芽</t>
+  </si>
+  <si>
+    <t>口呆花</t>
+  </si>
+  <si>
+    <t>大食花</t>
+  </si>
+  <si>
+    <t>玛瑙水母</t>
+  </si>
+  <si>
+    <t>毒刺水母</t>
+  </si>
+  <si>
+    <t>小拳石</t>
+  </si>
+  <si>
+    <t>隆隆石</t>
+  </si>
+  <si>
+    <t>隆隆岩</t>
+  </si>
+  <si>
+    <t>小火马</t>
+  </si>
+  <si>
+    <t>烈焰马</t>
+  </si>
+  <si>
+    <t>呆呆兽</t>
+  </si>
+  <si>
+    <t>呆壳兽</t>
+  </si>
+  <si>
+    <t>小磁怪</t>
+  </si>
+  <si>
+    <t>三合一磁怪</t>
+  </si>
+  <si>
+    <t>大葱鸭</t>
+  </si>
+  <si>
+    <t>嘟嘟</t>
+  </si>
+  <si>
+    <t>嘟嘟利</t>
+  </si>
+  <si>
+    <t>小海狮</t>
+  </si>
+  <si>
+    <t>白海狮</t>
+  </si>
+  <si>
+    <t>臭泥</t>
+  </si>
+  <si>
+    <t>臭臭泥</t>
+  </si>
+  <si>
+    <t>大舌贝</t>
+  </si>
+  <si>
+    <t>刺甲贝</t>
+  </si>
+  <si>
+    <t>鬼斯</t>
+  </si>
+  <si>
+    <t>鬼斯通</t>
+  </si>
+  <si>
+    <t>耿鬼</t>
+  </si>
+  <si>
+    <t>大岩蛇</t>
+  </si>
+  <si>
+    <t>催眠貘</t>
+  </si>
+  <si>
+    <t>引梦貘人</t>
+  </si>
+  <si>
+    <t>大钳蟹</t>
+  </si>
+  <si>
+    <t>巨钳蟹</t>
+  </si>
+  <si>
+    <t>霹雳电球</t>
+  </si>
+  <si>
+    <t>顽皮雷弹</t>
+  </si>
+  <si>
+    <t>蛋蛋</t>
+  </si>
+  <si>
+    <t>椰蛋树</t>
+  </si>
+  <si>
+    <t>卡拉卡拉</t>
+  </si>
+  <si>
+    <t>嘎啦嘎啦</t>
+  </si>
+  <si>
+    <t>飞腿郎</t>
+  </si>
+  <si>
+    <t>快拳郎</t>
+  </si>
+  <si>
+    <t>大舌头</t>
+  </si>
+  <si>
+    <t>瓦斯弹</t>
+  </si>
+  <si>
+    <t>双弹瓦斯</t>
+  </si>
+  <si>
+    <t>独角犀牛</t>
+  </si>
+  <si>
+    <t>钻角犀兽</t>
+  </si>
+  <si>
+    <t>吉利蛋</t>
+  </si>
+  <si>
+    <t>蔓藤怪</t>
+  </si>
+  <si>
+    <t>袋兽</t>
+  </si>
+  <si>
+    <t>墨海马</t>
+  </si>
+  <si>
+    <t>海刺龙</t>
+  </si>
+  <si>
+    <t>角金鱼</t>
+  </si>
+  <si>
+    <t>金鱼王</t>
+  </si>
+  <si>
+    <t>海星星</t>
+  </si>
+  <si>
+    <t>宝石海星</t>
+  </si>
+  <si>
+    <t>魔墙人偶</t>
+  </si>
+  <si>
+    <t>飞天螳螂</t>
+  </si>
+  <si>
+    <t>迷唇姐</t>
+  </si>
+  <si>
+    <t>电击兽</t>
+  </si>
+  <si>
+    <t>鸭嘴火兽</t>
+  </si>
+  <si>
+    <t>凯罗斯</t>
+  </si>
+  <si>
+    <t>肯泰罗</t>
+  </si>
+  <si>
+    <t>鲤鱼王</t>
+  </si>
+  <si>
+    <t>暴鲤龙</t>
+  </si>
+  <si>
+    <t>拉普拉斯</t>
+  </si>
+  <si>
+    <t>百变怪</t>
+  </si>
+  <si>
+    <t>伊布</t>
+  </si>
+  <si>
+    <t>水伊布</t>
+  </si>
+  <si>
+    <t>雷伊布</t>
+  </si>
+  <si>
+    <t>火伊布</t>
+  </si>
+  <si>
+    <t>多边兽</t>
+  </si>
+  <si>
+    <t>菊石兽</t>
+  </si>
+  <si>
+    <t>多刺菊石兽</t>
+  </si>
+  <si>
+    <t>化石盔</t>
+  </si>
+  <si>
+    <t>镰刀盔</t>
+  </si>
+  <si>
+    <t>化石翼龙</t>
+  </si>
+  <si>
+    <t>卡比兽</t>
+  </si>
+  <si>
+    <t>急冻鸟</t>
+  </si>
+  <si>
+    <t>闪电鸟</t>
+  </si>
+  <si>
+    <t>火焰鸟</t>
+  </si>
+  <si>
+    <t>迷你龙</t>
+  </si>
+  <si>
+    <t>哈克龙</t>
+  </si>
+  <si>
+    <t>快龙</t>
+  </si>
+  <si>
+    <t>超梦</t>
+  </si>
+  <si>
+    <t>梦幻</t>
+  </si>
+  <si>
+    <t>虫 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒 地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫 草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面 岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>状态标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫</t>
+  </si>
+  <si>
+    <t>10 11 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>减受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持状态刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 11 12</t>
+  </si>
+  <si>
+    <t>减攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_效果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加$value$($攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加$value$($防御)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度增加$value$($速度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度减少$value$($速度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御减少$value$($防御)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击减少$value$($攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20速,-2*10防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的攻击增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在混乱效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在暴走效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在禁疗效果</t>
+  </si>
+  <si>
+    <t>已存在同等或更强的防御增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的速度增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的伤害增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的受伤增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的治疗增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的受治疗增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入混乱中，无法行动</t>
+  </si>
+  <si>
+    <t>无法受到治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入暴走中，不分敌我目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,数值:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低对方攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫声</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,7 +1220,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能效果列表</t>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2*2*15攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:201,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2*15攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:101,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶快刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1准备2*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶快刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 1002 1003 2001 2002 5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,数值:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150%-2*20防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1准备+攻1*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,51 +1348,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
+    <t>系数:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,973 +1356,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙蛙草</t>
-  </si>
-  <si>
-    <t>妙蛙花</t>
-  </si>
-  <si>
-    <t>小火龙</t>
-  </si>
-  <si>
-    <t>火恐龙</t>
-  </si>
-  <si>
-    <t>喷火龙</t>
-  </si>
-  <si>
-    <t>杰尼龟</t>
-  </si>
-  <si>
-    <t>卡咪龟</t>
-  </si>
-  <si>
-    <t>水箭龟</t>
-  </si>
-  <si>
-    <t>绿毛虫</t>
-  </si>
-  <si>
-    <t>铁甲蛹</t>
-  </si>
-  <si>
-    <t>巴大蝶</t>
-  </si>
-  <si>
-    <t>独角虫</t>
-  </si>
-  <si>
-    <t>铁壳蛹</t>
-  </si>
-  <si>
-    <t>大针蜂</t>
-  </si>
-  <si>
-    <t>波波</t>
-  </si>
-  <si>
-    <t>比比鸟</t>
-  </si>
-  <si>
-    <t>大比鸟</t>
-  </si>
-  <si>
-    <t>小拉达</t>
-  </si>
-  <si>
-    <t>拉达</t>
-  </si>
-  <si>
-    <t>烈雀</t>
-  </si>
-  <si>
-    <t>大嘴雀</t>
-  </si>
-  <si>
-    <t>阿柏蛇</t>
-  </si>
-  <si>
-    <t>阿柏怪</t>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-  </si>
-  <si>
-    <t>雷丘</t>
-  </si>
-  <si>
-    <t>穿山鼠</t>
-  </si>
-  <si>
-    <t>穿山王</t>
-  </si>
-  <si>
-    <t>尼多兰</t>
-  </si>
-  <si>
-    <t>尼多娜</t>
-  </si>
-  <si>
-    <t>尼多后</t>
-  </si>
-  <si>
-    <t>尼多朗</t>
-  </si>
-  <si>
-    <t>尼多力诺</t>
-  </si>
-  <si>
-    <t>尼多王</t>
-  </si>
-  <si>
-    <t>皮皮</t>
-  </si>
-  <si>
-    <t>皮可西</t>
-  </si>
-  <si>
-    <t>六尾</t>
-  </si>
-  <si>
-    <t>九尾</t>
-  </si>
-  <si>
-    <t>胖丁</t>
-  </si>
-  <si>
-    <t>胖可丁</t>
-  </si>
-  <si>
-    <t>超音蝠</t>
-  </si>
-  <si>
-    <t>大嘴蝠</t>
-  </si>
-  <si>
-    <t>走路草</t>
-  </si>
-  <si>
-    <t>臭臭花</t>
-  </si>
-  <si>
-    <t>霸王花</t>
-  </si>
-  <si>
-    <t>派拉斯</t>
-  </si>
-  <si>
-    <t>派拉斯特</t>
-  </si>
-  <si>
-    <t>毛球</t>
-  </si>
-  <si>
-    <t>摩鲁蛾</t>
-  </si>
-  <si>
-    <t>地鼠</t>
-  </si>
-  <si>
-    <t>三地鼠</t>
-  </si>
-  <si>
-    <t>喵喵</t>
-  </si>
-  <si>
-    <t>猫老大</t>
-  </si>
-  <si>
-    <t>可达鸭</t>
-  </si>
-  <si>
-    <t>哥达鸭</t>
-  </si>
-  <si>
-    <t>猴怪</t>
-  </si>
-  <si>
-    <t>火暴猴</t>
-  </si>
-  <si>
-    <t>卡蒂狗</t>
-  </si>
-  <si>
-    <t>风速狗</t>
-  </si>
-  <si>
-    <t>蚊香蝌蚪</t>
-  </si>
-  <si>
-    <t>蚊香君</t>
-  </si>
-  <si>
-    <t>蚊香泳士</t>
-  </si>
-  <si>
-    <t>凯西</t>
-  </si>
-  <si>
-    <t>勇基拉</t>
-  </si>
-  <si>
-    <t>胡地</t>
-  </si>
-  <si>
-    <t>腕力</t>
-  </si>
-  <si>
-    <t>豪力</t>
-  </si>
-  <si>
-    <t>怪力</t>
-  </si>
-  <si>
-    <t>喇叭芽</t>
-  </si>
-  <si>
-    <t>口呆花</t>
-  </si>
-  <si>
-    <t>大食花</t>
-  </si>
-  <si>
-    <t>玛瑙水母</t>
-  </si>
-  <si>
-    <t>毒刺水母</t>
-  </si>
-  <si>
-    <t>小拳石</t>
-  </si>
-  <si>
-    <t>隆隆石</t>
-  </si>
-  <si>
-    <t>隆隆岩</t>
-  </si>
-  <si>
-    <t>小火马</t>
-  </si>
-  <si>
-    <t>烈焰马</t>
-  </si>
-  <si>
-    <t>呆呆兽</t>
-  </si>
-  <si>
-    <t>呆壳兽</t>
-  </si>
-  <si>
-    <t>小磁怪</t>
-  </si>
-  <si>
-    <t>三合一磁怪</t>
-  </si>
-  <si>
-    <t>大葱鸭</t>
-  </si>
-  <si>
-    <t>嘟嘟</t>
-  </si>
-  <si>
-    <t>嘟嘟利</t>
-  </si>
-  <si>
-    <t>小海狮</t>
-  </si>
-  <si>
-    <t>白海狮</t>
-  </si>
-  <si>
-    <t>臭泥</t>
-  </si>
-  <si>
-    <t>臭臭泥</t>
-  </si>
-  <si>
-    <t>大舌贝</t>
-  </si>
-  <si>
-    <t>刺甲贝</t>
-  </si>
-  <si>
-    <t>鬼斯</t>
-  </si>
-  <si>
-    <t>鬼斯通</t>
-  </si>
-  <si>
-    <t>耿鬼</t>
-  </si>
-  <si>
-    <t>大岩蛇</t>
-  </si>
-  <si>
-    <t>催眠貘</t>
-  </si>
-  <si>
-    <t>引梦貘人</t>
-  </si>
-  <si>
-    <t>大钳蟹</t>
-  </si>
-  <si>
-    <t>巨钳蟹</t>
-  </si>
-  <si>
-    <t>霹雳电球</t>
-  </si>
-  <si>
-    <t>顽皮雷弹</t>
-  </si>
-  <si>
-    <t>蛋蛋</t>
-  </si>
-  <si>
-    <t>椰蛋树</t>
-  </si>
-  <si>
-    <t>卡拉卡拉</t>
-  </si>
-  <si>
-    <t>嘎啦嘎啦</t>
-  </si>
-  <si>
-    <t>飞腿郎</t>
-  </si>
-  <si>
-    <t>快拳郎</t>
-  </si>
-  <si>
-    <t>大舌头</t>
-  </si>
-  <si>
-    <t>瓦斯弹</t>
-  </si>
-  <si>
-    <t>双弹瓦斯</t>
-  </si>
-  <si>
-    <t>独角犀牛</t>
-  </si>
-  <si>
-    <t>钻角犀兽</t>
-  </si>
-  <si>
-    <t>吉利蛋</t>
-  </si>
-  <si>
-    <t>蔓藤怪</t>
-  </si>
-  <si>
-    <t>袋兽</t>
-  </si>
-  <si>
-    <t>墨海马</t>
-  </si>
-  <si>
-    <t>海刺龙</t>
-  </si>
-  <si>
-    <t>角金鱼</t>
-  </si>
-  <si>
-    <t>金鱼王</t>
-  </si>
-  <si>
-    <t>海星星</t>
-  </si>
-  <si>
-    <t>宝石海星</t>
-  </si>
-  <si>
-    <t>魔墙人偶</t>
-  </si>
-  <si>
-    <t>飞天螳螂</t>
-  </si>
-  <si>
-    <t>迷唇姐</t>
-  </si>
-  <si>
-    <t>电击兽</t>
-  </si>
-  <si>
-    <t>鸭嘴火兽</t>
-  </si>
-  <si>
-    <t>凯罗斯</t>
-  </si>
-  <si>
-    <t>肯泰罗</t>
-  </si>
-  <si>
-    <t>鲤鱼王</t>
-  </si>
-  <si>
-    <t>暴鲤龙</t>
-  </si>
-  <si>
-    <t>拉普拉斯</t>
-  </si>
-  <si>
-    <t>百变怪</t>
-  </si>
-  <si>
-    <t>伊布</t>
-  </si>
-  <si>
-    <t>水伊布</t>
-  </si>
-  <si>
-    <t>雷伊布</t>
-  </si>
-  <si>
-    <t>火伊布</t>
-  </si>
-  <si>
-    <t>多边兽</t>
-  </si>
-  <si>
-    <t>菊石兽</t>
-  </si>
-  <si>
-    <t>多刺菊石兽</t>
-  </si>
-  <si>
-    <t>化石盔</t>
-  </si>
-  <si>
-    <t>镰刀盔</t>
-  </si>
-  <si>
-    <t>化石翼龙</t>
-  </si>
-  <si>
-    <t>卡比兽</t>
-  </si>
-  <si>
-    <t>急冻鸟</t>
-  </si>
-  <si>
-    <t>闪电鸟</t>
-  </si>
-  <si>
-    <t>火焰鸟</t>
-  </si>
-  <si>
-    <t>迷你龙</t>
-  </si>
-  <si>
-    <t>哈克龙</t>
-  </si>
-  <si>
-    <t>快龙</t>
-  </si>
-  <si>
-    <t>超梦</t>
-  </si>
-  <si>
-    <t>梦幻</t>
-  </si>
-  <si>
-    <t>虫 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒 地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫 草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面 岩石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>状态标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>10 11 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 21 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>减受伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增受伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增受治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减受治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 21 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:混乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持状态刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 11 12</t>
-  </si>
-  <si>
-    <t>减攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受治疗修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:伤害修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:治疗修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受伤修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:伤害修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受伤修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:治疗修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受治疗修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:禁疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施加的治疗增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的治疗增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施加的治疗减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的治疗减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_效果说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击增加$value$($攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御增加$value$($防御)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度增加$value$($速度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度减少$value$($速度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御减少$value$($防御)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击减少$value$($攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:202,数值:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2*30防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20速,-2*10防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的攻击增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在混乱效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在暴走效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在禁疗效果</t>
-  </si>
-  <si>
-    <t>已存在同等或更强的防御增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的速度增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的伤害增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的受伤增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的治疗增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的受治疗增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷入混乱中，无法行动</t>
-  </si>
-  <si>
-    <t>无法受到治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷入暴走中，不分敌我目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:202,数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:1,状态编号:203,数值:20</t>
+    <t>日光术回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003 200301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 1003 2001 2002 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.05,效果基础:最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003 2001 2002 2004 2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.1,效果基础:最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005 200501 200502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3,状态编号:302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1391,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -1444,6 +1675,11 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1723,24 +1959,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="17.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
+    <col min="5" max="12" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
+    <col min="14" max="21" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1755,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -1785,28 +2018,28 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -1818,7 +2051,7 @@
         <v>妙蛙种子</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" s="4">
         <f>忽略_初始数值!B2*10</f>
@@ -1852,8 +2085,8 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="M2" s="4">
-        <v>1001</v>
+      <c r="M2" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N33" si="1">E2+49*I2</f>
@@ -1897,7 +2130,7 @@
         <v>妙蛙草</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4">
         <f>忽略_初始数值!B3*10</f>
@@ -1931,8 +2164,8 @@
         <f t="shared" ref="L3:L11" si="12">H3/100</f>
         <v>0.6</v>
       </c>
-      <c r="M3" s="4">
-        <v>2001</v>
+      <c r="M3" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
@@ -1976,7 +2209,7 @@
         <v>妙蛙花</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4">
         <f>忽略_初始数值!B4*10</f>
@@ -2011,7 +2244,7 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
@@ -2055,7 +2288,7 @@
         <v>小火龙</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4">
         <f>忽略_初始数值!B5*10</f>
@@ -2134,7 +2367,7 @@
         <v>火恐龙</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4">
         <f>忽略_初始数值!B6*10</f>
@@ -2169,7 +2402,7 @@
         <v>0.8</v>
       </c>
       <c r="M6" s="4">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
@@ -2213,7 +2446,7 @@
         <v>喷火龙</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4">
         <f>忽略_初始数值!B7*10</f>
@@ -2247,8 +2480,8 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>289</v>
+      <c r="M7" s="4">
+        <v>1001</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
@@ -2292,7 +2525,7 @@
         <v>杰尼龟</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4">
         <f>忽略_初始数值!B8*10</f>
@@ -2371,7 +2604,7 @@
         <v>卡咪龟</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4">
         <f>忽略_初始数值!B9*10</f>
@@ -2406,7 +2639,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M9" s="4">
-        <v>4001</v>
+        <v>1001</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
@@ -2450,7 +2683,7 @@
         <v>水箭龟</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4">
         <f>忽略_初始数值!B10*10</f>
@@ -2484,8 +2717,8 @@
         <f t="shared" si="12"/>
         <v>0.78</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>290</v>
+      <c r="M10" s="4">
+        <v>1001</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="1"/>
@@ -2529,7 +2762,7 @@
         <v>绿毛虫</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <f>忽略_初始数值!B11*10</f>
@@ -2611,7 +2844,7 @@
         <v>铁甲蛹</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <f>忽略_初始数值!B12*10</f>
@@ -2693,7 +2926,7 @@
         <v>巴大蝶</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="4">
         <f>忽略_初始数值!B13*10</f>
@@ -2775,7 +3008,7 @@
         <v>独角虫</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="4">
         <f>忽略_初始数值!B14*10</f>
@@ -2857,7 +3090,7 @@
         <v>铁壳蛹</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="4">
         <f>忽略_初始数值!B15*10</f>
@@ -2939,7 +3172,7 @@
         <v>大针蜂</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E16" s="4">
         <f>忽略_初始数值!B16*10</f>
@@ -3021,7 +3254,7 @@
         <v>波波</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E17" s="4">
         <f>忽略_初始数值!B17*10</f>
@@ -3103,7 +3336,7 @@
         <v>比比鸟</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E18" s="4">
         <f>忽略_初始数值!B18*10</f>
@@ -3185,7 +3418,7 @@
         <v>大比鸟</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E19" s="4">
         <f>忽略_初始数值!B19*10</f>
@@ -3267,7 +3500,7 @@
         <v>小拉达</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4">
         <f>忽略_初始数值!B20*10</f>
@@ -3349,7 +3582,7 @@
         <v>拉达</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4">
         <f>忽略_初始数值!B21*10</f>
@@ -3431,7 +3664,7 @@
         <v>烈雀</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="4">
         <f>忽略_初始数值!B22*10</f>
@@ -3513,7 +3746,7 @@
         <v>大嘴雀</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E23" s="4">
         <f>忽略_初始数值!B23*10</f>
@@ -3595,7 +3828,7 @@
         <v>阿柏蛇</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="4">
         <f>忽略_初始数值!B24*10</f>
@@ -3677,7 +3910,7 @@
         <v>阿柏怪</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4">
         <f>忽略_初始数值!B25*10</f>
@@ -3759,7 +3992,7 @@
         <v>皮卡丘</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4">
         <f>忽略_初始数值!B26*10</f>
@@ -3841,7 +4074,7 @@
         <v>雷丘</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4">
         <f>忽略_初始数值!B27*10</f>
@@ -3923,7 +4156,7 @@
         <v>穿山鼠</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="4">
         <f>忽略_初始数值!B28*10</f>
@@ -4005,7 +4238,7 @@
         <v>穿山王</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="4">
         <f>忽略_初始数值!B29*10</f>
@@ -4087,7 +4320,7 @@
         <v>尼多兰</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4">
         <f>忽略_初始数值!B30*10</f>
@@ -4169,7 +4402,7 @@
         <v>尼多娜</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="4">
         <f>忽略_初始数值!B31*10</f>
@@ -4251,7 +4484,7 @@
         <v>尼多后</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E32" s="4">
         <f>忽略_初始数值!B32*10</f>
@@ -4333,7 +4566,7 @@
         <v>尼多朗</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="4">
         <f>忽略_初始数值!B33*10</f>
@@ -4415,7 +4648,7 @@
         <v>尼多力诺</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4">
         <f>忽略_初始数值!B34*10</f>
@@ -4497,7 +4730,7 @@
         <v>尼多王</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E35" s="4">
         <f>忽略_初始数值!B35*10</f>
@@ -4579,7 +4812,7 @@
         <v>皮皮</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="4">
         <f>忽略_初始数值!B36*10</f>
@@ -4661,7 +4894,7 @@
         <v>皮可西</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" s="4">
         <f>忽略_初始数值!B37*10</f>
@@ -4743,7 +4976,7 @@
         <v>六尾</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="4">
         <f>忽略_初始数值!B38*10</f>
@@ -4825,7 +5058,7 @@
         <v>九尾</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4">
         <f>忽略_初始数值!B39*10</f>
@@ -4907,7 +5140,7 @@
         <v>胖丁</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E40" s="4">
         <f>忽略_初始数值!B40*10</f>
@@ -4989,7 +5222,7 @@
         <v>胖可丁</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="4">
         <f>忽略_初始数值!B41*10</f>
@@ -5071,7 +5304,7 @@
         <v>超音蝠</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4">
         <f>忽略_初始数值!B42*10</f>
@@ -5153,7 +5386,7 @@
         <v>大嘴蝠</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" s="4">
         <f>忽略_初始数值!B43*10</f>
@@ -5235,7 +5468,7 @@
         <v>走路草</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E44" s="4">
         <f>忽略_初始数值!B44*10</f>
@@ -5317,7 +5550,7 @@
         <v>臭臭花</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E45" s="4">
         <f>忽略_初始数值!B45*10</f>
@@ -5399,7 +5632,7 @@
         <v>霸王花</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E46" s="4">
         <f>忽略_初始数值!B46*10</f>
@@ -5481,7 +5714,7 @@
         <v>派拉斯</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E47" s="4">
         <f>忽略_初始数值!B47*10</f>
@@ -5563,7 +5796,7 @@
         <v>派拉斯特</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E48" s="4">
         <f>忽略_初始数值!B48*10</f>
@@ -5645,7 +5878,7 @@
         <v>毛球</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E49" s="4">
         <f>忽略_初始数值!B49*10</f>
@@ -5727,7 +5960,7 @@
         <v>摩鲁蛾</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E50" s="4">
         <f>忽略_初始数值!B50*10</f>
@@ -5809,7 +6042,7 @@
         <v>地鼠</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="4">
         <f>忽略_初始数值!B51*10</f>
@@ -5891,7 +6124,7 @@
         <v>三地鼠</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E52" s="4">
         <f>忽略_初始数值!B52*10</f>
@@ -5973,7 +6206,7 @@
         <v>喵喵</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="4">
         <f>忽略_初始数值!B53*10</f>
@@ -6055,7 +6288,7 @@
         <v>猫老大</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54" s="4">
         <f>忽略_初始数值!B54*10</f>
@@ -6137,7 +6370,7 @@
         <v>可达鸭</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E55" s="4">
         <f>忽略_初始数值!B55*10</f>
@@ -6219,7 +6452,7 @@
         <v>哥达鸭</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="4">
         <f>忽略_初始数值!B56*10</f>
@@ -6301,7 +6534,7 @@
         <v>猴怪</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E57" s="4">
         <f>忽略_初始数值!B57*10</f>
@@ -6383,7 +6616,7 @@
         <v>火暴猴</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E58" s="4">
         <f>忽略_初始数值!B58*10</f>
@@ -6465,7 +6698,7 @@
         <v>卡蒂狗</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E59" s="4">
         <f>忽略_初始数值!B59*10</f>
@@ -6547,7 +6780,7 @@
         <v>风速狗</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E60" s="4">
         <f>忽略_初始数值!B60*10</f>
@@ -6629,7 +6862,7 @@
         <v>蚊香蝌蚪</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61" s="4">
         <f>忽略_初始数值!B61*10</f>
@@ -6711,7 +6944,7 @@
         <v>蚊香君</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E62" s="4">
         <f>忽略_初始数值!B62*10</f>
@@ -6793,7 +7026,7 @@
         <v>蚊香泳士</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="4">
         <f>忽略_初始数值!B63*10</f>
@@ -6875,7 +7108,7 @@
         <v>凯西</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E64" s="4">
         <f>忽略_初始数值!B64*10</f>
@@ -6957,7 +7190,7 @@
         <v>勇基拉</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="4">
         <f>忽略_初始数值!B65*10</f>
@@ -7039,7 +7272,7 @@
         <v>胡地</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E66" s="4">
         <f>忽略_初始数值!B66*10</f>
@@ -7121,7 +7354,7 @@
         <v>腕力</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E67" s="4">
         <f>忽略_初始数值!B67*10</f>
@@ -7203,7 +7436,7 @@
         <v>豪力</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E68" s="4">
         <f>忽略_初始数值!B68*10</f>
@@ -7285,7 +7518,7 @@
         <v>怪力</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E69" s="4">
         <f>忽略_初始数值!B69*10</f>
@@ -7367,7 +7600,7 @@
         <v>喇叭芽</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E70" s="4">
         <f>忽略_初始数值!B70*10</f>
@@ -7449,7 +7682,7 @@
         <v>口呆花</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E71" s="4">
         <f>忽略_初始数值!B71*10</f>
@@ -7531,7 +7764,7 @@
         <v>大食花</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E72" s="4">
         <f>忽略_初始数值!B72*10</f>
@@ -7613,7 +7846,7 @@
         <v>玛瑙水母</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E73" s="4">
         <f>忽略_初始数值!B73*10</f>
@@ -7695,7 +7928,7 @@
         <v>毒刺水母</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E74" s="4">
         <f>忽略_初始数值!B74*10</f>
@@ -7777,7 +8010,7 @@
         <v>小拳石</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E75" s="4">
         <f>忽略_初始数值!B75*10</f>
@@ -7859,7 +8092,7 @@
         <v>隆隆石</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E76" s="4">
         <f>忽略_初始数值!B76*10</f>
@@ -7941,7 +8174,7 @@
         <v>隆隆岩</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E77" s="4">
         <f>忽略_初始数值!B77*10</f>
@@ -8023,7 +8256,7 @@
         <v>小火马</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E78" s="4">
         <f>忽略_初始数值!B78*10</f>
@@ -8105,7 +8338,7 @@
         <v>烈焰马</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E79" s="4">
         <f>忽略_初始数值!B79*10</f>
@@ -8187,7 +8420,7 @@
         <v>呆呆兽</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E80" s="4">
         <f>忽略_初始数值!B80*10</f>
@@ -8269,7 +8502,7 @@
         <v>呆壳兽</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E81" s="4">
         <f>忽略_初始数值!B81*10</f>
@@ -8351,7 +8584,7 @@
         <v>小磁怪</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E82" s="4">
         <f>忽略_初始数值!B82*10</f>
@@ -8433,7 +8666,7 @@
         <v>三合一磁怪</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E83" s="4">
         <f>忽略_初始数值!B83*10</f>
@@ -8515,7 +8748,7 @@
         <v>大葱鸭</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E84" s="4">
         <f>忽略_初始数值!B84*10</f>
@@ -8597,7 +8830,7 @@
         <v>嘟嘟</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E85" s="4">
         <f>忽略_初始数值!B85*10</f>
@@ -8679,7 +8912,7 @@
         <v>嘟嘟利</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E86" s="4">
         <f>忽略_初始数值!B86*10</f>
@@ -8761,7 +8994,7 @@
         <v>小海狮</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E87" s="4">
         <f>忽略_初始数值!B87*10</f>
@@ -8843,7 +9076,7 @@
         <v>白海狮</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E88" s="4">
         <f>忽略_初始数值!B88*10</f>
@@ -8925,7 +9158,7 @@
         <v>臭泥</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E89" s="4">
         <f>忽略_初始数值!B89*10</f>
@@ -9007,7 +9240,7 @@
         <v>臭臭泥</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E90" s="4">
         <f>忽略_初始数值!B90*10</f>
@@ -9089,7 +9322,7 @@
         <v>大舌贝</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E91" s="4">
         <f>忽略_初始数值!B91*10</f>
@@ -9171,7 +9404,7 @@
         <v>刺甲贝</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E92" s="4">
         <f>忽略_初始数值!B92*10</f>
@@ -9253,7 +9486,7 @@
         <v>鬼斯</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E93" s="4">
         <f>忽略_初始数值!B93*10</f>
@@ -9335,7 +9568,7 @@
         <v>鬼斯通</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E94" s="4">
         <f>忽略_初始数值!B94*10</f>
@@ -9417,7 +9650,7 @@
         <v>耿鬼</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E95" s="4">
         <f>忽略_初始数值!B95*10</f>
@@ -9499,7 +9732,7 @@
         <v>大岩蛇</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E96" s="4">
         <f>忽略_初始数值!B96*10</f>
@@ -9581,7 +9814,7 @@
         <v>催眠貘</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E97" s="4">
         <f>忽略_初始数值!B97*10</f>
@@ -9663,7 +9896,7 @@
         <v>引梦貘人</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E98" s="4">
         <f>忽略_初始数值!B98*10</f>
@@ -9745,7 +9978,7 @@
         <v>大钳蟹</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E99" s="4">
         <f>忽略_初始数值!B99*10</f>
@@ -9827,7 +10060,7 @@
         <v>巨钳蟹</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E100" s="4">
         <f>忽略_初始数值!B100*10</f>
@@ -9909,7 +10142,7 @@
         <v>霹雳电球</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E101" s="4">
         <f>忽略_初始数值!B101*10</f>
@@ -9991,7 +10224,7 @@
         <v>顽皮雷弹</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102" s="4">
         <f>忽略_初始数值!B102*10</f>
@@ -10073,7 +10306,7 @@
         <v>蛋蛋</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E103" s="4">
         <f>忽略_初始数值!B103*10</f>
@@ -10155,7 +10388,7 @@
         <v>椰蛋树</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E104" s="4">
         <f>忽略_初始数值!B104*10</f>
@@ -10237,7 +10470,7 @@
         <v>卡拉卡拉</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E105" s="4">
         <f>忽略_初始数值!B105*10</f>
@@ -10319,7 +10552,7 @@
         <v>嘎啦嘎啦</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E106" s="4">
         <f>忽略_初始数值!B106*10</f>
@@ -10401,7 +10634,7 @@
         <v>飞腿郎</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E107" s="4">
         <f>忽略_初始数值!B107*10</f>
@@ -10483,7 +10716,7 @@
         <v>快拳郎</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E108" s="4">
         <f>忽略_初始数值!B108*10</f>
@@ -10565,7 +10798,7 @@
         <v>大舌头</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E109" s="4">
         <f>忽略_初始数值!B109*10</f>
@@ -10647,7 +10880,7 @@
         <v>瓦斯弹</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E110" s="4">
         <f>忽略_初始数值!B110*10</f>
@@ -10729,7 +10962,7 @@
         <v>双弹瓦斯</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E111" s="4">
         <f>忽略_初始数值!B111*10</f>
@@ -10811,7 +11044,7 @@
         <v>独角犀牛</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E112" s="4">
         <f>忽略_初始数值!B112*10</f>
@@ -10893,7 +11126,7 @@
         <v>钻角犀兽</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E113" s="4">
         <f>忽略_初始数值!B113*10</f>
@@ -10975,7 +11208,7 @@
         <v>吉利蛋</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E114" s="4">
         <f>忽略_初始数值!B114*10</f>
@@ -11057,7 +11290,7 @@
         <v>蔓藤怪</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E115" s="4">
         <f>忽略_初始数值!B115*10</f>
@@ -11139,7 +11372,7 @@
         <v>袋兽</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E116" s="4">
         <f>忽略_初始数值!B116*10</f>
@@ -11221,7 +11454,7 @@
         <v>墨海马</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E117" s="4">
         <f>忽略_初始数值!B117*10</f>
@@ -11303,7 +11536,7 @@
         <v>海刺龙</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E118" s="4">
         <f>忽略_初始数值!B118*10</f>
@@ -11385,7 +11618,7 @@
         <v>角金鱼</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E119" s="4">
         <f>忽略_初始数值!B119*10</f>
@@ -11467,7 +11700,7 @@
         <v>金鱼王</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E120" s="4">
         <f>忽略_初始数值!B120*10</f>
@@ -11549,7 +11782,7 @@
         <v>海星星</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E121" s="4">
         <f>忽略_初始数值!B121*10</f>
@@ -11631,7 +11864,7 @@
         <v>宝石海星</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E122" s="4">
         <f>忽略_初始数值!B122*10</f>
@@ -11713,7 +11946,7 @@
         <v>魔墙人偶</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E123" s="4">
         <f>忽略_初始数值!B123*10</f>
@@ -11795,7 +12028,7 @@
         <v>飞天螳螂</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E124" s="4">
         <f>忽略_初始数值!B124*10</f>
@@ -11877,7 +12110,7 @@
         <v>迷唇姐</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E125" s="4">
         <f>忽略_初始数值!B125*10</f>
@@ -11959,7 +12192,7 @@
         <v>电击兽</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E126" s="4">
         <f>忽略_初始数值!B126*10</f>
@@ -12041,7 +12274,7 @@
         <v>鸭嘴火兽</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E127" s="4">
         <f>忽略_初始数值!B127*10</f>
@@ -12123,7 +12356,7 @@
         <v>凯罗斯</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E128" s="4">
         <f>忽略_初始数值!B128*10</f>
@@ -12205,7 +12438,7 @@
         <v>肯泰罗</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E129" s="4">
         <f>忽略_初始数值!B129*10</f>
@@ -12287,7 +12520,7 @@
         <v>鲤鱼王</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E130" s="4">
         <f>忽略_初始数值!B130*10</f>
@@ -12369,7 +12602,7 @@
         <v>暴鲤龙</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E131" s="4">
         <f>忽略_初始数值!B131*10</f>
@@ -12451,7 +12684,7 @@
         <v>拉普拉斯</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E132" s="4">
         <f>忽略_初始数值!B132*10</f>
@@ -12533,7 +12766,7 @@
         <v>百变怪</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E133" s="4">
         <f>忽略_初始数值!B133*10</f>
@@ -12615,7 +12848,7 @@
         <v>伊布</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E134" s="4">
         <f>忽略_初始数值!B134*10</f>
@@ -12697,7 +12930,7 @@
         <v>水伊布</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E135" s="4">
         <f>忽略_初始数值!B135*10</f>
@@ -12779,7 +13012,7 @@
         <v>雷伊布</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E136" s="4">
         <f>忽略_初始数值!B136*10</f>
@@ -12861,7 +13094,7 @@
         <v>火伊布</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E137" s="4">
         <f>忽略_初始数值!B137*10</f>
@@ -12943,7 +13176,7 @@
         <v>多边兽</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E138" s="4">
         <f>忽略_初始数值!B138*10</f>
@@ -13025,7 +13258,7 @@
         <v>菊石兽</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E139" s="4">
         <f>忽略_初始数值!B139*10</f>
@@ -13107,7 +13340,7 @@
         <v>多刺菊石兽</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E140" s="4">
         <f>忽略_初始数值!B140*10</f>
@@ -13189,7 +13422,7 @@
         <v>化石盔</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E141" s="4">
         <f>忽略_初始数值!B141*10</f>
@@ -13271,7 +13504,7 @@
         <v>镰刀盔</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E142" s="4">
         <f>忽略_初始数值!B142*10</f>
@@ -13353,7 +13586,7 @@
         <v>化石翼龙</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E143" s="4">
         <f>忽略_初始数值!B143*10</f>
@@ -13435,7 +13668,7 @@
         <v>卡比兽</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E144" s="4">
         <f>忽略_初始数值!B144*10</f>
@@ -13517,7 +13750,7 @@
         <v>急冻鸟</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E145" s="4">
         <f>忽略_初始数值!B145*10</f>
@@ -13599,7 +13832,7 @@
         <v>闪电鸟</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E146" s="4">
         <f>忽略_初始数值!B146*10</f>
@@ -13681,7 +13914,7 @@
         <v>火焰鸟</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E147" s="4">
         <f>忽略_初始数值!B147*10</f>
@@ -13763,7 +13996,7 @@
         <v>迷你龙</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E148" s="4">
         <f>忽略_初始数值!B148*10</f>
@@ -13845,7 +14078,7 @@
         <v>哈克龙</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E149" s="4">
         <f>忽略_初始数值!B149*10</f>
@@ -13927,7 +14160,7 @@
         <v>快龙</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E150" s="4">
         <f>忽略_初始数值!B150*10</f>
@@ -14009,7 +14242,7 @@
         <v>超梦</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E151" s="4">
         <f>忽略_初始数值!B151*10</f>
@@ -14091,7 +14324,7 @@
         <v>梦幻</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E152" s="4">
         <f>忽略_初始数值!B152*10</f>
@@ -14169,23 +14402,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E79A0-2A6E-4BEE-9716-273DBB4CF2DE}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14193,149 +14428,302 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1001</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="F3" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
-        <v>3001</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>326</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="4">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <v>4001</v>
+        <v>2001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.5</v>
       </c>
       <c r="F5" s="4">
         <v>0.5</v>
       </c>
       <c r="G5" s="4">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2001</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="4">
+        <v>5001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14345,28 +14733,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE80FC2A-2991-4CA0-84DC-E10381A779FA}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.875" customWidth="1"/>
+    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.75" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14377,40 +14763,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -14419,26 +14805,26 @@
         <v>1001</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -14446,192 +14832,468 @@
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>300</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
-        <v>3001</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>328</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>276</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <v>4001</v>
+        <v>2001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>302</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>348</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="4">
+        <v>200301</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26">
+        <v>2004</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="26">
+        <v>4</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>200501</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4">
+        <v>200502</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26">
+        <v>5001</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="26">
+        <v>4</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14641,10 +15303,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1ABD3-5321-412F-8C1B-F47C24B1BB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -14669,34 +15331,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="K1" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14704,28 +15366,28 @@
         <v>101</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I2" s="20">
         <v>1</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14733,28 +15395,28 @@
         <v>102</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I3" s="20">
         <v>1</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14762,28 +15424,28 @@
         <v>103</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I4" s="20">
         <v>1</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14791,28 +15453,28 @@
         <v>104</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I5" s="20">
         <v>1</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14820,28 +15482,28 @@
         <v>105</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I6" s="20">
         <v>1</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14849,28 +15511,28 @@
         <v>106</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I7" s="20">
         <v>1</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -14878,28 +15540,28 @@
         <v>107</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I8" s="20">
         <v>1</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -14907,28 +15569,28 @@
         <v>201</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -14936,28 +15598,28 @@
         <v>202</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -14965,28 +15627,28 @@
         <v>203</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I11" s="21">
         <v>1</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -14994,28 +15656,28 @@
         <v>204</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I12" s="21">
         <v>1</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -15023,28 +15685,28 @@
         <v>205</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I13" s="21">
         <v>1</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -15052,28 +15714,28 @@
         <v>206</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I14" s="21">
         <v>1</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -15081,28 +15743,28 @@
         <v>207</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I15" s="21">
         <v>1</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -15110,25 +15772,25 @@
         <v>301</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="22" t="s">
+      <c r="K16" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -15136,25 +15798,25 @@
         <v>302</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="K17" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -15162,25 +15824,25 @@
         <v>303</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>249</v>
-      </c>
       <c r="K18" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -15192,7 +15854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA11CA0-7A9E-41CA-BB3A-F91228AD477D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15208,7 +15870,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="10" t="str">
         <f>A2</f>
@@ -15273,7 +15935,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -15323,7 +15985,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="12">
         <v>1.25</v>
@@ -15373,7 +16035,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -15423,7 +16085,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -15473,7 +16135,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -15523,7 +16185,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -15573,7 +16235,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -15623,7 +16285,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
@@ -15673,7 +16335,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -15723,7 +16385,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -15773,7 +16435,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -15823,7 +16485,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -15873,7 +16535,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -15923,7 +16585,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -15973,7 +16635,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
@@ -16028,7 +16690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACA43DA-CB96-4CED-B88E-8F61364FE76B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16077,7 +16739,7 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="14">
         <v>60</v>
@@ -16094,7 +16756,7 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="14">
         <v>80</v>
@@ -16111,7 +16773,7 @@
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="14">
         <v>39</v>
@@ -16128,7 +16790,7 @@
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="14">
         <v>58</v>
@@ -16145,7 +16807,7 @@
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="14">
         <v>78</v>
@@ -16162,7 +16824,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14">
         <v>44</v>
@@ -16179,7 +16841,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="14">
         <v>59</v>
@@ -16196,7 +16858,7 @@
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="14">
         <v>79</v>
@@ -16213,7 +16875,7 @@
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="14">
         <v>45</v>
@@ -16230,7 +16892,7 @@
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="14">
         <v>50</v>
@@ -16247,7 +16909,7 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="14">
         <v>60</v>
@@ -16264,7 +16926,7 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="14">
         <v>40</v>
@@ -16281,7 +16943,7 @@
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="14">
         <v>45</v>
@@ -16298,7 +16960,7 @@
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="14">
         <v>65</v>
@@ -16315,7 +16977,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="14">
         <v>40</v>
@@ -16332,7 +16994,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="14">
         <v>63</v>
@@ -16349,7 +17011,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="14">
         <v>83</v>
@@ -16366,7 +17028,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" s="14">
         <v>30</v>
@@ -16383,7 +17045,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" s="14">
         <v>55</v>
@@ -16400,7 +17062,7 @@
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="14">
         <v>40</v>
@@ -16417,7 +17079,7 @@
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="14">
         <v>65</v>
@@ -16434,7 +17096,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="14">
         <v>35</v>
@@ -16451,7 +17113,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="14">
         <v>60</v>
@@ -16468,7 +17130,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="14">
         <v>35</v>
@@ -16485,7 +17147,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="14">
         <v>60</v>
@@ -16502,7 +17164,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="14">
         <v>50</v>
@@ -16519,7 +17181,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="14">
         <v>75</v>
@@ -16536,7 +17198,7 @@
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="14">
         <v>55</v>
@@ -16553,7 +17215,7 @@
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" s="14">
         <v>70</v>
@@ -16570,7 +17232,7 @@
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="14">
         <v>90</v>
@@ -16587,7 +17249,7 @@
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B33" s="14">
         <v>46</v>
@@ -16604,7 +17266,7 @@
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B34" s="14">
         <v>61</v>
@@ -16621,7 +17283,7 @@
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" s="14">
         <v>81</v>
@@ -16638,7 +17300,7 @@
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" s="14">
         <v>70</v>
@@ -16655,7 +17317,7 @@
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B37" s="14">
         <v>95</v>
@@ -16672,7 +17334,7 @@
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B38" s="14">
         <v>38</v>
@@ -16689,7 +17351,7 @@
     </row>
     <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="14">
         <v>73</v>
@@ -16706,7 +17368,7 @@
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" s="14">
         <v>115</v>
@@ -16723,7 +17385,7 @@
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B41" s="14">
         <v>140</v>
@@ -16740,7 +17402,7 @@
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B42" s="14">
         <v>40</v>
@@ -16757,7 +17419,7 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" s="14">
         <v>75</v>
@@ -16774,7 +17436,7 @@
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B44" s="14">
         <v>45</v>
@@ -16791,7 +17453,7 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" s="14">
         <v>60</v>
@@ -16808,7 +17470,7 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="14">
         <v>75</v>
@@ -16825,7 +17487,7 @@
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B47" s="14">
         <v>35</v>
@@ -16842,7 +17504,7 @@
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="14">
         <v>60</v>
@@ -16859,7 +17521,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" s="14">
         <v>60</v>
@@ -16876,7 +17538,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" s="14">
         <v>70</v>
@@ -16893,7 +17555,7 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51" s="14">
         <v>10</v>
@@ -16910,7 +17572,7 @@
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B52" s="14">
         <v>35</v>
@@ -16927,7 +17589,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B53" s="14">
         <v>40</v>
@@ -16944,7 +17606,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B54" s="14">
         <v>65</v>
@@ -16961,7 +17623,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B55" s="14">
         <v>50</v>
@@ -16978,7 +17640,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B56" s="14">
         <v>80</v>
@@ -16995,7 +17657,7 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B57" s="14">
         <v>40</v>
@@ -17012,7 +17674,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="14">
         <v>65</v>
@@ -17029,7 +17691,7 @@
     </row>
     <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B59" s="14">
         <v>55</v>
@@ -17046,7 +17708,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B60" s="14">
         <v>90</v>
@@ -17063,7 +17725,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B61" s="14">
         <v>40</v>
@@ -17080,7 +17742,7 @@
     </row>
     <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B62" s="14">
         <v>65</v>
@@ -17097,7 +17759,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B63" s="14">
         <v>90</v>
@@ -17114,7 +17776,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64" s="14">
         <v>25</v>
@@ -17131,7 +17793,7 @@
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65" s="14">
         <v>40</v>
@@ -17148,7 +17810,7 @@
     </row>
     <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B66" s="14">
         <v>55</v>
@@ -17165,7 +17827,7 @@
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" s="14">
         <v>70</v>
@@ -17182,7 +17844,7 @@
     </row>
     <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" s="14">
         <v>80</v>
@@ -17199,7 +17861,7 @@
     </row>
     <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B69" s="14">
         <v>90</v>
@@ -17216,7 +17878,7 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B70" s="14">
         <v>50</v>
@@ -17233,7 +17895,7 @@
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" s="14">
         <v>65</v>
@@ -17250,7 +17912,7 @@
     </row>
     <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B72" s="14">
         <v>80</v>
@@ -17267,7 +17929,7 @@
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B73" s="14">
         <v>40</v>
@@ -17284,7 +17946,7 @@
     </row>
     <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B74" s="14">
         <v>80</v>
@@ -17301,7 +17963,7 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B75" s="14">
         <v>40</v>
@@ -17318,7 +17980,7 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B76" s="14">
         <v>55</v>
@@ -17335,7 +17997,7 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B77" s="14">
         <v>80</v>
@@ -17352,7 +18014,7 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B78" s="14">
         <v>50</v>
@@ -17369,7 +18031,7 @@
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B79" s="14">
         <v>65</v>
@@ -17386,7 +18048,7 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B80" s="14">
         <v>90</v>
@@ -17403,7 +18065,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B81" s="14">
         <v>95</v>
@@ -17420,7 +18082,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B82" s="14">
         <v>25</v>
@@ -17437,7 +18099,7 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B83" s="14">
         <v>50</v>
@@ -17454,7 +18116,7 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B84" s="14">
         <v>52</v>
@@ -17471,7 +18133,7 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B85" s="14">
         <v>35</v>
@@ -17488,7 +18150,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B86" s="14">
         <v>60</v>
@@ -17505,7 +18167,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B87" s="14">
         <v>65</v>
@@ -17522,7 +18184,7 @@
     </row>
     <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B88" s="14">
         <v>90</v>
@@ -17539,7 +18201,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B89" s="14">
         <v>80</v>
@@ -17556,7 +18218,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B90" s="14">
         <v>105</v>
@@ -17573,7 +18235,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B91" s="14">
         <v>30</v>
@@ -17590,7 +18252,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B92" s="14">
         <v>50</v>
@@ -17607,7 +18269,7 @@
     </row>
     <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B93" s="14">
         <v>30</v>
@@ -17624,7 +18286,7 @@
     </row>
     <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B94" s="14">
         <v>45</v>
@@ -17641,7 +18303,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B95" s="14">
         <v>60</v>
@@ -17658,7 +18320,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B96" s="14">
         <v>35</v>
@@ -17675,7 +18337,7 @@
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B97" s="14">
         <v>60</v>
@@ -17692,7 +18354,7 @@
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B98" s="14">
         <v>85</v>
@@ -17709,7 +18371,7 @@
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B99" s="14">
         <v>30</v>
@@ -17726,7 +18388,7 @@
     </row>
     <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B100" s="14">
         <v>55</v>
@@ -17743,7 +18405,7 @@
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B101" s="14">
         <v>40</v>
@@ -17760,7 +18422,7 @@
     </row>
     <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B102" s="14">
         <v>60</v>
@@ -17777,7 +18439,7 @@
     </row>
     <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B103" s="14">
         <v>60</v>
@@ -17794,7 +18456,7 @@
     </row>
     <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B104" s="14">
         <v>95</v>
@@ -17811,7 +18473,7 @@
     </row>
     <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B105" s="14">
         <v>50</v>
@@ -17828,7 +18490,7 @@
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B106" s="14">
         <v>60</v>
@@ -17845,7 +18507,7 @@
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B107" s="14">
         <v>50</v>
@@ -17862,7 +18524,7 @@
     </row>
     <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B108" s="14">
         <v>50</v>
@@ -17879,7 +18541,7 @@
     </row>
     <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B109" s="14">
         <v>90</v>
@@ -17896,7 +18558,7 @@
     </row>
     <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B110" s="14">
         <v>40</v>
@@ -17913,7 +18575,7 @@
     </row>
     <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B111" s="14">
         <v>65</v>
@@ -17930,7 +18592,7 @@
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B112" s="14">
         <v>80</v>
@@ -17947,7 +18609,7 @@
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B113" s="14">
         <v>105</v>
@@ -17964,7 +18626,7 @@
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B114" s="14">
         <v>250</v>
@@ -17981,7 +18643,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B115" s="14">
         <v>65</v>
@@ -17998,7 +18660,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B116" s="14">
         <v>105</v>
@@ -18015,7 +18677,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B117" s="14">
         <v>30</v>
@@ -18032,7 +18694,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B118" s="14">
         <v>55</v>
@@ -18049,7 +18711,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B119" s="14">
         <v>45</v>
@@ -18066,7 +18728,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B120" s="14">
         <v>80</v>
@@ -18083,7 +18745,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B121" s="14">
         <v>30</v>
@@ -18100,7 +18762,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B122" s="14">
         <v>60</v>
@@ -18117,7 +18779,7 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B123" s="14">
         <v>40</v>
@@ -18134,7 +18796,7 @@
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B124" s="14">
         <v>70</v>
@@ -18151,7 +18813,7 @@
     </row>
     <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B125" s="14">
         <v>65</v>
@@ -18168,7 +18830,7 @@
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B126" s="14">
         <v>65</v>
@@ -18185,7 +18847,7 @@
     </row>
     <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B127" s="14">
         <v>65</v>
@@ -18202,7 +18864,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B128" s="14">
         <v>65</v>
@@ -18219,7 +18881,7 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B129" s="14">
         <v>75</v>
@@ -18236,7 +18898,7 @@
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B130" s="14">
         <v>20</v>
@@ -18253,7 +18915,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B131" s="14">
         <v>95</v>
@@ -18270,7 +18932,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B132" s="14">
         <v>130</v>
@@ -18287,7 +18949,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B133" s="14">
         <v>48</v>
@@ -18304,7 +18966,7 @@
     </row>
     <row r="134" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B134" s="14">
         <v>55</v>
@@ -18321,7 +18983,7 @@
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B135" s="14">
         <v>130</v>
@@ -18338,7 +19000,7 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B136" s="14">
         <v>65</v>
@@ -18355,7 +19017,7 @@
     </row>
     <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B137" s="14">
         <v>65</v>
@@ -18372,7 +19034,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B138" s="14">
         <v>65</v>
@@ -18389,7 +19051,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B139" s="14">
         <v>35</v>
@@ -18406,7 +19068,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B140" s="14">
         <v>70</v>
@@ -18423,7 +19085,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B141" s="14">
         <v>30</v>
@@ -18440,7 +19102,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B142" s="14">
         <v>60</v>
@@ -18457,7 +19119,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B143" s="14">
         <v>80</v>
@@ -18474,7 +19136,7 @@
     </row>
     <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B144" s="14">
         <v>160</v>
@@ -18491,7 +19153,7 @@
     </row>
     <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B145" s="14">
         <v>90</v>
@@ -18508,7 +19170,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B146" s="14">
         <v>90</v>
@@ -18525,7 +19187,7 @@
     </row>
     <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B147" s="14">
         <v>90</v>
@@ -18542,7 +19204,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B148" s="14">
         <v>41</v>
@@ -18559,7 +19221,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B149" s="14">
         <v>61</v>
@@ -18576,7 +19238,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B150" s="14">
         <v>91</v>
@@ -18593,7 +19255,7 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B151" s="14">
         <v>106</v>
@@ -18610,7 +19272,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B152" s="14">
         <v>100</v>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="472">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -1022,10 +1022,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系数:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行类型_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1106,10 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-20速,-2*10防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系数:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,10 +1164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:2,状态编号:202,数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合数:1,状态编号:203,数值:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,10 +1336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系数:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1445,6 +1429,394 @@
   </si>
   <si>
     <t>回合数:3,状态编号:302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 1004 1005 3001 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006 1006 1006 1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004 1006 3001 3002 6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006 3002 6001 7001 8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001 800101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入眩晕中，无法行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩入壳中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩入壳中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+2*10防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:102,数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 1007 4001 4002 4003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫光纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:203,数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007 1008 4002 4003 4004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008 1009 4002 4004 4005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭头槌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1963,7 +2335,7 @@
   <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -2086,7 +2458,7 @@
         <v>0.45</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N33" si="1">E2+49*I2</f>
@@ -2165,7 +2537,7 @@
         <v>0.6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
@@ -2244,7 +2616,7 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
@@ -2322,8 +2694,8 @@
         <f t="shared" si="12"/>
         <v>0.65</v>
       </c>
-      <c r="M5" s="4">
-        <v>1001</v>
+      <c r="M5" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
@@ -2401,8 +2773,8 @@
         <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
-      <c r="M6" s="4">
-        <v>1001</v>
+      <c r="M6" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
@@ -2480,8 +2852,8 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M7" s="4">
-        <v>1001</v>
+      <c r="M7" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
@@ -2559,8 +2931,8 @@
         <f t="shared" si="12"/>
         <v>0.43</v>
       </c>
-      <c r="M8" s="4">
-        <v>1001</v>
+      <c r="M8" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="1"/>
@@ -2638,8 +3010,8 @@
         <f t="shared" si="12"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="M9" s="4">
-        <v>1001</v>
+      <c r="M9" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
@@ -2717,8 +3089,8 @@
         <f t="shared" si="12"/>
         <v>0.78</v>
       </c>
-      <c r="M10" s="4">
-        <v>1001</v>
+      <c r="M10" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="1"/>
@@ -14403,10 +14775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14428,19 +14800,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>25</v>
@@ -14458,7 +14830,7 @@
         <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -14476,13 +14848,13 @@
         <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F3" s="4">
         <v>0.4</v>
@@ -14503,10 +14875,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F4" s="4">
         <v>0.35</v>
@@ -14521,209 +14893,552 @@
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1.5</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>2001</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>1004</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
-        <v>2002</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>335</v>
+        <v>380</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F6" s="4">
         <v>0.35</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>2002</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>1005</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
-        <v>2003</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>351</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>393</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
-        <v>2004</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>362</v>
+        <v>429</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>430</v>
       </c>
       <c r="F8" s="4">
         <v>0.35</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>2004</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>1007</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
-        <v>2005</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>453</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="4">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4">
+        <v>1008</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
-        <v>5001</v>
+        <v>1009</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>340</v>
+        <v>452</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>342</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="4">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>5001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2001</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3001</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>3002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3002</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4001</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>4002</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4002</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>4003</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4003</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>4004</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4004</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>4005</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4005</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>5001</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>6001</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>7001</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4">
+        <v>8001</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14734,10 +15449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14769,16 +15484,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>270</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>269</v>
@@ -14787,16 +15502,16 @@
         <v>271</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -14824,7 +15539,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -14835,28 +15550,28 @@
         <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>323</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -14870,25 +15585,25 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="J4" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -14896,19 +15611,17 @@
     <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>348</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>24</v>
@@ -14917,76 +15630,63 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>2002</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H6" s="4">
+        <v>292</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="26">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="26">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="26">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
-        <v>2003</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="24"/>
+        <v>391</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -14994,306 +15694,733 @@
     <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
-        <v>200301</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="24"/>
+        <v>432</v>
+      </c>
+      <c r="E8" s="23"/>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K8" s="4"/>
+        <v>434</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26">
-        <v>2004</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="26">
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" s="4">
-        <v>2005</v>
+        <v>1009</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>368</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
-        <v>200501</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>372</v>
+        <v>24</v>
       </c>
       <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
-        <v>200502</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>378</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
-        <v>4001</v>
+        <v>200301</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>293</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>26</v>
+        <v>353</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="26">
-        <v>5001</v>
+        <v>2004</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>360</v>
       </c>
       <c r="F15" s="26">
         <v>4</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="H15" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>2005</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>200501</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>200502</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4">
+        <v>3002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>4001</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>4002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>4003</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>4004</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>4005</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26">
+        <v>5001</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>6001</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>7001</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4">
+        <v>8001</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4">
+        <v>800101</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15304,10 +16431,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -15343,10 +16470,10 @@
         <v>222</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>223</v>
@@ -15372,10 +16499,10 @@
         <v>233</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>225</v>
@@ -15401,10 +16528,10 @@
         <v>234</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>225</v>
@@ -15430,10 +16557,10 @@
         <v>228</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>225</v>
@@ -15459,10 +16586,10 @@
         <v>235</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>225</v>
@@ -15488,10 +16615,10 @@
         <v>236</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>225</v>
@@ -15517,10 +16644,10 @@
         <v>239</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>225</v>
@@ -15546,10 +16673,10 @@
         <v>240</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>225</v>
@@ -15575,10 +16702,10 @@
         <v>254</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>231</v>
@@ -15604,10 +16731,10 @@
         <v>255</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>231</v>
@@ -15633,10 +16760,10 @@
         <v>232</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>231</v>
@@ -15662,10 +16789,10 @@
         <v>237</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>231</v>
@@ -15691,10 +16818,10 @@
         <v>238</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>231</v>
@@ -15720,10 +16847,10 @@
         <v>241</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>231</v>
@@ -15749,10 +16876,10 @@
         <v>242</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>231</v>
@@ -15778,10 +16905,10 @@
         <v>244</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>245</v>
@@ -15804,10 +16931,10 @@
         <v>247</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>245</v>
@@ -15830,10 +16957,10 @@
         <v>248</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>245</v>
@@ -15843,6 +16970,32 @@
       </c>
       <c r="K18" s="22" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="22">
+        <v>304</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="483">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -137,706 +137,1706 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>忽略_50级生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_50级速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_100级速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙蛙草</t>
+  </si>
+  <si>
+    <t>妙蛙花</t>
+  </si>
+  <si>
+    <t>小火龙</t>
+  </si>
+  <si>
+    <t>火恐龙</t>
+  </si>
+  <si>
+    <t>喷火龙</t>
+  </si>
+  <si>
+    <t>杰尼龟</t>
+  </si>
+  <si>
+    <t>卡咪龟</t>
+  </si>
+  <si>
+    <t>水箭龟</t>
+  </si>
+  <si>
+    <t>绿毛虫</t>
+  </si>
+  <si>
+    <t>铁甲蛹</t>
+  </si>
+  <si>
+    <t>巴大蝶</t>
+  </si>
+  <si>
+    <t>独角虫</t>
+  </si>
+  <si>
+    <t>铁壳蛹</t>
+  </si>
+  <si>
+    <t>大针蜂</t>
+  </si>
+  <si>
+    <t>波波</t>
+  </si>
+  <si>
+    <t>比比鸟</t>
+  </si>
+  <si>
+    <t>大比鸟</t>
+  </si>
+  <si>
+    <t>小拉达</t>
+  </si>
+  <si>
+    <t>拉达</t>
+  </si>
+  <si>
+    <t>烈雀</t>
+  </si>
+  <si>
+    <t>大嘴雀</t>
+  </si>
+  <si>
+    <t>阿柏蛇</t>
+  </si>
+  <si>
+    <t>阿柏怪</t>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+  </si>
+  <si>
+    <t>雷丘</t>
+  </si>
+  <si>
+    <t>穿山鼠</t>
+  </si>
+  <si>
+    <t>穿山王</t>
+  </si>
+  <si>
+    <t>尼多兰</t>
+  </si>
+  <si>
+    <t>尼多娜</t>
+  </si>
+  <si>
+    <t>尼多后</t>
+  </si>
+  <si>
+    <t>尼多朗</t>
+  </si>
+  <si>
+    <t>尼多力诺</t>
+  </si>
+  <si>
+    <t>尼多王</t>
+  </si>
+  <si>
+    <t>皮皮</t>
+  </si>
+  <si>
+    <t>皮可西</t>
+  </si>
+  <si>
+    <t>六尾</t>
+  </si>
+  <si>
+    <t>九尾</t>
+  </si>
+  <si>
+    <t>胖丁</t>
+  </si>
+  <si>
+    <t>胖可丁</t>
+  </si>
+  <si>
+    <t>超音蝠</t>
+  </si>
+  <si>
+    <t>大嘴蝠</t>
+  </si>
+  <si>
+    <t>走路草</t>
+  </si>
+  <si>
+    <t>臭臭花</t>
+  </si>
+  <si>
+    <t>霸王花</t>
+  </si>
+  <si>
+    <t>派拉斯</t>
+  </si>
+  <si>
+    <t>派拉斯特</t>
+  </si>
+  <si>
+    <t>毛球</t>
+  </si>
+  <si>
+    <t>摩鲁蛾</t>
+  </si>
+  <si>
+    <t>地鼠</t>
+  </si>
+  <si>
+    <t>三地鼠</t>
+  </si>
+  <si>
+    <t>喵喵</t>
+  </si>
+  <si>
+    <t>猫老大</t>
+  </si>
+  <si>
+    <t>可达鸭</t>
+  </si>
+  <si>
+    <t>哥达鸭</t>
+  </si>
+  <si>
+    <t>猴怪</t>
+  </si>
+  <si>
+    <t>火暴猴</t>
+  </si>
+  <si>
+    <t>卡蒂狗</t>
+  </si>
+  <si>
+    <t>风速狗</t>
+  </si>
+  <si>
+    <t>蚊香蝌蚪</t>
+  </si>
+  <si>
+    <t>蚊香君</t>
+  </si>
+  <si>
+    <t>蚊香泳士</t>
+  </si>
+  <si>
+    <t>凯西</t>
+  </si>
+  <si>
+    <t>勇基拉</t>
+  </si>
+  <si>
+    <t>胡地</t>
+  </si>
+  <si>
+    <t>腕力</t>
+  </si>
+  <si>
+    <t>豪力</t>
+  </si>
+  <si>
+    <t>怪力</t>
+  </si>
+  <si>
+    <t>喇叭芽</t>
+  </si>
+  <si>
+    <t>口呆花</t>
+  </si>
+  <si>
+    <t>大食花</t>
+  </si>
+  <si>
+    <t>玛瑙水母</t>
+  </si>
+  <si>
+    <t>毒刺水母</t>
+  </si>
+  <si>
+    <t>小拳石</t>
+  </si>
+  <si>
+    <t>隆隆石</t>
+  </si>
+  <si>
+    <t>隆隆岩</t>
+  </si>
+  <si>
+    <t>小火马</t>
+  </si>
+  <si>
+    <t>烈焰马</t>
+  </si>
+  <si>
+    <t>呆呆兽</t>
+  </si>
+  <si>
+    <t>呆壳兽</t>
+  </si>
+  <si>
+    <t>小磁怪</t>
+  </si>
+  <si>
+    <t>三合一磁怪</t>
+  </si>
+  <si>
+    <t>大葱鸭</t>
+  </si>
+  <si>
+    <t>嘟嘟</t>
+  </si>
+  <si>
+    <t>嘟嘟利</t>
+  </si>
+  <si>
+    <t>小海狮</t>
+  </si>
+  <si>
+    <t>白海狮</t>
+  </si>
+  <si>
+    <t>臭泥</t>
+  </si>
+  <si>
+    <t>臭臭泥</t>
+  </si>
+  <si>
+    <t>大舌贝</t>
+  </si>
+  <si>
+    <t>刺甲贝</t>
+  </si>
+  <si>
+    <t>鬼斯</t>
+  </si>
+  <si>
+    <t>鬼斯通</t>
+  </si>
+  <si>
+    <t>耿鬼</t>
+  </si>
+  <si>
+    <t>大岩蛇</t>
+  </si>
+  <si>
+    <t>催眠貘</t>
+  </si>
+  <si>
+    <t>引梦貘人</t>
+  </si>
+  <si>
+    <t>大钳蟹</t>
+  </si>
+  <si>
+    <t>巨钳蟹</t>
+  </si>
+  <si>
+    <t>霹雳电球</t>
+  </si>
+  <si>
+    <t>顽皮雷弹</t>
+  </si>
+  <si>
+    <t>蛋蛋</t>
+  </si>
+  <si>
+    <t>椰蛋树</t>
+  </si>
+  <si>
+    <t>卡拉卡拉</t>
+  </si>
+  <si>
+    <t>嘎啦嘎啦</t>
+  </si>
+  <si>
+    <t>飞腿郎</t>
+  </si>
+  <si>
+    <t>快拳郎</t>
+  </si>
+  <si>
+    <t>大舌头</t>
+  </si>
+  <si>
+    <t>瓦斯弹</t>
+  </si>
+  <si>
+    <t>双弹瓦斯</t>
+  </si>
+  <si>
+    <t>独角犀牛</t>
+  </si>
+  <si>
+    <t>钻角犀兽</t>
+  </si>
+  <si>
+    <t>吉利蛋</t>
+  </si>
+  <si>
+    <t>蔓藤怪</t>
+  </si>
+  <si>
+    <t>袋兽</t>
+  </si>
+  <si>
+    <t>墨海马</t>
+  </si>
+  <si>
+    <t>海刺龙</t>
+  </si>
+  <si>
+    <t>角金鱼</t>
+  </si>
+  <si>
+    <t>金鱼王</t>
+  </si>
+  <si>
+    <t>海星星</t>
+  </si>
+  <si>
+    <t>宝石海星</t>
+  </si>
+  <si>
+    <t>魔墙人偶</t>
+  </si>
+  <si>
+    <t>飞天螳螂</t>
+  </si>
+  <si>
+    <t>迷唇姐</t>
+  </si>
+  <si>
+    <t>电击兽</t>
+  </si>
+  <si>
+    <t>鸭嘴火兽</t>
+  </si>
+  <si>
+    <t>凯罗斯</t>
+  </si>
+  <si>
+    <t>肯泰罗</t>
+  </si>
+  <si>
+    <t>鲤鱼王</t>
+  </si>
+  <si>
+    <t>暴鲤龙</t>
+  </si>
+  <si>
+    <t>拉普拉斯</t>
+  </si>
+  <si>
+    <t>百变怪</t>
+  </si>
+  <si>
+    <t>伊布</t>
+  </si>
+  <si>
+    <t>水伊布</t>
+  </si>
+  <si>
+    <t>雷伊布</t>
+  </si>
+  <si>
+    <t>火伊布</t>
+  </si>
+  <si>
+    <t>多边兽</t>
+  </si>
+  <si>
+    <t>菊石兽</t>
+  </si>
+  <si>
+    <t>多刺菊石兽</t>
+  </si>
+  <si>
+    <t>化石盔</t>
+  </si>
+  <si>
+    <t>镰刀盔</t>
+  </si>
+  <si>
+    <t>化石翼龙</t>
+  </si>
+  <si>
+    <t>卡比兽</t>
+  </si>
+  <si>
+    <t>急冻鸟</t>
+  </si>
+  <si>
+    <t>闪电鸟</t>
+  </si>
+  <si>
+    <t>火焰鸟</t>
+  </si>
+  <si>
+    <t>迷你龙</t>
+  </si>
+  <si>
+    <t>哈克龙</t>
+  </si>
+  <si>
+    <t>快龙</t>
+  </si>
+  <si>
+    <t>超梦</t>
+  </si>
+  <si>
+    <t>梦幻</t>
+  </si>
+  <si>
+    <t>虫 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒 地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫 草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵 毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面 岩石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰 超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙 飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>状态标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>10 11 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>减受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减受治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 21 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:暴走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持状态刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 11 12</t>
+  </si>
+  <si>
+    <t>减攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:伤害修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受伤修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:受治疗修正,最大值:0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果:禁疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害增加$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗减少$value$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_效果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加$value$($攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增加$value$($防御)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度增加$value$($速度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度减少$value$($速度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御减少$value$($防御)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击减少$value$($攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的攻击增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在混乱效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在暴走效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在禁疗效果</t>
+  </si>
+  <si>
+    <t>已存在同等或更强的防御增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的速度增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的伤害增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的受伤增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的治疗增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的受治疗增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入混乱中，无法行动</t>
+  </si>
+  <si>
+    <t>无法受到治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入暴走中，不分敌我目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,数值:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略_属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低对方攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2*2*15攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:201,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2*15攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:101,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶快刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1准备2*150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶快刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,数值:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150%-2*20防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1准备+攻1*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003 200301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.05,效果基础:最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.1,效果基础:最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005 200501 200502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3,状态编号:302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 1004 1005 3001 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006 1006 1006 1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004 1006 3001 3002 6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006 3002 6001 7001 8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投负面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001 800101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入眩晕中，无法行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,数值:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩入壳中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩入壳中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+2*10防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:102,数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 1007 4001 4002 4003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫光纤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:203,数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007 1008 4002 4003 4004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008 1009 4002 4004 4005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流喷射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭头槌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忽略_50级生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_50级速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_100级速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤鞭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙蛙草</t>
-  </si>
-  <si>
-    <t>妙蛙花</t>
-  </si>
-  <si>
-    <t>小火龙</t>
-  </si>
-  <si>
-    <t>火恐龙</t>
-  </si>
-  <si>
-    <t>喷火龙</t>
-  </si>
-  <si>
-    <t>杰尼龟</t>
-  </si>
-  <si>
-    <t>卡咪龟</t>
-  </si>
-  <si>
-    <t>水箭龟</t>
-  </si>
-  <si>
-    <t>绿毛虫</t>
-  </si>
-  <si>
-    <t>铁甲蛹</t>
-  </si>
-  <si>
-    <t>巴大蝶</t>
-  </si>
-  <si>
-    <t>独角虫</t>
-  </si>
-  <si>
-    <t>铁壳蛹</t>
-  </si>
-  <si>
-    <t>大针蜂</t>
-  </si>
-  <si>
-    <t>波波</t>
-  </si>
-  <si>
-    <t>比比鸟</t>
-  </si>
-  <si>
-    <t>大比鸟</t>
-  </si>
-  <si>
-    <t>小拉达</t>
-  </si>
-  <si>
-    <t>拉达</t>
-  </si>
-  <si>
-    <t>烈雀</t>
-  </si>
-  <si>
-    <t>大嘴雀</t>
-  </si>
-  <si>
-    <t>阿柏蛇</t>
-  </si>
-  <si>
-    <t>阿柏怪</t>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-  </si>
-  <si>
-    <t>雷丘</t>
-  </si>
-  <si>
-    <t>穿山鼠</t>
-  </si>
-  <si>
-    <t>穿山王</t>
-  </si>
-  <si>
-    <t>尼多兰</t>
-  </si>
-  <si>
-    <t>尼多娜</t>
-  </si>
-  <si>
-    <t>尼多后</t>
-  </si>
-  <si>
-    <t>尼多朗</t>
-  </si>
-  <si>
-    <t>尼多力诺</t>
-  </si>
-  <si>
-    <t>尼多王</t>
-  </si>
-  <si>
-    <t>皮皮</t>
-  </si>
-  <si>
-    <t>皮可西</t>
-  </si>
-  <si>
-    <t>六尾</t>
-  </si>
-  <si>
-    <t>九尾</t>
-  </si>
-  <si>
-    <t>胖丁</t>
-  </si>
-  <si>
-    <t>胖可丁</t>
-  </si>
-  <si>
-    <t>超音蝠</t>
-  </si>
-  <si>
-    <t>大嘴蝠</t>
-  </si>
-  <si>
-    <t>走路草</t>
-  </si>
-  <si>
-    <t>臭臭花</t>
-  </si>
-  <si>
-    <t>霸王花</t>
-  </si>
-  <si>
-    <t>派拉斯</t>
-  </si>
-  <si>
-    <t>派拉斯特</t>
-  </si>
-  <si>
-    <t>毛球</t>
-  </si>
-  <si>
-    <t>摩鲁蛾</t>
-  </si>
-  <si>
-    <t>地鼠</t>
-  </si>
-  <si>
-    <t>三地鼠</t>
-  </si>
-  <si>
-    <t>喵喵</t>
-  </si>
-  <si>
-    <t>猫老大</t>
-  </si>
-  <si>
-    <t>可达鸭</t>
-  </si>
-  <si>
-    <t>哥达鸭</t>
-  </si>
-  <si>
-    <t>猴怪</t>
-  </si>
-  <si>
-    <t>火暴猴</t>
-  </si>
-  <si>
-    <t>卡蒂狗</t>
-  </si>
-  <si>
-    <t>风速狗</t>
-  </si>
-  <si>
-    <t>蚊香蝌蚪</t>
-  </si>
-  <si>
-    <t>蚊香君</t>
-  </si>
-  <si>
-    <t>蚊香泳士</t>
-  </si>
-  <si>
-    <t>凯西</t>
-  </si>
-  <si>
-    <t>勇基拉</t>
-  </si>
-  <si>
-    <t>胡地</t>
-  </si>
-  <si>
-    <t>腕力</t>
-  </si>
-  <si>
-    <t>豪力</t>
-  </si>
-  <si>
-    <t>怪力</t>
-  </si>
-  <si>
-    <t>喇叭芽</t>
-  </si>
-  <si>
-    <t>口呆花</t>
-  </si>
-  <si>
-    <t>大食花</t>
-  </si>
-  <si>
-    <t>玛瑙水母</t>
-  </si>
-  <si>
-    <t>毒刺水母</t>
-  </si>
-  <si>
-    <t>小拳石</t>
-  </si>
-  <si>
-    <t>隆隆石</t>
-  </si>
-  <si>
-    <t>隆隆岩</t>
-  </si>
-  <si>
-    <t>小火马</t>
-  </si>
-  <si>
-    <t>烈焰马</t>
-  </si>
-  <si>
-    <t>呆呆兽</t>
-  </si>
-  <si>
-    <t>呆壳兽</t>
-  </si>
-  <si>
-    <t>小磁怪</t>
-  </si>
-  <si>
-    <t>三合一磁怪</t>
-  </si>
-  <si>
-    <t>大葱鸭</t>
-  </si>
-  <si>
-    <t>嘟嘟</t>
-  </si>
-  <si>
-    <t>嘟嘟利</t>
-  </si>
-  <si>
-    <t>小海狮</t>
-  </si>
-  <si>
-    <t>白海狮</t>
-  </si>
-  <si>
-    <t>臭泥</t>
-  </si>
-  <si>
-    <t>臭臭泥</t>
-  </si>
-  <si>
-    <t>大舌贝</t>
-  </si>
-  <si>
-    <t>刺甲贝</t>
-  </si>
-  <si>
-    <t>鬼斯</t>
-  </si>
-  <si>
-    <t>鬼斯通</t>
-  </si>
-  <si>
-    <t>耿鬼</t>
-  </si>
-  <si>
-    <t>大岩蛇</t>
-  </si>
-  <si>
-    <t>催眠貘</t>
-  </si>
-  <si>
-    <t>引梦貘人</t>
-  </si>
-  <si>
-    <t>大钳蟹</t>
-  </si>
-  <si>
-    <t>巨钳蟹</t>
-  </si>
-  <si>
-    <t>霹雳电球</t>
-  </si>
-  <si>
-    <t>顽皮雷弹</t>
-  </si>
-  <si>
-    <t>蛋蛋</t>
-  </si>
-  <si>
-    <t>椰蛋树</t>
-  </si>
-  <si>
-    <t>卡拉卡拉</t>
-  </si>
-  <si>
-    <t>嘎啦嘎啦</t>
-  </si>
-  <si>
-    <t>飞腿郎</t>
-  </si>
-  <si>
-    <t>快拳郎</t>
-  </si>
-  <si>
-    <t>大舌头</t>
-  </si>
-  <si>
-    <t>瓦斯弹</t>
-  </si>
-  <si>
-    <t>双弹瓦斯</t>
-  </si>
-  <si>
-    <t>独角犀牛</t>
-  </si>
-  <si>
-    <t>钻角犀兽</t>
-  </si>
-  <si>
-    <t>吉利蛋</t>
-  </si>
-  <si>
-    <t>蔓藤怪</t>
-  </si>
-  <si>
-    <t>袋兽</t>
-  </si>
-  <si>
-    <t>墨海马</t>
-  </si>
-  <si>
-    <t>海刺龙</t>
-  </si>
-  <si>
-    <t>角金鱼</t>
-  </si>
-  <si>
-    <t>金鱼王</t>
-  </si>
-  <si>
-    <t>海星星</t>
-  </si>
-  <si>
-    <t>宝石海星</t>
-  </si>
-  <si>
-    <t>魔墙人偶</t>
-  </si>
-  <si>
-    <t>飞天螳螂</t>
-  </si>
-  <si>
-    <t>迷唇姐</t>
-  </si>
-  <si>
-    <t>电击兽</t>
-  </si>
-  <si>
-    <t>鸭嘴火兽</t>
-  </si>
-  <si>
-    <t>凯罗斯</t>
-  </si>
-  <si>
-    <t>肯泰罗</t>
-  </si>
-  <si>
-    <t>鲤鱼王</t>
-  </si>
-  <si>
-    <t>暴鲤龙</t>
-  </si>
-  <si>
-    <t>拉普拉斯</t>
-  </si>
-  <si>
-    <t>百变怪</t>
-  </si>
-  <si>
-    <t>伊布</t>
-  </si>
-  <si>
-    <t>水伊布</t>
-  </si>
-  <si>
-    <t>雷伊布</t>
-  </si>
-  <si>
-    <t>火伊布</t>
-  </si>
-  <si>
-    <t>多边兽</t>
-  </si>
-  <si>
-    <t>菊石兽</t>
-  </si>
-  <si>
-    <t>多刺菊石兽</t>
-  </si>
-  <si>
-    <t>化石盔</t>
-  </si>
-  <si>
-    <t>镰刀盔</t>
-  </si>
-  <si>
-    <t>化石翼龙</t>
-  </si>
-  <si>
-    <t>卡比兽</t>
-  </si>
-  <si>
-    <t>急冻鸟</t>
-  </si>
-  <si>
-    <t>闪电鸟</t>
-  </si>
-  <si>
-    <t>火焰鸟</t>
-  </si>
-  <si>
-    <t>迷你龙</t>
-  </si>
-  <si>
-    <t>哈克龙</t>
-  </si>
-  <si>
-    <t>快龙</t>
-  </si>
-  <si>
-    <t>超梦</t>
-  </si>
-  <si>
-    <t>梦幻</t>
-  </si>
-  <si>
-    <t>虫 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒 地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虫 草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵 毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面 岩石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰 超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙 飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>状态标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>10 11 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用buff</t>
+    <t>1002 2001 2002 2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003 2001 2002 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003 2001 2003 2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的寄生种子效果已施加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄生种子唯一效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在寄生种子效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,979 +1844,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊效果参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 21 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>减受伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增受伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增受治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减受治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 21 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:混乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持状态刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 11 12</t>
-  </si>
-  <si>
-    <t>减攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受治疗修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:伤害修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:治疗修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受伤修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:伤害修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受伤修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:治疗修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性:受治疗修正,最大值:0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果:禁疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施加的治疗增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的治疗增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成的伤害减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害增加$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施加的治疗减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的治疗减少$value$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行类型_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行参数_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_效果说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击增加$value$($攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御增加$value$($防御)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度增加$value$($速度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度减少$value$($速度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御减少$value$($防御)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击减少$value$($攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的攻击增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在混乱效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在暴走效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在禁疗效果</t>
-  </si>
-  <si>
-    <t>已存在同等或更强的防御增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的速度增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的伤害增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的受伤增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的治疗增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在同等或更强的受治疗增加效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷入混乱中，无法行动</t>
-  </si>
-  <si>
-    <t>无法受到治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷入暴走中，不分敌我目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:1,状态编号:203,数值:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备回合数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略_属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低对方攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2*2*15攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:201,数值:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+2*15攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:101,数值:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞叶快刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1准备2*150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞叶快刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 1002 1003 2001 2002 5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:202,数值:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150%-2*20防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日光术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1准备+攻1*300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日光术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日光术回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003 200301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 1003 2001 2002 2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.05,效果基础:最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄生种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄生种子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003 2001 2002 2004 2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花瓣舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花瓣舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花瓣舞回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.1,效果基础:最大生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花瓣舞负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005 200501 200502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:3,状态编号:302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附带灼烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带灼烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002 1004 1005 3001 3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱抓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱抓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1006 1006 1006 1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷射火焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷射火焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004 1006 3001 3002 6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:2.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翅膀攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翅膀攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1006 3002 6001 7001 8001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球上投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球上投！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球上投负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001 800101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:1,状态编号:304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在眩晕效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷入眩晕中，无法行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇尾巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇尾巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:202,数值:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-20速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩入壳中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩入壳中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>’+2*10防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:102,数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001 1007 4001 4002 4003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头槌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头槌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫光线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫光纤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:203,数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1007 1008 4002 4003 4004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008 1009 4002 4004 4005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流喷射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流喷射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭头槌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数:2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火箭头槌</t>
+    <t>执行时机:回合开始,执行任务:吸取生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时机:战斗开始,执行任务:技能,执行编号:2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:1001,数值:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2335,7 +2379,7 @@
   <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -2360,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
@@ -2387,31 +2431,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -2423,7 +2467,7 @@
         <v>妙蛙种子</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="4">
         <f>忽略_初始数值!B2*10</f>
@@ -2458,7 +2502,7 @@
         <v>0.45</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N33" si="1">E2+49*I2</f>
@@ -2502,7 +2546,7 @@
         <v>妙蛙草</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="4">
         <f>忽略_初始数值!B3*10</f>
@@ -2537,7 +2581,7 @@
         <v>0.6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
@@ -2581,7 +2625,7 @@
         <v>妙蛙花</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4">
         <f>忽略_初始数值!B4*10</f>
@@ -2616,7 +2660,7 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
@@ -2660,7 +2704,7 @@
         <v>小火龙</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <f>忽略_初始数值!B5*10</f>
@@ -2695,7 +2739,7 @@
         <v>0.65</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
@@ -2739,7 +2783,7 @@
         <v>火恐龙</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <f>忽略_初始数值!B6*10</f>
@@ -2774,7 +2818,7 @@
         <v>0.8</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
@@ -2818,7 +2862,7 @@
         <v>喷火龙</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4">
         <f>忽略_初始数值!B7*10</f>
@@ -2853,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
@@ -2897,7 +2941,7 @@
         <v>杰尼龟</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4">
         <f>忽略_初始数值!B8*10</f>
@@ -2932,7 +2976,7 @@
         <v>0.43</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="1"/>
@@ -2976,7 +3020,7 @@
         <v>卡咪龟</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4">
         <f>忽略_初始数值!B9*10</f>
@@ -3011,7 +3055,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
@@ -3055,7 +3099,7 @@
         <v>水箭龟</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4">
         <f>忽略_初始数值!B10*10</f>
@@ -3090,7 +3134,7 @@
         <v>0.78</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="1"/>
@@ -3134,7 +3178,7 @@
         <v>绿毛虫</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4">
         <f>忽略_初始数值!B11*10</f>
@@ -3216,7 +3260,7 @@
         <v>铁甲蛹</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4">
         <f>忽略_初始数值!B12*10</f>
@@ -3298,7 +3342,7 @@
         <v>巴大蝶</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4">
         <f>忽略_初始数值!B13*10</f>
@@ -3380,7 +3424,7 @@
         <v>独角虫</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="4">
         <f>忽略_初始数值!B14*10</f>
@@ -3462,7 +3506,7 @@
         <v>铁壳蛹</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="4">
         <f>忽略_初始数值!B15*10</f>
@@ -3544,7 +3588,7 @@
         <v>大针蜂</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="4">
         <f>忽略_初始数值!B16*10</f>
@@ -3626,7 +3670,7 @@
         <v>波波</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="4">
         <f>忽略_初始数值!B17*10</f>
@@ -3708,7 +3752,7 @@
         <v>比比鸟</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="4">
         <f>忽略_初始数值!B18*10</f>
@@ -3790,7 +3834,7 @@
         <v>大比鸟</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="4">
         <f>忽略_初始数值!B19*10</f>
@@ -3872,7 +3916,7 @@
         <v>小拉达</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4">
         <f>忽略_初始数值!B20*10</f>
@@ -3954,7 +3998,7 @@
         <v>拉达</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4">
         <f>忽略_初始数值!B21*10</f>
@@ -4036,7 +4080,7 @@
         <v>烈雀</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="4">
         <f>忽略_初始数值!B22*10</f>
@@ -4118,7 +4162,7 @@
         <v>大嘴雀</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="4">
         <f>忽略_初始数值!B23*10</f>
@@ -4200,7 +4244,7 @@
         <v>阿柏蛇</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4">
         <f>忽略_初始数值!B24*10</f>
@@ -4282,7 +4326,7 @@
         <v>阿柏怪</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4">
         <f>忽略_初始数值!B25*10</f>
@@ -4364,7 +4408,7 @@
         <v>皮卡丘</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4">
         <f>忽略_初始数值!B26*10</f>
@@ -4446,7 +4490,7 @@
         <v>雷丘</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="4">
         <f>忽略_初始数值!B27*10</f>
@@ -4528,7 +4572,7 @@
         <v>穿山鼠</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4">
         <f>忽略_初始数值!B28*10</f>
@@ -4610,7 +4654,7 @@
         <v>穿山王</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4">
         <f>忽略_初始数值!B29*10</f>
@@ -4692,7 +4736,7 @@
         <v>尼多兰</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4">
         <f>忽略_初始数值!B30*10</f>
@@ -4774,7 +4818,7 @@
         <v>尼多娜</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4">
         <f>忽略_初始数值!B31*10</f>
@@ -4856,7 +4900,7 @@
         <v>尼多后</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E32" s="4">
         <f>忽略_初始数值!B32*10</f>
@@ -4938,7 +4982,7 @@
         <v>尼多朗</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4">
         <f>忽略_初始数值!B33*10</f>
@@ -5020,7 +5064,7 @@
         <v>尼多力诺</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4">
         <f>忽略_初始数值!B34*10</f>
@@ -5102,7 +5146,7 @@
         <v>尼多王</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="4">
         <f>忽略_初始数值!B35*10</f>
@@ -5184,7 +5228,7 @@
         <v>皮皮</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="4">
         <f>忽略_初始数值!B36*10</f>
@@ -5266,7 +5310,7 @@
         <v>皮可西</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="4">
         <f>忽略_初始数值!B37*10</f>
@@ -5348,7 +5392,7 @@
         <v>六尾</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E38" s="4">
         <f>忽略_初始数值!B38*10</f>
@@ -5430,7 +5474,7 @@
         <v>九尾</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4">
         <f>忽略_初始数值!B39*10</f>
@@ -5512,7 +5556,7 @@
         <v>胖丁</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="4">
         <f>忽略_初始数值!B40*10</f>
@@ -5594,7 +5638,7 @@
         <v>胖可丁</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4">
         <f>忽略_初始数值!B41*10</f>
@@ -5676,7 +5720,7 @@
         <v>超音蝠</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42" s="4">
         <f>忽略_初始数值!B42*10</f>
@@ -5758,7 +5802,7 @@
         <v>大嘴蝠</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="4">
         <f>忽略_初始数值!B43*10</f>
@@ -5840,7 +5884,7 @@
         <v>走路草</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="4">
         <f>忽略_初始数值!B44*10</f>
@@ -5922,7 +5966,7 @@
         <v>臭臭花</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="4">
         <f>忽略_初始数值!B45*10</f>
@@ -6004,7 +6048,7 @@
         <v>霸王花</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="4">
         <f>忽略_初始数值!B46*10</f>
@@ -6086,7 +6130,7 @@
         <v>派拉斯</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E47" s="4">
         <f>忽略_初始数值!B47*10</f>
@@ -6168,7 +6212,7 @@
         <v>派拉斯特</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="4">
         <f>忽略_初始数值!B48*10</f>
@@ -6250,7 +6294,7 @@
         <v>毛球</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="4">
         <f>忽略_初始数值!B49*10</f>
@@ -6332,7 +6376,7 @@
         <v>摩鲁蛾</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50" s="4">
         <f>忽略_初始数值!B50*10</f>
@@ -6414,7 +6458,7 @@
         <v>地鼠</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="4">
         <f>忽略_初始数值!B51*10</f>
@@ -6496,7 +6540,7 @@
         <v>三地鼠</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="4">
         <f>忽略_初始数值!B52*10</f>
@@ -6578,7 +6622,7 @@
         <v>喵喵</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="4">
         <f>忽略_初始数值!B53*10</f>
@@ -6660,7 +6704,7 @@
         <v>猫老大</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="4">
         <f>忽略_初始数值!B54*10</f>
@@ -6742,7 +6786,7 @@
         <v>可达鸭</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="4">
         <f>忽略_初始数值!B55*10</f>
@@ -6824,7 +6868,7 @@
         <v>哥达鸭</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="4">
         <f>忽略_初始数值!B56*10</f>
@@ -6906,7 +6950,7 @@
         <v>猴怪</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" s="4">
         <f>忽略_初始数值!B57*10</f>
@@ -6988,7 +7032,7 @@
         <v>火暴猴</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="4">
         <f>忽略_初始数值!B58*10</f>
@@ -7070,7 +7114,7 @@
         <v>卡蒂狗</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E59" s="4">
         <f>忽略_初始数值!B59*10</f>
@@ -7152,7 +7196,7 @@
         <v>风速狗</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E60" s="4">
         <f>忽略_初始数值!B60*10</f>
@@ -7234,7 +7278,7 @@
         <v>蚊香蝌蚪</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="4">
         <f>忽略_初始数值!B61*10</f>
@@ -7316,7 +7360,7 @@
         <v>蚊香君</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="4">
         <f>忽略_初始数值!B62*10</f>
@@ -7398,7 +7442,7 @@
         <v>蚊香泳士</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E63" s="4">
         <f>忽略_初始数值!B63*10</f>
@@ -7480,7 +7524,7 @@
         <v>凯西</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="4">
         <f>忽略_初始数值!B64*10</f>
@@ -7562,7 +7606,7 @@
         <v>勇基拉</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="4">
         <f>忽略_初始数值!B65*10</f>
@@ -7644,7 +7688,7 @@
         <v>胡地</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" s="4">
         <f>忽略_初始数值!B66*10</f>
@@ -7726,7 +7770,7 @@
         <v>腕力</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" s="4">
         <f>忽略_初始数值!B67*10</f>
@@ -7808,7 +7852,7 @@
         <v>豪力</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" s="4">
         <f>忽略_初始数值!B68*10</f>
@@ -7890,7 +7934,7 @@
         <v>怪力</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" s="4">
         <f>忽略_初始数值!B69*10</f>
@@ -7972,7 +8016,7 @@
         <v>喇叭芽</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E70" s="4">
         <f>忽略_初始数值!B70*10</f>
@@ -8054,7 +8098,7 @@
         <v>口呆花</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="4">
         <f>忽略_初始数值!B71*10</f>
@@ -8136,7 +8180,7 @@
         <v>大食花</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="4">
         <f>忽略_初始数值!B72*10</f>
@@ -8218,7 +8262,7 @@
         <v>玛瑙水母</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" s="4">
         <f>忽略_初始数值!B73*10</f>
@@ -8300,7 +8344,7 @@
         <v>毒刺水母</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="4">
         <f>忽略_初始数值!B74*10</f>
@@ -8382,7 +8426,7 @@
         <v>小拳石</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E75" s="4">
         <f>忽略_初始数值!B75*10</f>
@@ -8464,7 +8508,7 @@
         <v>隆隆石</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E76" s="4">
         <f>忽略_初始数值!B76*10</f>
@@ -8546,7 +8590,7 @@
         <v>隆隆岩</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" s="4">
         <f>忽略_初始数值!B77*10</f>
@@ -8628,7 +8672,7 @@
         <v>小火马</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E78" s="4">
         <f>忽略_初始数值!B78*10</f>
@@ -8710,7 +8754,7 @@
         <v>烈焰马</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79" s="4">
         <f>忽略_初始数值!B79*10</f>
@@ -8792,7 +8836,7 @@
         <v>呆呆兽</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" s="4">
         <f>忽略_初始数值!B80*10</f>
@@ -8874,7 +8918,7 @@
         <v>呆壳兽</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E81" s="4">
         <f>忽略_初始数值!B81*10</f>
@@ -8956,7 +9000,7 @@
         <v>小磁怪</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" s="4">
         <f>忽略_初始数值!B82*10</f>
@@ -9038,7 +9082,7 @@
         <v>三合一磁怪</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E83" s="4">
         <f>忽略_初始数值!B83*10</f>
@@ -9120,7 +9164,7 @@
         <v>大葱鸭</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" s="4">
         <f>忽略_初始数值!B84*10</f>
@@ -9202,7 +9246,7 @@
         <v>嘟嘟</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" s="4">
         <f>忽略_初始数值!B85*10</f>
@@ -9284,7 +9328,7 @@
         <v>嘟嘟利</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86" s="4">
         <f>忽略_初始数值!B86*10</f>
@@ -9366,7 +9410,7 @@
         <v>小海狮</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E87" s="4">
         <f>忽略_初始数值!B87*10</f>
@@ -9448,7 +9492,7 @@
         <v>白海狮</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E88" s="4">
         <f>忽略_初始数值!B88*10</f>
@@ -9530,7 +9574,7 @@
         <v>臭泥</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E89" s="4">
         <f>忽略_初始数值!B89*10</f>
@@ -9612,7 +9656,7 @@
         <v>臭臭泥</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E90" s="4">
         <f>忽略_初始数值!B90*10</f>
@@ -9694,7 +9738,7 @@
         <v>大舌贝</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" s="4">
         <f>忽略_初始数值!B91*10</f>
@@ -9776,7 +9820,7 @@
         <v>刺甲贝</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E92" s="4">
         <f>忽略_初始数值!B92*10</f>
@@ -9858,7 +9902,7 @@
         <v>鬼斯</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E93" s="4">
         <f>忽略_初始数值!B93*10</f>
@@ -9940,7 +9984,7 @@
         <v>鬼斯通</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E94" s="4">
         <f>忽略_初始数值!B94*10</f>
@@ -10022,7 +10066,7 @@
         <v>耿鬼</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E95" s="4">
         <f>忽略_初始数值!B95*10</f>
@@ -10104,7 +10148,7 @@
         <v>大岩蛇</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E96" s="4">
         <f>忽略_初始数值!B96*10</f>
@@ -10186,7 +10230,7 @@
         <v>催眠貘</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E97" s="4">
         <f>忽略_初始数值!B97*10</f>
@@ -10268,7 +10312,7 @@
         <v>引梦貘人</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E98" s="4">
         <f>忽略_初始数值!B98*10</f>
@@ -10350,7 +10394,7 @@
         <v>大钳蟹</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" s="4">
         <f>忽略_初始数值!B99*10</f>
@@ -10432,7 +10476,7 @@
         <v>巨钳蟹</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" s="4">
         <f>忽略_初始数值!B100*10</f>
@@ -10514,7 +10558,7 @@
         <v>霹雳电球</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101" s="4">
         <f>忽略_初始数值!B101*10</f>
@@ -10596,7 +10640,7 @@
         <v>顽皮雷弹</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102" s="4">
         <f>忽略_初始数值!B102*10</f>
@@ -10678,7 +10722,7 @@
         <v>蛋蛋</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E103" s="4">
         <f>忽略_初始数值!B103*10</f>
@@ -10760,7 +10804,7 @@
         <v>椰蛋树</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E104" s="4">
         <f>忽略_初始数值!B104*10</f>
@@ -10842,7 +10886,7 @@
         <v>卡拉卡拉</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E105" s="4">
         <f>忽略_初始数值!B105*10</f>
@@ -10924,7 +10968,7 @@
         <v>嘎啦嘎啦</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E106" s="4">
         <f>忽略_初始数值!B106*10</f>
@@ -11006,7 +11050,7 @@
         <v>飞腿郎</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" s="4">
         <f>忽略_初始数值!B107*10</f>
@@ -11088,7 +11132,7 @@
         <v>快拳郎</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E108" s="4">
         <f>忽略_初始数值!B108*10</f>
@@ -11170,7 +11214,7 @@
         <v>大舌头</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="4">
         <f>忽略_初始数值!B109*10</f>
@@ -11252,7 +11296,7 @@
         <v>瓦斯弹</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E110" s="4">
         <f>忽略_初始数值!B110*10</f>
@@ -11334,7 +11378,7 @@
         <v>双弹瓦斯</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E111" s="4">
         <f>忽略_初始数值!B111*10</f>
@@ -11416,7 +11460,7 @@
         <v>独角犀牛</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E112" s="4">
         <f>忽略_初始数值!B112*10</f>
@@ -11498,7 +11542,7 @@
         <v>钻角犀兽</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E113" s="4">
         <f>忽略_初始数值!B113*10</f>
@@ -11580,7 +11624,7 @@
         <v>吉利蛋</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E114" s="4">
         <f>忽略_初始数值!B114*10</f>
@@ -11662,7 +11706,7 @@
         <v>蔓藤怪</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115" s="4">
         <f>忽略_初始数值!B115*10</f>
@@ -11744,7 +11788,7 @@
         <v>袋兽</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E116" s="4">
         <f>忽略_初始数值!B116*10</f>
@@ -11826,7 +11870,7 @@
         <v>墨海马</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E117" s="4">
         <f>忽略_初始数值!B117*10</f>
@@ -11908,7 +11952,7 @@
         <v>海刺龙</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="4">
         <f>忽略_初始数值!B118*10</f>
@@ -11990,7 +12034,7 @@
         <v>角金鱼</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E119" s="4">
         <f>忽略_初始数值!B119*10</f>
@@ -12072,7 +12116,7 @@
         <v>金鱼王</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="4">
         <f>忽略_初始数值!B120*10</f>
@@ -12154,7 +12198,7 @@
         <v>海星星</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121" s="4">
         <f>忽略_初始数值!B121*10</f>
@@ -12236,7 +12280,7 @@
         <v>宝石海星</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E122" s="4">
         <f>忽略_初始数值!B122*10</f>
@@ -12318,7 +12362,7 @@
         <v>魔墙人偶</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E123" s="4">
         <f>忽略_初始数值!B123*10</f>
@@ -12400,7 +12444,7 @@
         <v>飞天螳螂</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E124" s="4">
         <f>忽略_初始数值!B124*10</f>
@@ -12482,7 +12526,7 @@
         <v>迷唇姐</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E125" s="4">
         <f>忽略_初始数值!B125*10</f>
@@ -12564,7 +12608,7 @@
         <v>电击兽</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E126" s="4">
         <f>忽略_初始数值!B126*10</f>
@@ -12646,7 +12690,7 @@
         <v>鸭嘴火兽</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E127" s="4">
         <f>忽略_初始数值!B127*10</f>
@@ -12728,7 +12772,7 @@
         <v>凯罗斯</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E128" s="4">
         <f>忽略_初始数值!B128*10</f>
@@ -12810,7 +12854,7 @@
         <v>肯泰罗</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E129" s="4">
         <f>忽略_初始数值!B129*10</f>
@@ -12892,7 +12936,7 @@
         <v>鲤鱼王</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E130" s="4">
         <f>忽略_初始数值!B130*10</f>
@@ -12974,7 +13018,7 @@
         <v>暴鲤龙</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E131" s="4">
         <f>忽略_初始数值!B131*10</f>
@@ -13056,7 +13100,7 @@
         <v>拉普拉斯</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E132" s="4">
         <f>忽略_初始数值!B132*10</f>
@@ -13138,7 +13182,7 @@
         <v>百变怪</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E133" s="4">
         <f>忽略_初始数值!B133*10</f>
@@ -13220,7 +13264,7 @@
         <v>伊布</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E134" s="4">
         <f>忽略_初始数值!B134*10</f>
@@ -13302,7 +13346,7 @@
         <v>水伊布</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E135" s="4">
         <f>忽略_初始数值!B135*10</f>
@@ -13384,7 +13428,7 @@
         <v>雷伊布</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E136" s="4">
         <f>忽略_初始数值!B136*10</f>
@@ -13466,7 +13510,7 @@
         <v>火伊布</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137" s="4">
         <f>忽略_初始数值!B137*10</f>
@@ -13548,7 +13592,7 @@
         <v>多边兽</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E138" s="4">
         <f>忽略_初始数值!B138*10</f>
@@ -13630,7 +13674,7 @@
         <v>菊石兽</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E139" s="4">
         <f>忽略_初始数值!B139*10</f>
@@ -13712,7 +13756,7 @@
         <v>多刺菊石兽</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E140" s="4">
         <f>忽略_初始数值!B140*10</f>
@@ -13794,7 +13838,7 @@
         <v>化石盔</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E141" s="4">
         <f>忽略_初始数值!B141*10</f>
@@ -13876,7 +13920,7 @@
         <v>镰刀盔</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E142" s="4">
         <f>忽略_初始数值!B142*10</f>
@@ -13958,7 +14002,7 @@
         <v>化石翼龙</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E143" s="4">
         <f>忽略_初始数值!B143*10</f>
@@ -14040,7 +14084,7 @@
         <v>卡比兽</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E144" s="4">
         <f>忽略_初始数值!B144*10</f>
@@ -14122,7 +14166,7 @@
         <v>急冻鸟</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E145" s="4">
         <f>忽略_初始数值!B145*10</f>
@@ -14204,7 +14248,7 @@
         <v>闪电鸟</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E146" s="4">
         <f>忽略_初始数值!B146*10</f>
@@ -14286,7 +14330,7 @@
         <v>火焰鸟</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E147" s="4">
         <f>忽略_初始数值!B147*10</f>
@@ -14368,7 +14412,7 @@
         <v>迷你龙</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E148" s="4">
         <f>忽略_初始数值!B148*10</f>
@@ -14450,7 +14494,7 @@
         <v>哈克龙</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E149" s="4">
         <f>忽略_初始数值!B149*10</f>
@@ -14532,7 +14576,7 @@
         <v>快龙</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E150" s="4">
         <f>忽略_初始数值!B150*10</f>
@@ -14614,7 +14658,7 @@
         <v>超梦</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E151" s="4">
         <f>忽略_初始数值!B151*10</f>
@@ -14696,7 +14740,7 @@
         <v>梦幻</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E152" s="4">
         <f>忽略_初始数值!B152*10</f>
@@ -14775,10 +14819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14790,9 +14834,10 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14800,37 +14845,43 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1001</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -14841,20 +14892,21 @@
       <c r="H2" s="4">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="4">
         <v>0.4</v>
@@ -14865,20 +14917,21 @@
       <c r="H3" s="4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>1003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="4">
         <v>0.35</v>
@@ -14889,17 +14942,18 @@
       <c r="H4" s="4">
         <v>1003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>1004</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="4">
@@ -14911,20 +14965,21 @@
       <c r="H5" s="4">
         <v>1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>1005</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F6" s="4">
         <v>0.35</v>
@@ -14935,17 +14990,18 @@
       <c r="H6" s="4">
         <v>1005</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>1006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="4">
@@ -14955,22 +15011,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>1007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F8" s="4">
         <v>0.35</v>
@@ -14981,17 +15038,18 @@
       <c r="H8" s="4">
         <v>1007</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>1008</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="4">
@@ -15003,17 +15061,18 @@
       <c r="H9" s="4">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>1009</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4">
@@ -15025,17 +15084,18 @@
       <c r="H10" s="4">
         <v>1009</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>2001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="25">
         <v>1.5</v>
@@ -15049,21 +15109,22 @@
       <c r="H11" s="4">
         <v>2001</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I11" s="25"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F12" s="4">
         <v>0.35</v>
@@ -15074,21 +15135,22 @@
       <c r="H12" s="4">
         <v>2002</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I12" s="25"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>2003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" s="4">
         <v>0.4</v>
@@ -15097,45 +15159,51 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>2004</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F14" s="4">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>2004</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>2005</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="4">
@@ -15145,23 +15213,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>3001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F16" s="4">
         <v>0.45</v>
@@ -15172,18 +15241,19 @@
       <c r="H16" s="4">
         <v>3001</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I16" s="25"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>3002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="4">
@@ -15195,21 +15265,22 @@
       <c r="H17" s="4">
         <v>3002</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I17" s="25"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>4001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F18" s="4">
         <v>0.35</v>
@@ -15220,21 +15291,22 @@
       <c r="H18" s="4">
         <v>4001</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I18" s="24"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>4002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F19" s="4">
         <v>0.4</v>
@@ -15245,18 +15317,19 @@
       <c r="H19" s="4">
         <v>4002</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I19" s="24"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>4003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="4">
@@ -15268,21 +15341,22 @@
       <c r="H20" s="4">
         <v>4003</v>
       </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I20" s="24"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>4004</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F21" s="4">
         <v>0.35</v>
@@ -15293,18 +15367,19 @@
       <c r="H21" s="4">
         <v>4004</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I21" s="24"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>4005</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="4">
@@ -15316,21 +15391,22 @@
       <c r="H22" s="4">
         <v>4005</v>
       </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I22" s="24"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>5001</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="F23" s="4">
         <v>0.3</v>
@@ -15341,17 +15417,18 @@
       <c r="H23" s="4">
         <v>5001</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>6001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -15363,17 +15440,18 @@
       <c r="H24" s="4">
         <v>6001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4">
         <v>7001</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
@@ -15385,20 +15463,21 @@
       <c r="H25" s="4">
         <v>7001</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>8001</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F26" s="4">
         <v>0.5</v>
@@ -15407,10 +15486,11 @@
         <v>3</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -15419,8 +15499,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -15429,8 +15510,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -15439,6 +15521,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15451,23 +15534,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.875" customWidth="1"/>
+    <col min="10" max="10" width="55.75" customWidth="1"/>
     <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="55.75" customWidth="1"/>
-    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.75" customWidth="1"/>
+    <col min="13" max="14" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15478,40 +15561,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -15520,26 +15603,26 @@
         <v>1001</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -15550,28 +15633,28 @@
         <v>1002</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -15582,28 +15665,28 @@
         <v>1003</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -15614,26 +15697,26 @@
         <v>1004</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -15643,19 +15726,19 @@
         <v>1005</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F6" s="26">
         <v>4</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="26">
         <v>2</v>
@@ -15667,26 +15750,26 @@
         <v>1006</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -15697,26 +15780,26 @@
         <v>1007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L8" s="4"/>
     </row>
@@ -15726,26 +15809,26 @@
         <v>1008</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -15755,26 +15838,26 @@
         <v>1009</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -15784,34 +15867,34 @@
         <v>2001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -15820,28 +15903,28 @@
         <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>335</v>
       </c>
       <c r="F12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H12" s="4">
         <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -15852,26 +15935,26 @@
         <v>2003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="4">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -15882,26 +15965,26 @@
         <v>200301</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -15912,25 +15995,29 @@
         <v>2004</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F15" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
@@ -15939,25 +16026,25 @@
         <v>2005</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H16" s="4">
         <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15965,25 +16052,25 @@
         <v>200501</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F17" s="4">
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H17" s="4">
         <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15991,25 +16078,25 @@
         <v>200502</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -16018,28 +16105,28 @@
         <v>3001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -16050,26 +16137,26 @@
         <v>3002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4">
         <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
@@ -16080,34 +16167,34 @@
         <v>4001</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -16118,28 +16205,28 @@
         <v>4002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -16152,26 +16239,26 @@
         <v>4003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -16184,32 +16271,32 @@
         <v>4004</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4">
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -16220,32 +16307,32 @@
         <v>4005</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="4">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -16256,19 +16343,19 @@
         <v>5001</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>342</v>
       </c>
       <c r="F26" s="26">
         <v>4</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H26" s="26">
         <v>2</v>
@@ -16284,28 +16371,28 @@
         <v>6001</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -16316,26 +16403,26 @@
         <v>7001</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H28" s="4">
         <v>2</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -16346,32 +16433,32 @@
         <v>8001</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
         <v>5</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -16380,32 +16467,32 @@
         <v>800101</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -16431,25 +16518,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="63.5" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -16458,34 +16545,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>226</v>
+        <v>477</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16493,28 +16580,28 @@
         <v>101</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="I2" s="20">
         <v>1</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16522,28 +16609,28 @@
         <v>102</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I3" s="20">
         <v>1</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16551,28 +16638,28 @@
         <v>103</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I4" s="20">
         <v>1</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16580,28 +16667,28 @@
         <v>104</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="I5" s="20">
         <v>1</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16609,28 +16696,28 @@
         <v>105</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="I6" s="20">
         <v>1</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16638,28 +16725,28 @@
         <v>106</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="I7" s="20">
         <v>1</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -16667,28 +16754,28 @@
         <v>107</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>225</v>
-      </c>
       <c r="I8" s="20">
         <v>1</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16696,28 +16783,28 @@
         <v>201</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I9" s="21">
         <v>1</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16725,28 +16812,28 @@
         <v>202</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I10" s="21">
         <v>1</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16754,28 +16841,28 @@
         <v>203</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>232</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I11" s="21">
         <v>1</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16783,28 +16870,28 @@
         <v>204</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I12" s="21">
         <v>1</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16812,28 +16899,28 @@
         <v>205</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I13" s="21">
         <v>1</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16841,28 +16928,28 @@
         <v>206</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I14" s="21">
         <v>1</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -16870,28 +16957,28 @@
         <v>207</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I15" s="21">
         <v>1</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -16899,25 +16986,25 @@
         <v>301</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>246</v>
-      </c>
       <c r="K16" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -16925,25 +17012,25 @@
         <v>302</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -16951,25 +17038,25 @@
         <v>303</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="J18" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -16977,25 +17064,48 @@
         <v>304</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>245</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -17023,7 +17133,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="str">
         <f>A2</f>
@@ -17088,7 +17198,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -17138,7 +17248,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12">
         <v>1.25</v>
@@ -17188,7 +17298,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -17238,7 +17348,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -17288,7 +17398,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -17338,7 +17448,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -17388,7 +17498,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -17438,7 +17548,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12">
         <v>0.5</v>
@@ -17488,7 +17598,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
@@ -17538,7 +17648,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
@@ -17588,7 +17698,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
@@ -17638,7 +17748,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -17688,7 +17798,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -17738,7 +17848,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -17788,7 +17898,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
@@ -17892,7 +18002,7 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="14">
         <v>60</v>
@@ -17909,7 +18019,7 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14">
         <v>80</v>
@@ -17926,7 +18036,7 @@
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14">
         <v>39</v>
@@ -17943,7 +18053,7 @@
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="14">
         <v>58</v>
@@ -17960,7 +18070,7 @@
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="14">
         <v>78</v>
@@ -17977,7 +18087,7 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="14">
         <v>44</v>
@@ -17994,7 +18104,7 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="14">
         <v>59</v>
@@ -18011,7 +18121,7 @@
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="14">
         <v>79</v>
@@ -18028,7 +18138,7 @@
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="14">
         <v>45</v>
@@ -18045,7 +18155,7 @@
     </row>
     <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="14">
         <v>50</v>
@@ -18062,7 +18172,7 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="14">
         <v>60</v>
@@ -18079,7 +18189,7 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="14">
         <v>40</v>
@@ -18096,7 +18206,7 @@
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14">
         <v>45</v>
@@ -18113,7 +18223,7 @@
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="14">
         <v>65</v>
@@ -18130,7 +18240,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="14">
         <v>40</v>
@@ -18147,7 +18257,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="14">
         <v>63</v>
@@ -18164,7 +18274,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="14">
         <v>83</v>
@@ -18181,7 +18291,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="14">
         <v>30</v>
@@ -18198,7 +18308,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="14">
         <v>55</v>
@@ -18215,7 +18325,7 @@
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="14">
         <v>40</v>
@@ -18232,7 +18342,7 @@
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="14">
         <v>65</v>
@@ -18249,7 +18359,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="14">
         <v>35</v>
@@ -18266,7 +18376,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="14">
         <v>60</v>
@@ -18283,7 +18393,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="14">
         <v>35</v>
@@ -18300,7 +18410,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="14">
         <v>60</v>
@@ -18317,7 +18427,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="14">
         <v>50</v>
@@ -18334,7 +18444,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="14">
         <v>75</v>
@@ -18351,7 +18461,7 @@
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="14">
         <v>55</v>
@@ -18368,7 +18478,7 @@
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="14">
         <v>70</v>
@@ -18385,7 +18495,7 @@
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="14">
         <v>90</v>
@@ -18402,7 +18512,7 @@
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="14">
         <v>46</v>
@@ -18419,7 +18529,7 @@
     </row>
     <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="14">
         <v>61</v>
@@ -18436,7 +18546,7 @@
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="14">
         <v>81</v>
@@ -18453,7 +18563,7 @@
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="14">
         <v>70</v>
@@ -18470,7 +18580,7 @@
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="14">
         <v>95</v>
@@ -18487,7 +18597,7 @@
     </row>
     <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="14">
         <v>38</v>
@@ -18504,7 +18614,7 @@
     </row>
     <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="14">
         <v>73</v>
@@ -18521,7 +18631,7 @@
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="14">
         <v>115</v>
@@ -18538,7 +18648,7 @@
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="14">
         <v>140</v>
@@ -18555,7 +18665,7 @@
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="14">
         <v>40</v>
@@ -18572,7 +18682,7 @@
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="14">
         <v>75</v>
@@ -18589,7 +18699,7 @@
     </row>
     <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="14">
         <v>45</v>
@@ -18606,7 +18716,7 @@
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="14">
         <v>60</v>
@@ -18623,7 +18733,7 @@
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="14">
         <v>75</v>
@@ -18640,7 +18750,7 @@
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="14">
         <v>35</v>
@@ -18657,7 +18767,7 @@
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="14">
         <v>60</v>
@@ -18674,7 +18784,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="14">
         <v>60</v>
@@ -18691,7 +18801,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="14">
         <v>70</v>
@@ -18708,7 +18818,7 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="14">
         <v>10</v>
@@ -18725,7 +18835,7 @@
     </row>
     <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="14">
         <v>35</v>
@@ -18742,7 +18852,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="14">
         <v>40</v>
@@ -18759,7 +18869,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="14">
         <v>65</v>
@@ -18776,7 +18886,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="14">
         <v>50</v>
@@ -18793,7 +18903,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="14">
         <v>80</v>
@@ -18810,7 +18920,7 @@
     </row>
     <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" s="14">
         <v>40</v>
@@ -18827,7 +18937,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="14">
         <v>65</v>
@@ -18844,7 +18954,7 @@
     </row>
     <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" s="14">
         <v>55</v>
@@ -18861,7 +18971,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="14">
         <v>90</v>
@@ -18878,7 +18988,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="14">
         <v>40</v>
@@ -18895,7 +19005,7 @@
     </row>
     <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="14">
         <v>65</v>
@@ -18912,7 +19022,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="14">
         <v>90</v>
@@ -18929,7 +19039,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="14">
         <v>25</v>
@@ -18946,7 +19056,7 @@
     </row>
     <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="14">
         <v>40</v>
@@ -18963,7 +19073,7 @@
     </row>
     <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="14">
         <v>55</v>
@@ -18980,7 +19090,7 @@
     </row>
     <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="14">
         <v>70</v>
@@ -18997,7 +19107,7 @@
     </row>
     <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="14">
         <v>80</v>
@@ -19014,7 +19124,7 @@
     </row>
     <row r="69" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="14">
         <v>90</v>
@@ -19031,7 +19141,7 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="14">
         <v>50</v>
@@ -19048,7 +19158,7 @@
     </row>
     <row r="71" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="14">
         <v>65</v>
@@ -19065,7 +19175,7 @@
     </row>
     <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="14">
         <v>80</v>
@@ -19082,7 +19192,7 @@
     </row>
     <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="14">
         <v>40</v>
@@ -19099,7 +19209,7 @@
     </row>
     <row r="74" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="14">
         <v>80</v>
@@ -19116,7 +19226,7 @@
     </row>
     <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="14">
         <v>40</v>
@@ -19133,7 +19243,7 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="14">
         <v>55</v>
@@ -19150,7 +19260,7 @@
     </row>
     <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="14">
         <v>80</v>
@@ -19167,7 +19277,7 @@
     </row>
     <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="14">
         <v>50</v>
@@ -19184,7 +19294,7 @@
     </row>
     <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="14">
         <v>65</v>
@@ -19201,7 +19311,7 @@
     </row>
     <row r="80" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="14">
         <v>90</v>
@@ -19218,7 +19328,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="14">
         <v>95</v>
@@ -19235,7 +19345,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="14">
         <v>25</v>
@@ -19252,7 +19362,7 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="14">
         <v>50</v>
@@ -19269,7 +19379,7 @@
     </row>
     <row r="84" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="14">
         <v>52</v>
@@ -19286,7 +19396,7 @@
     </row>
     <row r="85" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="14">
         <v>35</v>
@@ -19303,7 +19413,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="14">
         <v>60</v>
@@ -19320,7 +19430,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="14">
         <v>65</v>
@@ -19337,7 +19447,7 @@
     </row>
     <row r="88" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="14">
         <v>90</v>
@@ -19354,7 +19464,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" s="14">
         <v>80</v>
@@ -19371,7 +19481,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" s="14">
         <v>105</v>
@@ -19388,7 +19498,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="14">
         <v>30</v>
@@ -19405,7 +19515,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92" s="14">
         <v>50</v>
@@ -19422,7 +19532,7 @@
     </row>
     <row r="93" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" s="14">
         <v>30</v>
@@ -19439,7 +19549,7 @@
     </row>
     <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" s="14">
         <v>45</v>
@@ -19456,7 +19566,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95" s="14">
         <v>60</v>
@@ -19473,7 +19583,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" s="14">
         <v>35</v>
@@ -19490,7 +19600,7 @@
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="14">
         <v>60</v>
@@ -19507,7 +19617,7 @@
     </row>
     <row r="98" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" s="14">
         <v>85</v>
@@ -19524,7 +19634,7 @@
     </row>
     <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" s="14">
         <v>30</v>
@@ -19541,7 +19651,7 @@
     </row>
     <row r="100" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" s="14">
         <v>55</v>
@@ -19558,7 +19668,7 @@
     </row>
     <row r="101" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" s="14">
         <v>40</v>
@@ -19575,7 +19685,7 @@
     </row>
     <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" s="14">
         <v>60</v>
@@ -19592,7 +19702,7 @@
     </row>
     <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" s="14">
         <v>60</v>
@@ -19609,7 +19719,7 @@
     </row>
     <row r="104" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" s="14">
         <v>95</v>
@@ -19626,7 +19736,7 @@
     </row>
     <row r="105" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B105" s="14">
         <v>50</v>
@@ -19643,7 +19753,7 @@
     </row>
     <row r="106" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" s="14">
         <v>60</v>
@@ -19660,7 +19770,7 @@
     </row>
     <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" s="14">
         <v>50</v>
@@ -19677,7 +19787,7 @@
     </row>
     <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" s="14">
         <v>50</v>
@@ -19694,7 +19804,7 @@
     </row>
     <row r="109" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" s="14">
         <v>90</v>
@@ -19711,7 +19821,7 @@
     </row>
     <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" s="14">
         <v>40</v>
@@ -19728,7 +19838,7 @@
     </row>
     <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111" s="14">
         <v>65</v>
@@ -19745,7 +19855,7 @@
     </row>
     <row r="112" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="14">
         <v>80</v>
@@ -19762,7 +19872,7 @@
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" s="14">
         <v>105</v>
@@ -19779,7 +19889,7 @@
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114" s="14">
         <v>250</v>
@@ -19796,7 +19906,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="14">
         <v>65</v>
@@ -19813,7 +19923,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" s="14">
         <v>105</v>
@@ -19830,7 +19940,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B117" s="14">
         <v>30</v>
@@ -19847,7 +19957,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" s="14">
         <v>55</v>
@@ -19864,7 +19974,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119" s="14">
         <v>45</v>
@@ -19881,7 +19991,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="14">
         <v>80</v>
@@ -19898,7 +20008,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B121" s="14">
         <v>30</v>
@@ -19915,7 +20025,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B122" s="14">
         <v>60</v>
@@ -19932,7 +20042,7 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B123" s="14">
         <v>40</v>
@@ -19949,7 +20059,7 @@
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B124" s="14">
         <v>70</v>
@@ -19966,7 +20076,7 @@
     </row>
     <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B125" s="14">
         <v>65</v>
@@ -19983,7 +20093,7 @@
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" s="14">
         <v>65</v>
@@ -20000,7 +20110,7 @@
     </row>
     <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B127" s="14">
         <v>65</v>
@@ -20017,7 +20127,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B128" s="14">
         <v>65</v>
@@ -20034,7 +20144,7 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B129" s="14">
         <v>75</v>
@@ -20051,7 +20161,7 @@
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B130" s="14">
         <v>20</v>
@@ -20068,7 +20178,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131" s="14">
         <v>95</v>
@@ -20085,7 +20195,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132" s="14">
         <v>130</v>
@@ -20102,7 +20212,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B133" s="14">
         <v>48</v>
@@ -20119,7 +20229,7 @@
     </row>
     <row r="134" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B134" s="14">
         <v>55</v>
@@ -20136,7 +20246,7 @@
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B135" s="14">
         <v>130</v>
@@ -20153,7 +20263,7 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136" s="14">
         <v>65</v>
@@ -20170,7 +20280,7 @@
     </row>
     <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B137" s="14">
         <v>65</v>
@@ -20187,7 +20297,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" s="14">
         <v>65</v>
@@ -20204,7 +20314,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B139" s="14">
         <v>35</v>
@@ -20221,7 +20331,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B140" s="14">
         <v>70</v>
@@ -20238,7 +20348,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B141" s="14">
         <v>30</v>
@@ -20255,7 +20365,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B142" s="14">
         <v>60</v>
@@ -20272,7 +20382,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B143" s="14">
         <v>80</v>
@@ -20289,7 +20399,7 @@
     </row>
     <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B144" s="14">
         <v>160</v>
@@ -20306,7 +20416,7 @@
     </row>
     <row r="145" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145" s="14">
         <v>90</v>
@@ -20323,7 +20433,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B146" s="14">
         <v>90</v>
@@ -20340,7 +20450,7 @@
     </row>
     <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B147" s="14">
         <v>90</v>
@@ -20357,7 +20467,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B148" s="14">
         <v>41</v>
@@ -20374,7 +20484,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B149" s="14">
         <v>61</v>
@@ -20391,7 +20501,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150" s="14">
         <v>91</v>
@@ -20408,7 +20518,7 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B151" s="14">
         <v>106</v>
@@ -20425,7 +20535,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152" s="14">
         <v>100</v>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D140FB5C-4742-4169-A22C-EEA88EF72BEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493BC496-1404-4D92-AA87-55E9EC2B15DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色信息" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
           <t>（能被识别为debuff的效果，都有这个）
 21：可被驱散的减益效果（用来标记驱散debuff的效果，驱散只能21）
 22：随机减益效果（可以被随机上一个debuff的能力上上去的基础效果）
-25：持续伤害效果（用于直接结算dot）
+25：持续伤害效果
 30：控制效果
 40：护盾</t>
         </r>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="498">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -1425,10 +1425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1002 1004 1005 3001 3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乱抓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1457,10 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系数:1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1004 1006 3001 3002 6001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1862,6 +1854,73 @@
   </si>
   <si>
     <t>系数:2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002 1005 3001 3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的技能效果命中概率降低%value%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的命中降低效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:命中,最大值:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有%value%的概率免疫伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在同等或更强的闪避增加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性:闪避,最大值:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3:,状态编号:208,数值:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在灼烧效果</t>
+  </si>
+  <si>
+    <t>的灼烧效果已施加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼烧DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时机:回合开始,执行任务:伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:1002,数值:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2378,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -2431,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>12</v>
@@ -2502,7 +2561,7 @@
         <v>0.45</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" ref="N2:N33" si="1">E2+49*I2</f>
@@ -2581,7 +2640,7 @@
         <v>0.6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
@@ -2660,7 +2719,7 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="1"/>
@@ -2739,7 +2798,7 @@
         <v>0.65</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="1"/>
@@ -2818,7 +2877,7 @@
         <v>0.8</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="1"/>
@@ -2897,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="1"/>
@@ -2976,7 +3035,7 @@
         <v>0.43</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="1"/>
@@ -3055,7 +3114,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
@@ -3134,7 +3193,7 @@
         <v>0.78</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="1"/>
@@ -14822,7 +14881,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14864,10 +14923,10 @@
         <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
@@ -14947,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
@@ -14988,7 +15047,7 @@
         <v>365</v>
       </c>
       <c r="F6" s="4">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -15007,7 +15066,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="4">
@@ -15017,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I7" s="23"/>
     </row>
@@ -15030,10 +15089,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F8" s="4">
         <v>0.35</v>
@@ -15052,10 +15111,10 @@
         <v>1008</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="4">
@@ -15075,10 +15134,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4">
@@ -15197,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
@@ -15256,10 +15315,10 @@
         <v>3002</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="4">
@@ -15280,13 +15339,13 @@
         <v>4001</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>420</v>
       </c>
       <c r="F18" s="4">
         <v>0.35</v>
@@ -15306,13 +15365,13 @@
         <v>4002</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>424</v>
       </c>
       <c r="F19" s="4">
         <v>0.4</v>
@@ -15332,10 +15391,10 @@
         <v>4003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="4">
@@ -15356,13 +15415,13 @@
         <v>4004</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>442</v>
       </c>
       <c r="F21" s="4">
         <v>0.35</v>
@@ -15382,10 +15441,10 @@
         <v>4005</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="4">
@@ -15431,10 +15490,10 @@
         <v>6001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
@@ -15454,10 +15513,10 @@
         <v>7001</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
@@ -15477,13 +15536,13 @@
         <v>8001</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="F26" s="4">
         <v>0.5</v>
@@ -15492,7 +15551,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I26" s="4"/>
     </row>
@@ -15541,7 +15600,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15656,14 +15715,12 @@
       <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:16384" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -15688,14 +15745,12 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="5" spans="1:16384" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -15727,27 +15782,33 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:16384" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="26">
+    <row r="6" spans="1:16384" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
         <v>1005</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="26">
-        <v>4</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="4">
         <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="25.5" x14ac:dyDescent="0.35">
@@ -15759,7 +15820,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="4">
@@ -15775,7 +15836,7 @@
         <v>362</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -15786,28 +15847,27 @@
         <v>1007</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="9" spans="1:16384" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
@@ -15818,14 +15878,14 @@
         <v>366</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -15834,7 +15894,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L9" s="4"/>
     </row>
@@ -15847,14 +15907,14 @@
         <v>366</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -15863,7 +15923,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -15930,7 +15990,7 @@
         <v>266</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="25.5" x14ac:dyDescent="0.35">
@@ -15958,7 +16018,7 @@
         <v>337</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -16016,14 +16076,14 @@
       <c r="H15" s="4">
         <v>3</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -32468,10 +32528,10 @@
       <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -32504,8 +32564,12 @@
       <c r="J19" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
@@ -32516,7 +32580,7 @@
         <v>369</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
@@ -32532,10 +32596,14 @@
         <v>25</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+        <v>312</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -32549,7 +32617,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
@@ -32581,13 +32649,13 @@
         <v>4002</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>427</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -32598,14 +32666,12 @@
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
@@ -32615,26 +32681,26 @@
         <v>4003</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -32650,7 +32716,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="4">
@@ -32666,13 +32732,13 @@
         <v>25</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>266</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -32683,10 +32749,10 @@
         <v>4005</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="4">
@@ -32702,13 +32768,13 @@
         <v>25</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>266</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -32747,28 +32813,28 @@
         <v>6001</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -32782,23 +32848,23 @@
         <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H28" s="4">
         <v>2</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -32809,10 +32875,10 @@
         <v>8001</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
@@ -32825,16 +32891,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>266</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -32843,10 +32909,10 @@
         <v>800101</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
@@ -32859,16 +32925,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>266</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
@@ -32894,10 +32960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -32906,7 +32972,7 @@
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="61" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="4" bestFit="1" customWidth="1"/>
@@ -32945,7 +33011,7 @@
         <v>250</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>225</v>
@@ -33049,7 +33115,7 @@
         <v>233</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>290</v>
@@ -33078,7 +33144,7 @@
         <v>234</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>291</v>
@@ -33107,7 +33173,7 @@
         <v>237</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>292</v>
@@ -33136,7 +33202,7 @@
         <v>238</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>293</v>
@@ -33154,50 +33220,50 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
-        <v>201</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="21">
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="20">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="20">
         <v>1</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>255</v>
+      <c r="J9" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>229</v>
@@ -33209,24 +33275,24 @@
         <v>249</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>229</v>
@@ -33238,24 +33304,24 @@
         <v>249</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>229</v>
@@ -33267,24 +33333,24 @@
         <v>249</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>229</v>
@@ -33293,27 +33359,27 @@
         <v>1</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>229</v>
@@ -33322,27 +33388,27 @@
         <v>1</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>229</v>
@@ -33354,76 +33420,82 @@
         <v>249</v>
       </c>
       <c r="K15" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21">
+        <v>207</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22">
-        <v>301</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="22">
-        <v>302</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>248</v>
+    <row r="17" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="21">
+        <v>208</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="21">
+        <v>1</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="22">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>243</v>
@@ -33432,24 +33504,24 @@
         <v>244</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="22">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>409</v>
+        <v>245</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>243</v>
@@ -33458,30 +33530,111 @@
         <v>244</v>
       </c>
       <c r="K19" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22">
+        <v>303</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22">
+        <v>304</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
         <v>1001</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>466</v>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527965E-2D17-4163-9394-7ED0824AD2FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33BFF3-F52A-4055-A6CE-437C3D3D095D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌信息" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="544">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -1999,6 +1999,98 @@
   </si>
   <si>
     <t>1006 3002 8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,基础数值:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行类型_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在虫毒效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的虫毒效果已施加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫毒DOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 9002 1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:304,执行概率:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变硬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加叠加状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:105,基础数值:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3,状态编号:1003,效果基础:攻击,系数:0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在麻痹效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入麻痹中，无法行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 10001 2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:203,基础数值:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:306,执行概率:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,7 +2143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2184,6 +2276,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2212,7 +2316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -2290,6 +2394,10 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2572,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -3306,12 +3414,15 @@
         <f>忽略_初始数值!E11</f>
         <v>45</v>
       </c>
-      <c r="J11" s="4">
-        <v>1001</v>
-      </c>
-      <c r="K11" s="4" t="e">
+      <c r="I11" s="4">
+        <v>9001</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f>VLOOKUP(I11,技能!B:D,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>吐丝</v>
       </c>
       <c r="L11" s="4">
         <f>E11+99*VLOOKUP(1,资质!B:C,2,FALSE)</f>
@@ -3347,9 +3458,6 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
       <c r="B12" s="13">
         <v>11</v>
       </c>
@@ -3376,12 +3484,15 @@
         <f>忽略_初始数值!E12</f>
         <v>30</v>
       </c>
-      <c r="J12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="K12" s="4" t="e">
+      <c r="I12" s="4">
+        <v>1011</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f>VLOOKUP(I12,技能!B:D,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>变硬</v>
       </c>
       <c r="L12" s="4">
         <f>E12+99*VLOOKUP(1,资质!B:C,2,FALSE)</f>
@@ -13225,15 +13336,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
@@ -13517,54 +13629,53 @@
       </c>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27">
-        <v>2001</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="27">
+    <row r="12" spans="1:10" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="30">
         <v>0</v>
       </c>
-      <c r="H12" s="27">
-        <v>2001</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="30">
+        <v>1011</v>
+      </c>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>305</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1.5</v>
       </c>
       <c r="F13" s="27">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="27">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="27"/>
@@ -13572,25 +13683,25 @@
     <row r="14" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="27">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F14" s="27">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G14" s="27">
         <v>1</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>325</v>
+      <c r="H14" s="27">
+        <v>2002</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="27"/>
@@ -13598,175 +13709,175 @@
     <row r="15" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="B15" s="27">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27">
-        <v>2004</v>
-      </c>
-      <c r="I15" s="27">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>422</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="27">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27">
+        <v>2004</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27">
+      <c r="E17" s="29"/>
+      <c r="F17" s="27">
         <v>0.35</v>
       </c>
-      <c r="G16" s="27">
-        <v>1</v>
-      </c>
-      <c r="H16" s="27" t="s">
+      <c r="G17" s="27">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33">
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27">
+        <v>2006</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
+        <v>2006</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33">
         <v>3001</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C19" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F19" s="33">
         <v>0.45</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G19" s="33">
         <v>0</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H19" s="33">
         <v>3001</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33">
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33">
         <v>3002</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C20" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D20" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33">
+      <c r="E20" s="34"/>
+      <c r="F20" s="33">
         <v>0.35</v>
       </c>
-      <c r="G18" s="33">
-        <v>1</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33">
         <v>3002</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19">
-        <v>4001</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>4001</v>
-      </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19">
-        <v>4002</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>4002</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="19">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>386</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>387</v>
+      </c>
       <c r="F21" s="19">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="G21" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="19">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="19"/>
@@ -13774,25 +13885,25 @@
     <row r="22" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="19">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F22" s="19">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="G22" s="19">
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="I22" s="36"/>
       <c r="J22" s="19"/>
@@ -13800,180 +13911,266 @@
     <row r="23" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="19">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="19">
         <v>1</v>
       </c>
       <c r="H23" s="19">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38">
+    <row r="24" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19">
+        <v>4004</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>4004</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19">
+        <v>4005</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19">
+        <v>4005</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38">
         <v>5001</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C26" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D26" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E26" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F26" s="38">
         <v>0.3</v>
       </c>
-      <c r="G24" s="38">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38">
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38">
         <v>5001</v>
       </c>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:10" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21">
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:10" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21">
         <v>6001</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="I25" s="21">
-        <v>1</v>
-      </c>
-      <c r="J25" s="21" t="s">
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21">
+    <row r="28" spans="1:10" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21">
         <v>6002</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>6002</v>
       </c>
-      <c r="I26" s="21">
-        <v>1</v>
-      </c>
-      <c r="J26" s="21" t="s">
+      <c r="I28" s="21">
+        <v>1</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40">
+    <row r="29" spans="1:10" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40">
         <v>7001</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C29" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40">
         <v>0.3</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G29" s="40">
         <v>0</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H29" s="40">
         <v>7001</v>
       </c>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42">
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:10" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42">
         <v>8001</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C30" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D30" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E30" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F30" s="42">
         <v>0.5</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G30" s="42">
         <v>3</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H30" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45">
+        <v>9001</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="45">
+        <v>0</v>
+      </c>
+      <c r="H31" s="45">
+        <v>9001</v>
+      </c>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45">
+        <v>9002</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0</v>
+      </c>
+      <c r="H32" s="45">
+        <v>9002</v>
+      </c>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47">
+        <v>10001</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47">
+        <v>0.35</v>
+      </c>
+      <c r="G33" s="47">
+        <v>0</v>
+      </c>
+      <c r="H33" s="47">
+        <v>10001</v>
+      </c>
+      <c r="I33" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13984,27 +14181,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.5" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.75" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14041,8 +14242,14 @@
       <c r="L1" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B2" s="30">
         <v>1001</v>
       </c>
@@ -14068,7 +14275,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B3" s="30">
         <v>1002</v>
       </c>
@@ -14097,7 +14304,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B4" s="30">
         <v>1003</v>
       </c>
@@ -14126,7 +14333,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B5" s="30">
         <v>1004</v>
       </c>
@@ -14152,7 +14359,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B6" s="30">
         <v>1005</v>
       </c>
@@ -14181,7 +14388,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B7" s="30">
         <v>1006</v>
       </c>
@@ -14207,7 +14414,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B8" s="30">
         <v>1007</v>
       </c>
@@ -14233,7 +14440,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B9" s="30">
         <v>1008</v>
       </c>
@@ -14259,7 +14466,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B10" s="30">
         <v>1009</v>
       </c>
@@ -14285,7 +14492,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B11" s="30">
         <v>1010</v>
       </c>
@@ -14311,7 +14518,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B12" s="30">
         <v>101001</v>
       </c>
@@ -14337,56 +14544,53 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="27">
+    <row r="13" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="30">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" s="30">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="27">
         <v>2001</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E14" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F14" s="27">
         <v>3</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="27">
-        <v>1</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
-        <v>2002</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" s="27">
-        <v>5</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>309</v>
-      </c>
       <c r="H14" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="27" t="s">
         <v>17</v>
@@ -14395,596 +14599,739 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="27">
+        <v>5</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" s="27">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="27">
         <v>2003</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F16" s="27">
         <v>4</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="H15" s="27">
-        <v>1</v>
-      </c>
-      <c r="I15" s="27" t="s">
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J16" s="27" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="27">
+    <row r="17" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="27">
         <v>200301</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27" t="s">
+      <c r="F17" s="27">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="27">
-        <v>1</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J17" s="27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="27">
+    <row r="18" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="27">
         <v>2004</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D18" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E18" s="27" t="s">
         <v>329</v>
-      </c>
-      <c r="F17" s="27">
-        <v>5</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="27">
-        <v>3</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="27">
-        <v>2005</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>332</v>
       </c>
       <c r="F18" s="27">
         <v>5</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="H18" s="27">
         <v>3</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="K18" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="27">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="27">
+        <v>5</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="27">
+        <v>3</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J19" s="27" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="27">
+    <row r="20" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="27">
         <v>200501</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F20" s="27">
         <v>4</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H20" s="27">
         <v>2</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I20" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J20" s="27" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="27">
+    <row r="21" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="27">
         <v>200502</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D21" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="27">
-        <v>1</v>
-      </c>
-      <c r="G20" s="27" t="s">
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="H20" s="27">
-        <v>1</v>
-      </c>
-      <c r="K20" s="27" t="s">
+      <c r="H21" s="27">
+        <v>1</v>
+      </c>
+      <c r="K21" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L21" s="27" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="33">
+    <row r="22" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="27">
+        <v>2006</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="F22" s="27">
+        <v>5</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="27">
+        <v>1</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="33">
         <v>3001</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E23" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F23" s="33">
         <v>3</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="33">
-        <v>1</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      <c r="H23" s="33">
+        <v>1</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L23" s="33" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="33">
+    <row r="24" spans="2:14" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="33">
         <v>3002</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C24" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F24" s="33">
         <v>4</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H24" s="33">
         <v>2</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J24" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K24" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L24" s="33" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="19">
+    <row r="25" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="19">
         <v>4001</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F25" s="19">
         <v>4</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="H25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J25" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K25" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L25" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="19">
+    <row r="26" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="19">
         <v>4002</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D26" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="19">
-        <v>4003</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="H25" s="19">
-        <v>2</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="19">
-        <v>4004</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="F26" s="19">
-        <v>5</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="H26" s="19">
-        <v>2</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>258</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B27" s="19">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F27" s="19">
         <v>5</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="H27" s="19">
         <v>2</v>
       </c>
       <c r="I27" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="19">
+        <v>4004</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="19">
+        <v>5</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19">
+        <v>2</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J28" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="19">
+        <v>4005</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" s="19">
+        <v>5</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="19">
+        <v>2</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K29" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L29" s="19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="38">
+    <row r="30" spans="2:14" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="38">
         <v>5001</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C30" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D30" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E30" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F30" s="38">
         <v>4</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G30" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H30" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="21">
+    <row r="31" spans="2:14" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="21">
         <v>6001</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E31" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="21">
-        <v>1</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="H29" s="21">
-        <v>1</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="21">
-        <v>600101</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="F30" s="21">
-        <v>1</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="H30" s="21">
-        <v>1</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="21">
-        <v>6002</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F31" s="21">
-        <v>5</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="H31" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" s="21" t="s">
         <v>258</v>
       </c>
       <c r="L31" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="21">
+        <v>600101</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H32" s="21">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="21">
+        <v>6002</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F33" s="21">
+        <v>5</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="21">
+        <v>3</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="21" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="40">
+    <row r="34" spans="2:14" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="40">
         <v>7001</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C34" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D34" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F34" s="40">
         <v>4</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H34" s="40">
         <v>2</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I34" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J34" s="40" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="42">
+    <row r="35" spans="2:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="42">
         <v>8001</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C35" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D35" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F35" s="42">
         <v>5</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G35" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="42">
-        <v>1</v>
-      </c>
-      <c r="I33" s="42" t="s">
+      <c r="H35" s="42">
+        <v>1</v>
+      </c>
+      <c r="I35" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J35" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K35" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L35" s="42" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="42">
+    <row r="36" spans="2:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="42">
         <v>800101</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C36" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D36" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="F34" s="42">
-        <v>1</v>
-      </c>
-      <c r="G34" s="42" t="s">
+      <c r="F36" s="42">
+        <v>1</v>
+      </c>
+      <c r="G36" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="H34" s="42">
-        <v>1</v>
-      </c>
-      <c r="I34" s="42" t="s">
+      <c r="H36" s="42">
+        <v>1</v>
+      </c>
+      <c r="I36" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J36" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K36" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L36" s="42" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+    <row r="37" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="45">
+        <v>9001</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="F37" s="45">
+        <v>5</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="45">
+        <v>2</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="N37" s="45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="45">
+        <v>9002</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="F38" s="45">
+        <v>4</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="45">
+        <v>1</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="47">
+        <v>10001</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="F39" s="47">
+        <v>4</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="47">
+        <v>1</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14995,10 +15342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -15646,55 +15993,107 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>419</v>
+    <row r="23" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
+        <v>306</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>417</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>490</v>
       </c>
     </row>

--- a/excel/导表_角色信息表.xlsx
+++ b/excel/导表_角色信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33BFF3-F52A-4055-A6CE-437C3D3D095D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2DE43-0D4F-4334-8146-01FAADC35196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="563">
   <si>
     <t>妙蛙种子</t>
   </si>
@@ -1226,10 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日光术回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1274,18 +1270,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花瓣舞回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系数:0.1,效果基础:最大生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花瓣舞负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1430,10 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地球上投负面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系数:0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1717,18 +1701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:10,状态编号:104,基础数值:0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:3:,状态编号:208,基础数值:0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:1,状态编号:203,基础数值:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合数:2,状态编号:1002,效果基础:攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1777,10 +1749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:2,状态编号:201,基础数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忽略_描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1898,10 +1866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:10,状态编号:204,基础数值:0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1006 1006 1006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1966,10 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:2,状态编号:203,基础数值:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1008 4002 4003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1982,22 +1942,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:2,状态编号:202,基础数值:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数:2,状态编号:105,基础数值:0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系数:2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:10,状态编号:104,基础数值:0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1006 3002 8001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2010,10 +1958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:1,状态编号:203,基础数值:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行类型_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2058,10 +2002,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:10,状态编号:105,基础数值:0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滚动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2086,11 +2026,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数:2,状态编号:203,基础数值:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合数:2,状态编号:306,执行概率:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时机:回合开始,执行任务:技能,执行编号:9003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶舞+伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶舞+闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:104,效果基础:速度,系数:0.002,执行概率:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻象光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:301,执行概率:0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:1.5,效果基础:速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001 7002 9004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9003 900301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数:0.5,效果基础:速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004 900401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3,状态编号:103,效果基础:速度,系数:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:201,系数:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:104,系数:0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:3:,状态编号:208,效果基础:速度,系数:0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:202,系数:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:105,效果基础:防御,系数:0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:203,系数:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,系数:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:105,效果基础:防御,系数:0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:203,系数:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:204,系数:0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:10,状态编号:104,系数:0.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:1,状态编号:203,系数:0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数:2,状态编号:108,效果基础:速度,系数:0.001,执行概率:0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色旋风(治疗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上投(负面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日光术(治疗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞(治疗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓣舞(负面暴走)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,7 +2219,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2288,6 +2364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE61DEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2316,7 +2398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -2398,12 +2480,20 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5CACA2"/>
+      <color rgb="FFE61DEB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2680,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -2693,8 +2783,13 @@
     <col min="9" max="9" width="9.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="26.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.375" style="4" customWidth="1"/>
-    <col min="13" max="19" width="14.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="4" customWidth="1"/>
+    <col min="15" max="16" width="10" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="4" customWidth="1"/>
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2724,37 +2819,37 @@
         <v>7</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -2788,7 +2883,7 @@
         <v>2004</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>VLOOKUP(I2,技能!B:D,3,FALSE)</f>
@@ -2858,7 +2953,7 @@
         <v>2003</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>VLOOKUP(I3,技能!B:D,3,FALSE)</f>
@@ -2928,7 +3023,7 @@
         <v>2005</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K4" s="4" t="str">
         <f>VLOOKUP(I4,技能!B:D,3,FALSE)</f>
@@ -2998,7 +3093,7 @@
         <v>1005</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K5" s="4" t="str">
         <f>VLOOKUP(I5,技能!B:D,3,FALSE)</f>
@@ -3068,7 +3163,7 @@
         <v>6001</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="K6" s="4" t="str">
         <f>VLOOKUP(I6,技能!B:D,3,FALSE)</f>
@@ -3138,7 +3233,7 @@
         <v>6002</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>VLOOKUP(I7,技能!B:D,3,FALSE)</f>
@@ -3208,7 +3303,7 @@
         <v>1010</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>VLOOKUP(I8,技能!B:D,3,FALSE)</f>
@@ -3278,7 +3373,7 @@
         <v>4004</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(I9,技能!B:D,3,FALSE)</f>
@@ -3348,7 +3443,7 @@
         <v>4005</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="K10" s="4" t="str">
         <f>VLOOKUP(I10,技能!B:D,3,FALSE)</f>
@@ -3418,7 +3513,7 @@
         <v>9001</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="K11" s="4" t="str">
         <f>VLOOKUP(I11,技能!B:D,3,FALSE)</f>
@@ -3488,7 +3583,7 @@
         <v>1011</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="K12" s="4" t="str">
         <f>VLOOKUP(I12,技能!B:D,3,FALSE)</f>
@@ -3528,9 +3623,6 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
       <c r="B13" s="13">
         <v>12</v>
       </c>
@@ -3557,12 +3649,15 @@
         <f>忽略_初始数值!E13</f>
         <v>70</v>
       </c>
-      <c r="J13" s="4">
-        <v>1001</v>
-      </c>
-      <c r="K13" s="4" t="e">
+      <c r="I13" s="4">
+        <v>9003</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K13" s="4" t="str">
         <f>VLOOKUP(I13,技能!B:D,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>蝶舞</v>
       </c>
       <c r="L13" s="4">
         <f>E13+99*VLOOKUP(1,资质!B:C,2,FALSE)</f>
@@ -13336,10 +13431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13370,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>18</v>
@@ -13382,10 +13477,10 @@
         <v>16</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -13461,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -13470,10 +13565,10 @@
         <v>1004</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="30">
@@ -13493,13 +13588,13 @@
         <v>1005</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F6" s="30">
         <v>0.5</v>
@@ -13521,7 +13616,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="30">
@@ -13531,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I7" s="32"/>
     </row>
@@ -13544,10 +13639,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F8" s="30">
         <v>0.35</v>
@@ -13566,10 +13661,10 @@
         <v>1008</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="30">
@@ -13589,10 +13684,10 @@
         <v>1009</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="30">
@@ -13615,7 +13710,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="30">
@@ -13625,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="I11" s="32"/>
     </row>
@@ -13638,10 +13733,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F12" s="30">
         <v>0.4</v>
@@ -13727,7 +13822,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="27"/>
@@ -13741,10 +13836,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>327</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>328</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -13755,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -13767,7 +13862,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="27">
@@ -13777,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="27"/>
@@ -13791,7 +13886,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="27">
@@ -13812,13 +13907,13 @@
         <v>3001</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F19" s="33">
         <v>0.45</v>
@@ -13838,10 +13933,10 @@
         <v>3002</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="33">
@@ -13862,13 +13957,13 @@
         <v>4001</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F21" s="19">
         <v>0.35</v>
@@ -13888,13 +13983,13 @@
         <v>4002</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F22" s="19">
         <v>0.4</v>
@@ -13914,10 +14009,10 @@
         <v>4003</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="19">
@@ -13938,13 +14033,13 @@
         <v>4004</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F24" s="19">
         <v>0.35</v>
@@ -13964,10 +14059,10 @@
         <v>4005</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="19">
@@ -14013,22 +14108,22 @@
         <v>6001</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I27" s="21">
         <v>1</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14040,7 +14135,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -14052,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14061,10 +14156,10 @@
         <v>7001</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40">
@@ -14078,99 +14173,193 @@
       </c>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:10" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42">
+    <row r="30" spans="1:10" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40">
+        <v>7002</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
+        <v>7002</v>
+      </c>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:10" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42">
         <v>8001</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="F30" s="42">
+      <c r="C31" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F31" s="42">
         <v>0.5</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G31" s="42">
         <v>3</v>
       </c>
-      <c r="H30" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45">
-        <v>9001</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="45">
-        <v>0</v>
-      </c>
-      <c r="H31" s="45">
-        <v>9001</v>
-      </c>
-      <c r="I31" s="45"/>
+      <c r="H31" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A32" s="45"/>
       <c r="B32" s="45">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="45">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G32" s="45">
         <v>0</v>
       </c>
       <c r="H32" s="45">
+        <v>9001</v>
+      </c>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45">
         <v>9002</v>
       </c>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47">
+      <c r="C33" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="G33" s="45">
+        <v>0</v>
+      </c>
+      <c r="H33" s="45">
+        <v>9002</v>
+      </c>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45">
+        <v>9003</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="I34" s="45">
+        <v>1</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45">
+        <v>9004</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="45">
+        <v>0</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47">
         <v>10001</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C36" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47">
+      <c r="D36" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47">
         <v>0.35</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G36" s="47">
         <v>0</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H36" s="47">
         <v>10001</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="1:10" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49">
+        <v>11001</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="49">
+        <v>1</v>
+      </c>
+      <c r="H37" s="49">
+        <v>11001</v>
+      </c>
+      <c r="I37" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14181,28 +14370,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.25" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.75" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14243,10 +14432,10 @@
         <v>263</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14301,7 +14490,7 @@
         <v>295</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14330,7 +14519,7 @@
         <v>302</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14341,7 +14530,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F5" s="30">
         <v>1</v>
@@ -14353,10 +14542,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14367,10 +14556,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F6" s="30">
         <v>5</v>
@@ -14385,7 +14574,7 @@
         <v>258</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14396,7 +14585,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F7" s="30">
         <v>5</v>
@@ -14411,7 +14600,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14422,13 +14611,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F8" s="30">
         <v>4</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H8" s="30">
         <v>2</v>
@@ -14437,7 +14626,7 @@
         <v>258</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14448,13 +14637,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F9" s="30">
         <v>4</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H9" s="30">
         <v>1</v>
@@ -14463,7 +14652,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14474,13 +14663,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F10" s="30">
         <v>5</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
@@ -14489,7 +14678,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14500,7 +14689,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="F11" s="30">
         <v>5</v>
@@ -14526,7 +14715,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
@@ -14538,10 +14727,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14552,7 +14741,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F13" s="30">
         <v>1</v>
@@ -14564,10 +14753,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14651,7 +14840,7 @@
         <v>321</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14662,7 +14851,7 @@
         <v>322</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>323</v>
+        <v>560</v>
       </c>
       <c r="F17" s="27">
         <v>1</v>
@@ -14674,10 +14863,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14688,10 +14877,10 @@
         <v>29</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F18" s="27">
         <v>5</v>
@@ -14703,10 +14892,10 @@
         <v>3</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14714,16 +14903,16 @@
         <v>2005</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>331</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>332</v>
       </c>
       <c r="F19" s="27">
         <v>5</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H19" s="27">
         <v>3</v>
@@ -14732,7 +14921,7 @@
         <v>321</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14743,22 +14932,22 @@
         <v>322</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
       <c r="F20" s="27">
         <v>4</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="H20" s="27">
         <v>2</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14769,13 +14958,13 @@
         <v>29</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>337</v>
+        <v>562</v>
       </c>
       <c r="F21" s="27">
         <v>1</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H21" s="27">
         <v>1</v>
@@ -14784,7 +14973,7 @@
         <v>258</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14795,7 +14984,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F22" s="27">
         <v>5</v>
@@ -14810,13 +14999,13 @@
         <v>258</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>258</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14830,7 +15019,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F23" s="33">
         <v>3</v>
@@ -14845,13 +15034,13 @@
         <v>17</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="2:14" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14859,10 +15048,10 @@
         <v>3002</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F24" s="33">
         <v>4</v>
@@ -14880,10 +15069,10 @@
         <v>297</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14897,7 +15086,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F25" s="19">
         <v>4</v>
@@ -14918,7 +15107,7 @@
         <v>258</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14926,16 +15115,16 @@
         <v>4002</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H26" s="19">
         <v>1</v>
@@ -14944,7 +15133,7 @@
         <v>258</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14952,25 +15141,25 @@
         <v>4003</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F27" s="19">
         <v>5</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H27" s="19">
         <v>2</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -14981,7 +15170,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F28" s="19">
         <v>5</v>
@@ -14996,13 +15185,13 @@
         <v>17</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>258</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="2:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15010,10 +15199,10 @@
         <v>4005</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F29" s="19">
         <v>5</v>
@@ -15034,7 +15223,7 @@
         <v>258</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="2:14" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15065,13 +15254,13 @@
         <v>6001</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -15086,7 +15275,7 @@
         <v>258</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15097,10 +15286,10 @@
         <v>32</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F32" s="21">
         <v>1</v>
@@ -15115,7 +15304,7 @@
         <v>258</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15126,10 +15315,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F33" s="21">
         <v>5</v>
@@ -15144,7 +15333,7 @@
         <v>258</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="2:14" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -15155,182 +15344,344 @@
         <v>21</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F34" s="40">
         <v>4</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H34" s="40">
         <v>2</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="42">
-        <v>8001</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="F35" s="42">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="40">
+        <v>7002</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="F35" s="40">
         <v>5</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="42">
-        <v>1</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="K35" s="42" t="s">
+      <c r="G35" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H35" s="40">
+        <v>3</v>
+      </c>
+      <c r="K35" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="L35" s="42" t="s">
-        <v>377</v>
+      <c r="L35" s="40" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B36" s="42">
-        <v>800101</v>
+        <v>8001</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F36" s="42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="H36" s="42">
         <v>1</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J36" s="42" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>258</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="45">
-        <v>9001</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>521</v>
-      </c>
-      <c r="F37" s="45">
-        <v>5</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="45">
-        <v>2</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="K37" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="42">
+        <v>800101</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" s="42">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="H37" s="42">
+        <v>1</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K37" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="L37" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="M37" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="N37" s="45" t="s">
-        <v>532</v>
+      <c r="L37" s="42" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B38" s="45">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F38" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>366</v>
+        <v>509</v>
       </c>
       <c r="K38" s="45" t="s">
         <v>258</v>
       </c>
       <c r="L38" s="45" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="47">
+        <v>556</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="N38" s="45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="45">
+        <v>9002</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="F39" s="45">
+        <v>4</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="45">
+        <v>1</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="45">
+        <v>9003</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" s="45">
+        <v>1</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="H40" s="45">
+        <v>1</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="45">
+        <v>900301</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="45">
+        <v>1</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="45">
+        <v>1</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="45">
+        <v>9004</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="F42" s="45">
+        <v>5</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="45">
+        <v>3</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="45">
+        <v>900401</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="F43" s="45">
+        <v>3</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="H43" s="45">
+        <v>2</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="47">
         <v>10001</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C44" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D44" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44" s="47">
+        <v>4</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="47">
+        <v>1</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" s="49" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="49">
+        <v>11001</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="F45" s="49">
+        <v>5</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="49">
+        <v>2</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="K45" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" s="49" t="s">
         <v>536</v>
-      </c>
-      <c r="F39" s="47">
-        <v>4</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="47">
-        <v>1</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="47" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -15344,8 +15695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -15393,7 +15744,7 @@
         <v>242</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>217</v>
@@ -15497,7 +15848,7 @@
         <v>225</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>280</v>
@@ -15526,7 +15877,7 @@
         <v>226</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>281</v>
@@ -15555,7 +15906,7 @@
         <v>229</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>282</v>
@@ -15584,7 +15935,7 @@
         <v>230</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>283</v>
@@ -15610,13 +15961,13 @@
         <v>215</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>216</v>
@@ -15628,7 +15979,7 @@
         <v>219</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -15729,7 +16080,7 @@
         <v>227</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>280</v>
@@ -15758,7 +16109,7 @@
         <v>228</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>281</v>
@@ -15787,7 +16138,7 @@
         <v>231</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>282</v>
@@ -15816,7 +16167,7 @@
         <v>232</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>283</v>
@@ -15842,13 +16193,13 @@
         <v>220</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>221</v>
@@ -15860,7 +16211,7 @@
         <v>241</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -15949,13 +16300,13 @@
         <v>233</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>235</v>
@@ -15972,10 +16323,10 @@
         <v>305</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>276</v>
@@ -15984,7 +16335,7 @@
         <v>287</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>236</v>
@@ -16001,13 +16352,13 @@
         <v>233</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>235</v>
@@ -16024,25 +16375,25 @@
         <v>1001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
@@ -16050,25 +16401,25 @@
         <v>1002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
@@ -16076,25 +16427,25 @@
         <v>1003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -16123,7 +16474,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>8</v>
@@ -16143,16 +16494,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16160,16 +16511,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16177,16 +16528,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16194,16 +16545,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16211,16 +16562,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16228,16 +16579,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16245,16 +16596,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16262,16 +16613,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
@@ -16279,16 +16630,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
@@ -16296,16 +16647,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
